--- a/Ergebnisse_WA.xlsx
+++ b/Ergebnisse_WA.xlsx
@@ -630,7 +630,11 @@
           <t>Das Unternehmen gibt für die konsolidierte Nachhaltigkeitsberichterstattung an, ob eine Bestätigung, dass der Konsolidierungskreis der gleiche wie für die Jahresabschlüsse ist, oder gegebenenfalls eine Erklärung, dass das Bericht erstattende Unternehmen keinen Jahresabschluss erstellen muss oder dass das Bericht erstattende Unternehmen eine konsolidierte Nachhaltigkeitsberichterstattung gemäß Artikel 48i der Richtlinie 2013/34/EU erstellt</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ibiu</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="70" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -643,7 +647,11 @@
           <t>Das Unternehmen gibt für die konsolidierte Nachhaltigkeitsberichterstattung an, ob gegebenenfalls, welche in die Konsolidierung einbezogenen Tochterunternehmen gemäß Artikel 19a Absatz 9 oder Artikel 29a Absatz 8 der Richtlinie 2013/34/EU von der jährlichen oder konsolidierten Nachhaltigkeitsberichterstattung ausgenommen sind</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mkjnijni</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="70" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
@@ -997,14 +1005,50 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="C2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dgdh
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Ergebnisse_WA.xlsx
+++ b/Ergebnisse_WA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" tabRatio="600" firstSheet="3" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Übersicht" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allgemeine Angaben" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mindestangaben" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stakeholder" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Externe Nachhaltigkeitspunkte" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -20,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -28,16 +29,30 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,20 +60,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </dxf>
@@ -151,12 +239,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" headerRowCount="1" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:C30"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Referenz" dataDxfId="1"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="0"/>
-    <tableColumn id="3" name="Antwort"/>
+    <tableColumn id="1" name="Referenz" dataDxfId="11"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="10"/>
+    <tableColumn id="3" name="Antwort" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle5" displayName="Tabelle5" ref="A1:C11" headerRowCount="1" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A1:C11"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Referenz" dataDxfId="3"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="2"/>
+    <tableColumn id="3" name="Antwort" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,7 +601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -544,22 +644,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Klimawandel</t>
+          <t>Direkte Ausbeutung</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Klimawandel</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Klimaschutz</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
@@ -577,29 +694,30 @@
   </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.90625" defaultRowHeight="70" customHeight="1"/>
   <cols>
-    <col width="18.6328125" customWidth="1" min="1" max="1"/>
-    <col width="126.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="135.1796875" customWidth="1" min="3" max="3"/>
+    <col width="18.6328125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="126.1796875" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="126.453125" customWidth="1" style="2" min="3" max="3"/>
+    <col width="115.90625" customWidth="1" style="2" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Referenz</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Beschreibung</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Antwort</t>
         </is>
@@ -616,6 +734,12 @@
           <t>Das Unternehmen gibt an, ob die Nachhaltigkeitserklärung auf konsolidierter oder auf individueller Basis erstellt wurde</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fsgdgdf
+</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="70" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
@@ -628,6 +752,7 @@
           <t>Das Unternehmen gibt für die konsolidierte Nachhaltigkeitsberichterstattung an, ob eine Bestätigung, dass der Konsolidierungskreis der gleiche wie für die Jahresabschlüsse ist, oder gegebenenfalls eine Erklärung, dass das Bericht erstattende Unternehmen keinen Jahresabschluss erstellen muss oder dass das Bericht erstattende Unternehmen eine konsolidierte Nachhaltigkeitsberichterstattung gemäß Artikel 48i der Richtlinie 2013/34/EU erstellt</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4" ht="70" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
@@ -640,6 +765,7 @@
           <t>Das Unternehmen gibt für die konsolidierte Nachhaltigkeitsberichterstattung an, ob gegebenenfalls, welche in die Konsolidierung einbezogenen Tochterunternehmen gemäß Artikel 19a Absatz 9 oder Artikel 29a Absatz 8 der Richtlinie 2013/34/EU von der jährlichen oder konsolidierten Nachhaltigkeitsberichterstattung ausgenommen sind</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5" ht="70" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
@@ -652,6 +778,7 @@
           <t>Das Unternehmen gibt an inwieweit die Nachhaltigkeitserklärung die vor- und nachgelagerte Wertschöpfungskette des Unternehmens abdeckt (siehe ESRS 1 Abschnitt 5.1 Bericht erstattendes Unternehmen und Wertschöpfungskette)</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6" ht="70" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
@@ -664,6 +791,7 @@
           <t>Das Unternehmen hat eine Übersicht über die in seiner Nachhaltigkeitserklärung bereitgestellten Informationen über das Verfahren zur Erfüllung der Sorgfaltspflicht anzugeben.</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7" ht="70" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
@@ -676,6 +804,7 @@
           <t>Beschreibung des Umfangs, der Hauptmerkmale und Komponenten der Risikomanagement- und internen Kontrollprozesse und -systeme in Bezug auf die Nachhaltigkeitsberichterstattung</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8" ht="70" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
@@ -688,6 +817,7 @@
           <t>Beschreibung verwendeten Ansatz zur Risikobewertung, einschließlich der Methode zur Priorisierung von Risiken</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9" ht="70" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
@@ -700,6 +830,7 @@
           <t>Angabe der wichtigsten ermittelten Risiken und die Minderungsstrategien, einschließlich damit verbundener Kontrollen</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10" ht="70" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
@@ -712,6 +843,7 @@
           <t>Beschreibung, wie das Unternehmen die Ergebnisse seiner Risikobewertung und seiner internen Kontrollen in Bezug auf das Verfahren der Nachhaltigkeitsberichterstattung in die einschlägigen internen Funktionen und Prozesse einbindet</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11" ht="70" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
@@ -724,6 +856,7 @@
           <t>Beschreibung wesentlicher Gruppen von angebotenen Produkten und (oder) Dienstleistungen</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12" ht="70" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
@@ -736,6 +869,7 @@
           <t>Angabe der Zahl der Beschäftigten nach geografischen Gebieten</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13" ht="70" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
@@ -748,6 +882,7 @@
           <t>Aufschlüsselung der Gesamteinnahmen, wie sie im Jahresabschluss angegeben wurden, nach den maßgeblichen ESRS-Sektoren. Enthält der Jahresabschluss des Unternehmens Segmentberichterstattung nach dem IFRS 8 Geschäftssegmente, werden diese Informationen über die Umsatzerlöse des Sektors so weit wie möglich mit den Angaben gemäß IFRS 8 abgeglichen</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14" ht="70" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
@@ -760,6 +895,7 @@
           <t>Einnahmen aus Taxonomie-konformen Wirtschaftsaktivitäten im Zusammenhang mit fossilem Gas</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15" ht="70" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
@@ -772,6 +908,7 @@
           <t>Beschreibung nachhaltigkeitsbezogener Ziele im Hinblick auf wesentliche Produkt- und Dienstleistungsgruppen, Kundenkategorien, geografische Gebiete und Beziehungen zu Stakeholdern</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16" ht="70" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
@@ -784,6 +921,7 @@
           <t>Beschreibung des Geschäftsmodells und der Wertschöpfungskette</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17" ht="70" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +934,7 @@
           <t>Beschreibung der Inputs und Vorgehensweise beim Sammeln, Erarbeiten und Sichern von Inputs</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18" ht="70" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
@@ -808,6 +947,7 @@
           <t>Beschreibung der Leistungen und Ergebnisse im Hinblick auf aktuelle und erwartete Vorteile für Kunden, Investoren und andere Stakeholder</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19" ht="70" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
@@ -820,6 +960,7 @@
           <t>Beschreibung der wichtigsten Merkmale seiner vor- und nachgelagerten Wertschöpfungskette und der Position des Unternehmens in seiner Wertschöpfungskette, einschließlich einer Beschreibung der wichtigsten Wirtschaftsakteure (wie wichtige Lieferanten, Vertriebskanäle und Endnutzer) und ihrer Beziehung zum Unternehmen. Verfügt das Unternehmen über mehrere Wertschöpfungsketten, erstreckt sich die Angabepflicht auf die wichtigsten Wertschöpfungsketten.</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20" ht="70" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
@@ -832,6 +973,7 @@
           <t>Angabe einer kurzen Erläuterung seiner wesentlichen Auswirkungen, Risiken und Chancen, die sich aus seiner Bewertung der Wesentlichkeit ergeben (siehe Angabepflicht IRO-1 dieses Standards), einschließlich einer Beschreibung, wo in seinem Geschäftsmodell, seinen eigenen Tätigkeiten und seiner vor- und nachgelagerten Wertschöpfungskette diese wesentlichen Auswirkungen, Risiken und Chancen konzentriert sind</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21" ht="70" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
@@ -844,6 +986,7 @@
           <t>Angabe über den derzeitigen und erwarteten Einfluss seiner wesentlichen Auswirkungen, Risiken und Chancen auf sein Geschäftsmodell, seine Wertschöpfungskette, seine Strategie und seine Entscheidungsfindung sowie die Art und Weise, wie es auf diesen Einfluss reagiert hat oder zu reagieren beabsichtigt, einschließlich aller Änderungen, die es im Rahmen seiner Maßnahmen zum Umgang mit bestimmten wesentlichen Auswirkungen oder Risiken oder zur Nutzung bestimmter wesentlicher Chancen an seiner Strategie oder seinem Geschäftsmodell vorgenommen hat oder vorzunehmen beabsichtigt</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22" ht="70" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
@@ -856,6 +999,7 @@
           <t>Angabe wie die wesentlichen negativen und positiven Auswirkungen des Unternehmens sich auf Menschen oder die Umwelt auswirken (oder im Falle potenzieller Auswirkungen, wie sie sich wahrscheinlich auswirken)</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23" ht="70" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
@@ -868,6 +1012,7 @@
           <t>Angabe ob und wie die Auswirkungen von der Strategie und dem Geschäftsmodell des Unternehmens ausgehen oder damit in Verbindung stehen</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24" ht="70" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
@@ -880,6 +1025,7 @@
           <t>Angabe welche Zeithorizonte für die Auswirkungen vernünftigerweise zu erwarten sind</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25" ht="70" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
@@ -892,6 +1038,7 @@
           <t>Angabe ob das Unternehmen durch seine Tätigkeiten oder aufgrund seiner Geschäftsbeziehungen einen Anteil an den wesentlichen Auswirkungen hat, mit einer Beschreibung der Art der betreffenden Tätigkeiten oder Geschäftsbeziehungen</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26" ht="70" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
@@ -904,6 +1051,7 @@
           <t>Offenlegung der aktuellen finanziellen Auswirkungen wesentlicher Risiken und Chancen auf die Finanzlage, die Finanzleistung und die Cashflows sowie wesentliche Risiken und Chancen, bei denen ein erhebliches Risiko einer wesentlichen Anpassung der Buchwerte der in den entsprechenden Abschlüssen ausgewiesenen Vermögenswerte und Verbindlichkeiten innerhalb der nächsten jährlichen Berichtsperiode besteht</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27" ht="70" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
@@ -916,6 +1064,7 @@
           <t>Offenlegung der erwarteten finanziellen Auswirkungen wesentlicher Risiken und Chancen auf die Finanzlage, die Finanzleistung und die Cashflows kurz-, mittel- und langfristig</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28" ht="70" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
@@ -928,6 +1077,7 @@
           <t>Informationen zur Widerstandsfähigkeit der Strategie und des Geschäftsmodells hinsichtlich der Fähigkeit, wesentliche Auswirkungen und Risiken zu bewältigen und wesentliche Chancen zu nutzen</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29" ht="70" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
@@ -940,6 +1090,7 @@
           <t>Angabe der Änderungen der wesentlichen Auswirkungen, Risiken und Chancen im Vergleich zum vorangegangenen Berichtszeitraum</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30" ht="70" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
@@ -952,6 +1103,7 @@
           <t>eine genaue Beschreibung der Auswirkungen, Risiken und Chancen, die unter die Angabepflichten des ESRS fallen, im Gegensatz zu den Auswirkungen, die von dem Unternehmen durch zusätzliche unternehmensspezifische Angaben abgedeckt werden</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
@@ -967,55 +1119,181 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="194.36328125" customWidth="1" min="1" max="1"/>
-    <col width="16.1796875" customWidth="1" min="2" max="2"/>
-    <col width="55.36328125" customWidth="1" min="3" max="3"/>
+    <col width="18.54296875" customWidth="1" min="1" max="1"/>
+    <col width="125.54296875" customWidth="1" min="2" max="2"/>
+    <col width="126.08984375" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Referenz</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Bezeichnung</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Beschreibung</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Antwort</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ESRS MDR-P §65a - Beschreibung der wichtigsten Inhalte der Strategie, einschließlich ihrer allgemeinen Ziele, und der wesentlichen Auswirkungen, Risiken oder Chancen, auf die sich die Strategie bezieht, sowie des Überwachungsprozesses</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+    <row r="2" ht="70" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-P §65a</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Beschreibung der wichtigsten Inhalte der Strategie, einschließlich ihrer allgemeinen Ziele, und der wesentlichen Auswirkungen, Risiken oder Chancen, auf die sich die Strategie bezieht, sowie des Überwachungsprozesses</t>
-        </is>
-      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Beschreibung der wichtigsten Inhalte der Strategie, einschließlich ihrer allgemeinen Ziele, und der wesentlichen Auswirkungen, Risiken oder Chancen, 
+auf die sich die Strategie bezieht, sowie des Überwachungsprozesses</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>ndekekm</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="70" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ESRS MDR-P §65b</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Eine Beschreibung des Anwendungsbereichs der Strategie (oder der Ausnahmen) in Bezug auf Aktivitäten, die vor- und/oder nachgelagerte Wertschöpfungskette, 
+geografische Gebiete und gegebenenfalls betroffene Interessengruppen</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4" ht="70" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>ESRS MDR-A §68b</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Beschreibung des Umfangs der wichtigsten Maßnahmen in Bezug auf Aktivitäten, die Geografie der vor- und/oder nachgelagerten Wertschöpfungskette und
+ gegebenenfalls betroffene Interessengruppen</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="70" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>ESRS MDR-A §68d</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Die wichtigsten Maßnahmen (zusammen mit ihren Ergebnissen), die ergriffen wurden, um Abhilfe für diejenigen zu schaffen, die durch tatsächliche
+wesentliche Auswirkungen geschädigt wurden</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6" ht="70" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>ESRS MDR-A §69b</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Aktuelle, dem Aktionsplan zugewiesene Finanzmittel (CapEx)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7" ht="70" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>ESRS MDR-A §69b</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Aktuelle, dem Aktionsplan zugewiesene Finanzmittel (OpEx)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8" ht="70" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>ESRS MDR-A §69c</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Betrag der künftig, dem Aktionsplan zugewiesenen finanziellen Mittel (CapEx)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9" ht="70" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>ESRS MDR-A §69c</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Betrag der künftig, dem Aktionsplan zugewiesenen finanziellen Mittel (OpEx)</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10" ht="70" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>ESRS MDR-M §75</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Das Unternehmen gibt alle Parameter an, die es verwendet, um die Leistung und Wirksamkeit in Bezug auf wesentliche 
+Auswirkungen, Risiken oder Chancen zu beurteilen</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11" ht="70" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>ESRS MDR-T §80</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Das Unternehmen muss die messbaren, ergebnisorientierten und terminierten Ziele in Bezug auf wesentliche Nachhaltigkeitsaspekte angeben, 
+die es zur Bewertung der Fortschritte festgelegt hat. Für jedes Ziel enthält die Angabe folgende Informationen</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1025,14 +1303,500 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bbfb</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bewohner</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bewohner</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Klimaschutz</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bodenverschmutzung</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Beschäftigung und Inklusion von Menschen mit Behinderungen</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Verschmutzung von lebenden Organismen und Nahrungsressourcen</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>noch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>neue</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Punkte</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Externe Nachhaltigkeitspunkte</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tarifverhandlungen, einschließlich der Quote der durch Tarifverträge abgedeckten Arbeitskräften</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Vereinbarkeit von Berufs- und Privatleben</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Interne Nachhaltigkeitspunkte</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Besorgniserregende Stoffe</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Luftverschmutzung</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Ergebnisse_WA.xlsx
+++ b/Ergebnisse_WA.xlsx
@@ -224,6 +224,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -601,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -630,6 +660,14 @@
           <t>Unter-Unterthema</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Schwellenwert für wesentliche Themen:</t>
+        </is>
+      </c>
+      <c r="I1" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -647,6 +685,14 @@
           <t>Direkte Ausbeutung</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Schwellenwert für Stakeholder Wichtigkeit:</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -664,6 +710,11 @@
           <t>Klimawandel</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wesentlichkeitsmatrix der Shortlist:</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -680,8 +731,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1415,11 +1467,7 @@
       <c r="G2" t="n">
         <v>10</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
@@ -1450,11 +1498,7 @@
       <c r="G3" t="n">
         <v>10</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
@@ -1489,11 +1533,7 @@
       <c r="G4" t="n">
         <v>8</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
@@ -1524,11 +1564,7 @@
       <c r="G5" t="n">
         <v>8</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
@@ -1563,11 +1599,7 @@
       <c r="G6" t="n">
         <v>8</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>Externe Nachhaltigkeitspunkte</t>
@@ -1602,11 +1634,7 @@
       <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
@@ -1641,11 +1669,7 @@
       <c r="G8" t="n">
         <v>4</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
@@ -1676,11 +1700,7 @@
       <c r="G9" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
@@ -1715,11 +1735,7 @@
       <c r="G10" t="n">
         <v>4</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>Interne Nachhaltigkeitspunkte</t>
@@ -1750,11 +1766,7 @@
       <c r="G11" t="n">
         <v>4</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
@@ -1785,11 +1797,7 @@
       <c r="G12" t="n">
         <v>2</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>

--- a/Ergebnisse_WA.xlsx
+++ b/Ergebnisse_WA.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Übersicht" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Longlist" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shortlist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allgemeine Angaben" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mindestangaben" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stakeholder" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interne Nachhaltigkeitspunkte" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Externe Nachhaltigkeitspunkte" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stakeholder" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -52,7 +53,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -69,11 +70,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -84,13 +230,138 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="33">
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center"/>
@@ -99,7 +370,21 @@
       <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -125,33 +410,19 @@
       <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
+      <alignment horizontal="left" vertical="center"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="1"/>
-        </top>
-      </border>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -230,7 +501,7 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>4</col>
+      <col>6</col>
       <colOff>0</colOff>
       <row>4</row>
       <rowOff>0</rowOff>
@@ -257,8 +528,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="A1:C323" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:C323"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle8" displayName="Tabelle8" ref="A1:E400" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:E400"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Thema" dataDxfId="3"/>
+    <tableColumn id="3" name="Unterthema" dataDxfId="2"/>
+    <tableColumn id="4" name="Unter-Unterthema" dataDxfId="1"/>
+    <tableColumn id="5" name="Bewertet" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle3" displayName="Tabelle3" ref="A1:E323" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:E323"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Thema" dataDxfId="9"/>
+    <tableColumn id="2" name="Unterthema" dataDxfId="8"/>
+    <tableColumn id="3" name="Unter-Unterthema" dataDxfId="7"/>
+    <tableColumn id="4" name="Score Finanzen" dataDxfId="6"/>
+    <tableColumn id="5" name="Score Auswirkung" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" headerRowCount="1" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:C30"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Referenz" dataDxfId="30"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="29"/>
+    <tableColumn id="3" name="Antwort" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle5" displayName="Tabelle5" ref="A1:C11" headerRowCount="1" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+  <autoFilter ref="A1:C11"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Referenz" dataDxfId="23"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="22"/>
+    <tableColumn id="3" name="Antwort" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle4" displayName="Tabelle4" ref="A1:C200" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:C200"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Thema"/>
     <tableColumn id="2" name="Unterthema"/>
@@ -268,25 +591,43 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" headerRowCount="1" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:C30"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Referenz" dataDxfId="11"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="10"/>
-    <tableColumn id="3" name="Antwort" dataDxfId="9"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle7" displayName="Tabelle7" ref="A1:I200" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:I200"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Platzierung"/>
+    <tableColumn id="2" name="Thema"/>
+    <tableColumn id="3" name="Unterthema"/>
+    <tableColumn id="4" name="Unter-Unterthema"/>
+    <tableColumn id="5" name="Stakeholder Bew Auswirkung"/>
+    <tableColumn id="6" name="Stakeholder Bew Finanzen"/>
+    <tableColumn id="7" name="Stakeholder Gesamtbew"/>
+    <tableColumn id="8" name="Stakeholder"/>
+    <tableColumn id="9" name="Quelle"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle5" displayName="Tabelle5" ref="A1:C11" headerRowCount="1" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="A1:C11"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle1" displayName="Tabelle1" ref="A2:C50" headerRowCount="1" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A2:C50"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Referenz" dataDxfId="3"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="2"/>
-    <tableColumn id="3" name="Antwort" dataDxfId="1"/>
+    <tableColumn id="1" name="Platzierung" dataDxfId="18"/>
+    <tableColumn id="2" name="Gruppe" dataDxfId="17"/>
+    <tableColumn id="3" name="Score" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle6" displayName="Tabelle6" ref="E2:G50" headerRowCount="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="E2:G50"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Platzierung" dataDxfId="12"/>
+    <tableColumn id="2" name="Gruppe" dataDxfId="11"/>
+    <tableColumn id="3" name="Score" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,15 +954,644 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col width="10.54296875" customWidth="1" style="6" min="1" max="1"/>
+    <col width="70.6328125" customWidth="1" style="6" min="2" max="4"/>
+    <col width="15.7265625" customWidth="1" style="6" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Thema</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Unterthema</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Unter-Unterthema</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Bewertet</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Direkte Ausbeutung</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Land- Süßwasser- und Meeresnutzungsänderungen</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tarifverhandlungen, einschließlich der Quote der durch Tarifverträge abgedeckten Arbeitskräften</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Vereinbarkeit von Berufs- und Privatleben</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Beschäftigung und Inklusion von Menschen mit Behinderungen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Energie</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Klimaschutz</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Besorgniserregende Stoffe</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bodenverschmutzung</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Luftverschmutzung</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Verschmutzung von lebenden Organismen und Nahrungsressourcen</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Wasserverschmutzung</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Informationsbezogene Auswirkungen für Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Datenschutz</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Informationsbezogene Auswirkungen für Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Meinungsfreiheit</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Informationsbezogene Auswirkungen für Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Zugang zu (hochwertigen) Informationen</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Persönliche Sicherheit von Verbrauchern und Endnutzern</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Gesundheitsschutz und Sicherheit</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Persönliche Sicherheit von Verbrauchern und Endnutzern</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Kinderschutz</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Persönliche Sicherheit von Verbrauchern und Endnutzern</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Persönliche Sicherheit</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Soziale Inklusion von Verbrauchern und Endnutzern</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Nichtdiskriminierung</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Soziale Inklusion von Verbrauchern und Endnutzern</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Verantwortliche Vermarktungspraktiken</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Soziale Inklusion von Verbrauchern und Endnutzern</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Zugang zu Produkten und Dienstleistungen</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>noch</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>neue</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Punkte</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -631,41 +1601,51 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="44.08984375" customWidth="1" min="1" max="1"/>
-    <col width="42.54296875" customWidth="1" min="2" max="2"/>
-    <col width="38.6328125" customWidth="1" min="3" max="3"/>
+    <col width="50.6328125" customWidth="1" style="6" min="1" max="3"/>
+    <col width="16.1796875" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="18.54296875" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Score Finanzen</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>Score Auswirkung</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Schwellenwert für wesentliche Themen:</t>
         </is>
       </c>
-      <c r="I1" t="n">
+      <c r="K1" t="n">
         <v>250</v>
       </c>
     </row>
@@ -685,13 +1665,19 @@
           <t>Direkte Ausbeutung</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>555.6</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Schwellenwert für Stakeholder Wichtigkeit:</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>450</v>
+      <c r="K2" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +1696,13 @@
           <t>Klimawandel</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>500</v>
+      </c>
+      <c r="E3" t="n">
+        <v>458.3</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Wesentlichkeitsmatrix der Shortlist:</t>
         </is>
@@ -728,6 +1720,12 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>333.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>333.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
@@ -747,14 +1745,14 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.90625" defaultRowHeight="70" customHeight="1"/>
   <cols>
     <col width="18.6328125" customWidth="1" style="2" min="1" max="1"/>
     <col width="126.1796875" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="126.453125" customWidth="1" style="2" min="3" max="3"/>
+    <col width="126.453125" customWidth="1" style="6" min="3" max="3"/>
     <col width="115.90625" customWidth="1" style="2" min="4" max="16384"/>
   </cols>
   <sheetData>
@@ -769,7 +1767,7 @@
           <t>Beschreibung</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Antwort</t>
         </is>
@@ -1173,15 +2171,15 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col width="18.54296875" customWidth="1" min="1" max="1"/>
     <col width="125.54296875" customWidth="1" min="2" max="2"/>
-    <col width="126.08984375" customWidth="1" min="3" max="3"/>
+    <col width="126.08984375" customWidth="1" style="6" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1">
@@ -1195,7 +2193,7 @@
           <t>Beschreibung</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>Antwort</t>
         </is>
@@ -1213,7 +2211,7 @@
 auf die sich die Strategie bezieht, sowie des Überwachungsprozesses</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ndekekm</t>
         </is>
@@ -1231,7 +2229,7 @@
 geografische Gebiete und gegebenenfalls betroffene Interessengruppen</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4" ht="70" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -1245,7 +2243,7 @@
  gegebenenfalls betroffene Interessengruppen</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5" ht="70" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -1259,7 +2257,7 @@
 wesentliche Auswirkungen geschädigt wurden</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6" ht="70" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -1272,7 +2270,7 @@
           <t>Aktuelle, dem Aktionsplan zugewiesene Finanzmittel (CapEx)</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7" ht="70" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -1285,7 +2283,7 @@
           <t>Aktuelle, dem Aktionsplan zugewiesene Finanzmittel (OpEx)</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8" ht="70" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -1298,7 +2296,7 @@
           <t>Betrag der künftig, dem Aktionsplan zugewiesenen finanziellen Mittel (CapEx)</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9" ht="70" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -1311,7 +2309,7 @@
           <t>Betrag der künftig, dem Aktionsplan zugewiesenen finanziellen Mittel (OpEx)</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10" ht="70" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -1325,7 +2323,7 @@
 Auswirkungen, Risiken oder Chancen zu beurteilen</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11" ht="70" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
@@ -1339,7 +2337,7 @@
 die es zur Bewertung der Fortschritte festgelegt hat. Für jedes Ziel enthält die Angabe folgende Informationen</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
@@ -1355,77 +2353,56 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="50.6328125" customWidth="1" min="1" max="3"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Thema</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Unterthema</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Unter-Unterthema</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bbfb</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Mitarbeiter</t>
         </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mitarbeiter</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bewohner</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bewohner</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1435,14 +2412,72 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="12.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="25.26953125" customWidth="1" min="2" max="2"/>
+    <col width="28.1796875" customWidth="1" min="3" max="3"/>
+    <col width="46" customWidth="1" min="4" max="4"/>
+    <col width="28.1796875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="25.90625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="24.54296875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="39.81640625" customWidth="1" min="8" max="8"/>
+    <col width="24.54296875" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Platzierung</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Thema</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Unterthema</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Unter-Unterthema</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Stakeholder Bew Auswirkung</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Stakeholder Bew Finanzen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Stakeholder Gesamtbew</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Stakeholder</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Quelle</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
@@ -1467,8 +2502,12 @@
       <c r="G2" t="n">
         <v>10</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
         </is>
@@ -1498,8 +2537,12 @@
       <c r="G3" t="n">
         <v>10</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
         </is>
@@ -1533,8 +2576,12 @@
       <c r="G4" t="n">
         <v>8</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
         </is>
@@ -1564,8 +2611,12 @@
       <c r="G5" t="n">
         <v>8</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
         </is>
@@ -1599,8 +2650,12 @@
       <c r="G6" t="n">
         <v>8</v>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Externe Nachhaltigkeitspunkte</t>
         </is>
@@ -1634,8 +2689,12 @@
       <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
         </is>
@@ -1669,8 +2728,12 @@
       <c r="G8" t="n">
         <v>4</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
         </is>
@@ -1700,8 +2763,12 @@
       <c r="G9" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
         </is>
@@ -1735,8 +2802,12 @@
       <c r="G10" t="n">
         <v>4</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>Interne Nachhaltigkeitspunkte</t>
         </is>
@@ -1766,8 +2837,12 @@
       <c r="G11" t="n">
         <v>4</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
         </is>
@@ -1797,14 +2872,529 @@
       <c r="G12" t="n">
         <v>2</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bewohner, Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="15.81640625" customWidth="1" min="1" max="1"/>
+    <col width="20.453125" customWidth="1" min="2" max="2"/>
+    <col width="16.08984375" customWidth="1" min="5" max="5"/>
+    <col width="20.453125" customWidth="1" min="6" max="6"/>
+    <col width="11.90625" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29.5" customHeight="1">
+      <c r="A1" s="20" t="inlineStr">
+        <is>
+          <t>Stakeholder Ranking</t>
+        </is>
+      </c>
+      <c r="B1" s="21" t="n"/>
+      <c r="C1" s="22" t="n"/>
+      <c r="D1" s="4" t="n"/>
+      <c r="E1" s="23" t="inlineStr">
+        <is>
+          <t>In Bewertung aufgenommene Stakeholder</t>
+        </is>
+      </c>
+      <c r="F1" s="24" t="n"/>
+      <c r="G1" s="25" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>Platzierung</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Gruppe</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>Platzierung</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Gruppe</t>
+        </is>
+      </c>
+      <c r="G2" s="12" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>bbfb</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>Bewohner</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Bewohner</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="7" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="6" t="n"/>
+      <c r="G9" s="7" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="6" t="n"/>
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="6" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="6" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="6" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="6" t="n"/>
+      <c r="G21" s="7" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="7" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="7" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="7" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="7" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="7" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="6" t="n"/>
+      <c r="G28" s="7" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="6" t="n"/>
+      <c r="G29" s="7" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="E30" s="5" t="n"/>
+      <c r="F30" s="6" t="n"/>
+      <c r="G30" s="7" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="7" t="n"/>
+      <c r="E31" s="5" t="n"/>
+      <c r="F31" s="6" t="n"/>
+      <c r="G31" s="7" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="7" t="n"/>
+      <c r="E32" s="5" t="n"/>
+      <c r="F32" s="6" t="n"/>
+      <c r="G32" s="7" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="7" t="n"/>
+      <c r="E33" s="5" t="n"/>
+      <c r="F33" s="6" t="n"/>
+      <c r="G33" s="7" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="7" t="n"/>
+      <c r="E34" s="5" t="n"/>
+      <c r="F34" s="6" t="n"/>
+      <c r="G34" s="7" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="7" t="n"/>
+      <c r="E35" s="5" t="n"/>
+      <c r="F35" s="6" t="n"/>
+      <c r="G35" s="7" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="E36" s="5" t="n"/>
+      <c r="F36" s="6" t="n"/>
+      <c r="G36" s="7" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="E37" s="5" t="n"/>
+      <c r="F37" s="6" t="n"/>
+      <c r="G37" s="7" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="7" t="n"/>
+      <c r="E38" s="5" t="n"/>
+      <c r="F38" s="6" t="n"/>
+      <c r="G38" s="7" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="7" t="n"/>
+      <c r="E39" s="5" t="n"/>
+      <c r="F39" s="6" t="n"/>
+      <c r="G39" s="7" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="7" t="n"/>
+      <c r="E40" s="5" t="n"/>
+      <c r="F40" s="6" t="n"/>
+      <c r="G40" s="7" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="7" t="n"/>
+      <c r="E41" s="5" t="n"/>
+      <c r="F41" s="6" t="n"/>
+      <c r="G41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="7" t="n"/>
+      <c r="E42" s="5" t="n"/>
+      <c r="F42" s="6" t="n"/>
+      <c r="G42" s="7" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="n"/>
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="7" t="n"/>
+      <c r="E43" s="5" t="n"/>
+      <c r="F43" s="6" t="n"/>
+      <c r="G43" s="7" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="7" t="n"/>
+      <c r="E44" s="5" t="n"/>
+      <c r="F44" s="6" t="n"/>
+      <c r="G44" s="7" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="7" t="n"/>
+      <c r="E45" s="5" t="n"/>
+      <c r="F45" s="6" t="n"/>
+      <c r="G45" s="7" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="7" t="n"/>
+      <c r="E46" s="5" t="n"/>
+      <c r="F46" s="6" t="n"/>
+      <c r="G46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="7" t="n"/>
+      <c r="E47" s="5" t="n"/>
+      <c r="F47" s="6" t="n"/>
+      <c r="G47" s="7" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="7" t="n"/>
+      <c r="E48" s="5" t="n"/>
+      <c r="F48" s="6" t="n"/>
+      <c r="G48" s="7" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="7" t="n"/>
+      <c r="E49" s="5" t="n"/>
+      <c r="F49" s="6" t="n"/>
+      <c r="G49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="n"/>
+      <c r="B50" s="9" t="n"/>
+      <c r="C50" s="10" t="n"/>
+      <c r="E50" s="8" t="n"/>
+      <c r="F50" s="9" t="n"/>
+      <c r="G50" s="10" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Ergebnisse_WA.xlsx
+++ b/Ergebnisse_WA.xlsx
@@ -3,16 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="-16200" windowWidth="14400" windowHeight="15600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Longlist" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shortlist" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allgemeine Angaben" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mindestangaben" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interne Nachhaltigkeitspunkte" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Externe Nachhaltigkeitspunkte" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stakeholder" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Übersicht" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Longlist" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shortlist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allgemeine Angaben" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mindestangaben" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interne Nachhaltigkeitspunkte" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Externe Nachhaltigkeitspunkte" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stakeholder" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vorgehensweise WA (IRO-1)" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -22,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -38,8 +40,24 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="20"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,8 +70,26 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -188,6 +224,78 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -219,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -260,6 +368,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,12 +389,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -293,36 +431,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <alignment horizontal="left" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center"/>
     </dxf>
@@ -424,6 +532,36 @@
     <dxf>
       <alignment horizontal="general" vertical="center"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -499,6 +637,54 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>0</col>
+      <colOff>19050</colOff>
+      <row>5</row>
+      <rowOff>152400</rowOff>
+    </from>
+    <to>
+      <col>0</col>
+      <colOff>5742940</colOff>
+      <row>18</row>
+      <rowOff>94615</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Grafik 1"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="19050" y="1619250"/>
+          <a:ext cx="5727065" cy="2294890"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>6</col>
@@ -531,11 +717,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle8" displayName="Tabelle8" ref="A1:E400" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A1:E400"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Thema" dataDxfId="3"/>
-    <tableColumn id="3" name="Unterthema" dataDxfId="2"/>
-    <tableColumn id="4" name="Unter-Unterthema" dataDxfId="1"/>
-    <tableColumn id="5" name="Bewertet" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="32"/>
+    <tableColumn id="2" name="Thema" dataDxfId="31"/>
+    <tableColumn id="3" name="Unterthema" dataDxfId="30"/>
+    <tableColumn id="4" name="Unter-Unterthema" dataDxfId="29"/>
+    <tableColumn id="5" name="Bewertet" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,35 +731,35 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle3" displayName="Tabelle3" ref="A1:E323" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A1:E323"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Thema" dataDxfId="9"/>
-    <tableColumn id="2" name="Unterthema" dataDxfId="8"/>
-    <tableColumn id="3" name="Unter-Unterthema" dataDxfId="7"/>
-    <tableColumn id="4" name="Score Finanzen" dataDxfId="6"/>
-    <tableColumn id="5" name="Score Auswirkung" dataDxfId="5"/>
+    <tableColumn id="1" name="Thema" dataDxfId="27"/>
+    <tableColumn id="2" name="Unterthema" dataDxfId="26"/>
+    <tableColumn id="3" name="Unter-Unterthema" dataDxfId="25"/>
+    <tableColumn id="4" name="Score Finanzen" dataDxfId="24"/>
+    <tableColumn id="5" name="Score Auswirkung" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" headerRowCount="1" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" headerRowCount="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:C30"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Referenz" dataDxfId="30"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="29"/>
-    <tableColumn id="3" name="Antwort" dataDxfId="28"/>
+    <tableColumn id="1" name="Referenz" dataDxfId="20"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="19"/>
+    <tableColumn id="3" name="Antwort" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle5" displayName="Tabelle5" ref="A1:C11" headerRowCount="1" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle5" displayName="Tabelle5" ref="A1:C11" headerRowCount="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Referenz" dataDxfId="23"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="22"/>
-    <tableColumn id="3" name="Antwort" dataDxfId="21"/>
+    <tableColumn id="1" name="Referenz" dataDxfId="13"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="12"/>
+    <tableColumn id="3" name="Antwort" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -610,24 +796,24 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle1" displayName="Tabelle1" ref="A2:C50" headerRowCount="1" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle1" displayName="Tabelle1" ref="A2:C50" headerRowCount="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A2:C50"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Platzierung" dataDxfId="18"/>
-    <tableColumn id="2" name="Gruppe" dataDxfId="17"/>
-    <tableColumn id="3" name="Score" dataDxfId="16"/>
+    <tableColumn id="1" name="Platzierung" dataDxfId="8"/>
+    <tableColumn id="2" name="Gruppe" dataDxfId="7"/>
+    <tableColumn id="3" name="Score" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle6" displayName="Tabelle6" ref="E2:G50" headerRowCount="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle6" displayName="Tabelle6" ref="E2:G50" headerRowCount="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="E2:G50"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Platzierung" dataDxfId="12"/>
-    <tableColumn id="2" name="Gruppe" dataDxfId="11"/>
-    <tableColumn id="3" name="Score" dataDxfId="10"/>
+    <tableColumn id="1" name="Platzierung" dataDxfId="2"/>
+    <tableColumn id="2" name="Gruppe" dataDxfId="1"/>
+    <tableColumn id="3" name="Score" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -951,44 +1137,162 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="138.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1" thickBot="1">
+      <c r="A1" s="29" t="inlineStr">
+        <is>
+          <t>Übersicht</t>
+        </is>
+      </c>
+      <c r="B1" s="30" t="n"/>
+      <c r="C1" s="30" t="n"/>
+      <c r="D1" s="30" t="n"/>
+      <c r="E1" s="30" t="n"/>
+      <c r="F1" s="30" t="n"/>
+      <c r="G1" s="30" t="n"/>
+      <c r="H1" s="30" t="n"/>
+      <c r="I1" s="30" t="n"/>
+      <c r="J1" s="30" t="n"/>
+      <c r="K1" s="31" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="27" t="inlineStr">
+        <is>
+          <t>Informationen zur Excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="43.5" customHeight="1">
+      <c r="A3" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In dieser Excel werden die Ergebnisse der durchgeführten Wesentlichkeitsanalyse dargestellt. So werden Registerkarten, die für die ESRS Nachhaltigekeitsberichterstattung erarbeitete Informationen enthalten in grün dargstellt. 
+Informationen, die zur Berichterstattung genutzt werden können allerings primär für unternehmensinterne  Zwecke dient werden in gelb dargestellt. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="inlineStr">
+        <is>
+          <t>Ablauf der Wesentlichkeitsanalyse:</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="32" customHeight="1">
+      <c r="A21" s="28" t="inlineStr">
+        <is>
+          <t>1. Stakeholder Managament: Hinzufügen und Verwalten von Stakeholder. Hinzufügen von Eigenschaften, um das Stakeholder Ranking zu erstellen. 
+Dies kann als Orientierung zur Festlegung der Stakeholder Relvenaz genutzt werden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="29" customHeight="1">
+      <c r="A22" s="28" t="inlineStr">
+        <is>
+          <t>2. Stakeholder Auswahl: Hier werden die Stakeholder ausgewählt, welche in die Bewertung mit aufgenommen werden sollen.
+Zudem werden "Stille Stakeholder" aussortiert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="29" customHeight="1">
+      <c r="A23" s="28" t="inlineStr">
+        <is>
+          <t>3. Themenspezifische ESRS: Kein offiziell vorgegebener Schritt in der ESRS. Dient zur vorabauswahl von potenziell wesentlichen IROs anahnd der Themenfelder der themenspezifischen ESRS. Punkte, die hier als relevant markiert werden, werden später bewertet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="28" t="inlineStr">
+        <is>
+          <t>4. Interne Nachhatigkeitspunkte: Hier fügt das Unternehemen, welches die WA durchführt eigene potenzielle IROs hinzu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="72.5" customHeight="1">
+      <c r="A25" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5. Exerne Nachhaltigkeitspunkte: Hier werden die potenziellen IROs, der in Schritt 2 ausgewählten Stakeholder hinzugefügt. Dabei wird den Stakeholder eine Excel-Datei zugeschickt, welche sowohl die IROs aus Schritt 4 der internen Untersuchung beinhalten als auch die Punkte der themenspzifischen ESRS. Zudem können Stakholder eigene IROs, die noch nihct abgedeckt sind hinzufügen. Es ist anzumerken das die Stakeholder die vollständige Liste der themenspezifische ESRS erhalten und nicht die vorsortierte aus Schritt 1. All diese Punkte werden zusätzlich anahnd von 4 Stufen von den Stakeholder bewerten. Werden die Excel Listen hochgeladen, werden diese in einer Liste vereint. </t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="29" customHeight="1">
+      <c r="A26" s="28" t="inlineStr">
+        <is>
+          <t>6. Bewertung der Longlist: Hier befinden sich alle potnziellen IROs aus Schritt 3, 4 und 5. Die Bewertung erfolgt anahnd der auswirkungsbezogenen und der finaziellen Wesentlichkeit, wobei das Minimum für jede Wesentlichkeitsdimension der Wert 0 ist und das Maximum 1000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="43.5" customHeight="1">
+      <c r="A27" s="28" t="inlineStr">
+        <is>
+          <t>7. Erstellung der Shortlist: Hier werden alle bewerteten IROs in einer Wesentlichkeitsmatrix angezeigt. Das Unternehemn legt sowohl einen Schwellenwert für die Wesentlichkeit fest als auch für die Stakeholder Wichtigkeit. Punkte die eine der beiden Grenzen überschreiten gelten als wensetlich und werden in die SHortlist übernommen. Die Shortlist enthält alle wesentlichen IROs, die das Unternehmen im Rahmen der Wesentlichkeitsanalyse identifiziert hat.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor theme="6"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="10.54296875" customWidth="1" style="6" min="1" max="1"/>
-    <col width="70.6328125" customWidth="1" style="6" min="2" max="4"/>
-    <col width="15.7265625" customWidth="1" style="6" min="5" max="5"/>
+    <col width="10.54296875" customWidth="1" style="22" min="1" max="1"/>
+    <col width="70.6328125" customWidth="1" style="22" min="2" max="4"/>
+    <col width="15.7265625" customWidth="1" style="22" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Bewertet</t>
         </is>
@@ -1595,9 +1899,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor theme="6"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1609,33 +1914,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="50.6328125" customWidth="1" style="6" min="1" max="3"/>
-    <col width="16.1796875" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
-    <col width="18.54296875" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="50.6328125" customWidth="1" style="22" min="1" max="3"/>
+    <col width="16.1796875" bestFit="1" customWidth="1" style="22" min="4" max="4"/>
+    <col width="18.54296875" bestFit="1" customWidth="1" style="22" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Score Finanzen</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Score Auswirkung</t>
         </is>
@@ -1736,23 +2041,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor theme="6"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.90625" defaultRowHeight="70" customHeight="1"/>
   <cols>
     <col width="18.6328125" customWidth="1" style="2" min="1" max="1"/>
     <col width="126.1796875" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="126.453125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="126.453125" customWidth="1" style="22" min="3" max="3"/>
     <col width="115.90625" customWidth="1" style="2" min="4" max="16384"/>
   </cols>
   <sheetData>
@@ -1767,7 +2073,7 @@
           <t>Beschreibung</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Antwort</t>
         </is>
@@ -2150,7 +2456,7 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>eine genaue Beschreibung der Auswirkungen, Risiken und Chancen, die unter die Angabepflichten des ESRS fallen, im Gegensatz zu den Auswirkungen, die von dem Unternehmen durch zusätzliche unternehmensspezifische Angaben abgedeckt werden</t>
+          <t>Eine genaue Beschreibung der Auswirkungen, Risiken und Chancen, die unter die Angabepflichten des ESRS fallen, im Gegensatz zu den Auswirkungen, die von dem Unternehmen durch zusätzliche unternehmensspezifische Angaben abgedeckt werden</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -2163,9 +2469,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor theme="6"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -2179,7 +2486,7 @@
   <cols>
     <col width="18.54296875" customWidth="1" min="1" max="1"/>
     <col width="125.54296875" customWidth="1" min="2" max="2"/>
-    <col width="126.08984375" customWidth="1" style="6" min="3" max="3"/>
+    <col width="126.08984375" customWidth="1" style="22" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1">
@@ -2347,9 +2654,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -2406,9 +2714,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -2891,16 +3200,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor theme="6"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -2913,21 +3223,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="29.5" customHeight="1">
-      <c r="A1" s="20" t="inlineStr">
+      <c r="A1" s="32" t="inlineStr">
         <is>
           <t>Stakeholder Ranking</t>
         </is>
       </c>
-      <c r="B1" s="21" t="n"/>
-      <c r="C1" s="22" t="n"/>
+      <c r="B1" s="33" t="n"/>
+      <c r="C1" s="34" t="n"/>
       <c r="D1" s="4" t="n"/>
-      <c r="E1" s="23" t="inlineStr">
+      <c r="E1" s="35" t="inlineStr">
         <is>
           <t>In Bewertung aufgenommene Stakeholder</t>
         </is>
       </c>
-      <c r="F1" s="24" t="n"/>
-      <c r="G1" s="25" t="n"/>
+      <c r="F1" s="36" t="n"/>
+      <c r="G1" s="37" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
@@ -2966,7 +3276,7 @@
       <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="22" t="inlineStr">
         <is>
           <t>bbfb</t>
         </is>
@@ -2977,7 +3287,7 @@
       <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="F3" s="22" t="inlineStr">
         <is>
           <t>Mitarbeiter</t>
         </is>
@@ -2990,7 +3300,7 @@
       <c r="A4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="22" t="inlineStr">
         <is>
           <t>Mitarbeiter</t>
         </is>
@@ -3001,7 +3311,7 @@
       <c r="E4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="22" t="inlineStr">
         <is>
           <t>Bewohner</t>
         </is>
@@ -3014,7 +3324,7 @@
       <c r="A5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="22" t="inlineStr">
         <is>
           <t>Bewohner</t>
         </is>
@@ -3023,359 +3333,359 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n"/>
-      <c r="F5" s="6" t="n"/>
+      <c r="F5" s="22" t="n"/>
       <c r="G5" s="7" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
-      <c r="B6" s="6" t="n"/>
+      <c r="B6" s="22" t="n"/>
       <c r="C6" s="7" t="n"/>
       <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="F6" s="22" t="n"/>
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="6" t="n"/>
+      <c r="B7" s="22" t="n"/>
       <c r="C7" s="7" t="n"/>
       <c r="E7" s="5" t="n"/>
-      <c r="F7" s="6" t="n"/>
+      <c r="F7" s="22" t="n"/>
       <c r="G7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="6" t="n"/>
+      <c r="B8" s="22" t="n"/>
       <c r="C8" s="7" t="n"/>
       <c r="E8" s="5" t="n"/>
-      <c r="F8" s="6" t="n"/>
+      <c r="F8" s="22" t="n"/>
       <c r="G8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="6" t="n"/>
+      <c r="B9" s="22" t="n"/>
       <c r="C9" s="7" t="n"/>
       <c r="E9" s="5" t="n"/>
-      <c r="F9" s="6" t="n"/>
+      <c r="F9" s="22" t="n"/>
       <c r="G9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="6" t="n"/>
+      <c r="B10" s="22" t="n"/>
       <c r="C10" s="7" t="n"/>
       <c r="E10" s="5" t="n"/>
-      <c r="F10" s="6" t="n"/>
+      <c r="F10" s="22" t="n"/>
       <c r="G10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="6" t="n"/>
+      <c r="B11" s="22" t="n"/>
       <c r="C11" s="7" t="n"/>
       <c r="E11" s="5" t="n"/>
-      <c r="F11" s="6" t="n"/>
+      <c r="F11" s="22" t="n"/>
       <c r="G11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n"/>
-      <c r="B12" s="6" t="n"/>
+      <c r="B12" s="22" t="n"/>
       <c r="C12" s="7" t="n"/>
       <c r="E12" s="5" t="n"/>
-      <c r="F12" s="6" t="n"/>
+      <c r="F12" s="22" t="n"/>
       <c r="G12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="6" t="n"/>
+      <c r="B13" s="22" t="n"/>
       <c r="C13" s="7" t="n"/>
       <c r="E13" s="5" t="n"/>
-      <c r="F13" s="6" t="n"/>
+      <c r="F13" s="22" t="n"/>
       <c r="G13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="6" t="n"/>
+      <c r="B14" s="22" t="n"/>
       <c r="C14" s="7" t="n"/>
       <c r="E14" s="5" t="n"/>
-      <c r="F14" s="6" t="n"/>
+      <c r="F14" s="22" t="n"/>
       <c r="G14" s="7" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="6" t="n"/>
+      <c r="B15" s="22" t="n"/>
       <c r="C15" s="7" t="n"/>
       <c r="E15" s="5" t="n"/>
-      <c r="F15" s="6" t="n"/>
+      <c r="F15" s="22" t="n"/>
       <c r="G15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="6" t="n"/>
+      <c r="B16" s="22" t="n"/>
       <c r="C16" s="7" t="n"/>
       <c r="E16" s="5" t="n"/>
-      <c r="F16" s="6" t="n"/>
+      <c r="F16" s="22" t="n"/>
       <c r="G16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="6" t="n"/>
+      <c r="B17" s="22" t="n"/>
       <c r="C17" s="7" t="n"/>
       <c r="E17" s="5" t="n"/>
-      <c r="F17" s="6" t="n"/>
+      <c r="F17" s="22" t="n"/>
       <c r="G17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n"/>
-      <c r="B18" s="6" t="n"/>
+      <c r="B18" s="22" t="n"/>
       <c r="C18" s="7" t="n"/>
       <c r="E18" s="5" t="n"/>
-      <c r="F18" s="6" t="n"/>
+      <c r="F18" s="22" t="n"/>
       <c r="G18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="6" t="n"/>
+      <c r="B19" s="22" t="n"/>
       <c r="C19" s="7" t="n"/>
       <c r="E19" s="5" t="n"/>
-      <c r="F19" s="6" t="n"/>
+      <c r="F19" s="22" t="n"/>
       <c r="G19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="6" t="n"/>
+      <c r="B20" s="22" t="n"/>
       <c r="C20" s="7" t="n"/>
       <c r="E20" s="5" t="n"/>
-      <c r="F20" s="6" t="n"/>
+      <c r="F20" s="22" t="n"/>
       <c r="G20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="6" t="n"/>
+      <c r="B21" s="22" t="n"/>
       <c r="C21" s="7" t="n"/>
       <c r="E21" s="5" t="n"/>
-      <c r="F21" s="6" t="n"/>
+      <c r="F21" s="22" t="n"/>
       <c r="G21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="6" t="n"/>
+      <c r="B22" s="22" t="n"/>
       <c r="C22" s="7" t="n"/>
       <c r="E22" s="5" t="n"/>
-      <c r="F22" s="6" t="n"/>
+      <c r="F22" s="22" t="n"/>
       <c r="G22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="6" t="n"/>
+      <c r="B23" s="22" t="n"/>
       <c r="C23" s="7" t="n"/>
       <c r="E23" s="5" t="n"/>
-      <c r="F23" s="6" t="n"/>
+      <c r="F23" s="22" t="n"/>
       <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="6" t="n"/>
+      <c r="B24" s="22" t="n"/>
       <c r="C24" s="7" t="n"/>
       <c r="E24" s="5" t="n"/>
-      <c r="F24" s="6" t="n"/>
+      <c r="F24" s="22" t="n"/>
       <c r="G24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="6" t="n"/>
+      <c r="B25" s="22" t="n"/>
       <c r="C25" s="7" t="n"/>
       <c r="E25" s="5" t="n"/>
-      <c r="F25" s="6" t="n"/>
+      <c r="F25" s="22" t="n"/>
       <c r="G25" s="7" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n"/>
-      <c r="B26" s="6" t="n"/>
+      <c r="B26" s="22" t="n"/>
       <c r="C26" s="7" t="n"/>
       <c r="E26" s="5" t="n"/>
-      <c r="F26" s="6" t="n"/>
+      <c r="F26" s="22" t="n"/>
       <c r="G26" s="7" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="6" t="n"/>
+      <c r="B27" s="22" t="n"/>
       <c r="C27" s="7" t="n"/>
       <c r="E27" s="5" t="n"/>
-      <c r="F27" s="6" t="n"/>
+      <c r="F27" s="22" t="n"/>
       <c r="G27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="6" t="n"/>
+      <c r="B28" s="22" t="n"/>
       <c r="C28" s="7" t="n"/>
       <c r="E28" s="5" t="n"/>
-      <c r="F28" s="6" t="n"/>
+      <c r="F28" s="22" t="n"/>
       <c r="G28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="6" t="n"/>
+      <c r="B29" s="22" t="n"/>
       <c r="C29" s="7" t="n"/>
       <c r="E29" s="5" t="n"/>
-      <c r="F29" s="6" t="n"/>
+      <c r="F29" s="22" t="n"/>
       <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="6" t="n"/>
+      <c r="B30" s="22" t="n"/>
       <c r="C30" s="7" t="n"/>
       <c r="E30" s="5" t="n"/>
-      <c r="F30" s="6" t="n"/>
+      <c r="F30" s="22" t="n"/>
       <c r="G30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="6" t="n"/>
+      <c r="B31" s="22" t="n"/>
       <c r="C31" s="7" t="n"/>
       <c r="E31" s="5" t="n"/>
-      <c r="F31" s="6" t="n"/>
+      <c r="F31" s="22" t="n"/>
       <c r="G31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="6" t="n"/>
+      <c r="B32" s="22" t="n"/>
       <c r="C32" s="7" t="n"/>
       <c r="E32" s="5" t="n"/>
-      <c r="F32" s="6" t="n"/>
+      <c r="F32" s="22" t="n"/>
       <c r="G32" s="7" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="6" t="n"/>
+      <c r="B33" s="22" t="n"/>
       <c r="C33" s="7" t="n"/>
       <c r="E33" s="5" t="n"/>
-      <c r="F33" s="6" t="n"/>
+      <c r="F33" s="22" t="n"/>
       <c r="G33" s="7" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="6" t="n"/>
+      <c r="B34" s="22" t="n"/>
       <c r="C34" s="7" t="n"/>
       <c r="E34" s="5" t="n"/>
-      <c r="F34" s="6" t="n"/>
+      <c r="F34" s="22" t="n"/>
       <c r="G34" s="7" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n"/>
-      <c r="B35" s="6" t="n"/>
+      <c r="B35" s="22" t="n"/>
       <c r="C35" s="7" t="n"/>
       <c r="E35" s="5" t="n"/>
-      <c r="F35" s="6" t="n"/>
+      <c r="F35" s="22" t="n"/>
       <c r="G35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="6" t="n"/>
+      <c r="B36" s="22" t="n"/>
       <c r="C36" s="7" t="n"/>
       <c r="E36" s="5" t="n"/>
-      <c r="F36" s="6" t="n"/>
+      <c r="F36" s="22" t="n"/>
       <c r="G36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="6" t="n"/>
+      <c r="B37" s="22" t="n"/>
       <c r="C37" s="7" t="n"/>
       <c r="E37" s="5" t="n"/>
-      <c r="F37" s="6" t="n"/>
+      <c r="F37" s="22" t="n"/>
       <c r="G37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="6" t="n"/>
+      <c r="B38" s="22" t="n"/>
       <c r="C38" s="7" t="n"/>
       <c r="E38" s="5" t="n"/>
-      <c r="F38" s="6" t="n"/>
+      <c r="F38" s="22" t="n"/>
       <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="6" t="n"/>
+      <c r="B39" s="22" t="n"/>
       <c r="C39" s="7" t="n"/>
       <c r="E39" s="5" t="n"/>
-      <c r="F39" s="6" t="n"/>
+      <c r="F39" s="22" t="n"/>
       <c r="G39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="6" t="n"/>
+      <c r="B40" s="22" t="n"/>
       <c r="C40" s="7" t="n"/>
       <c r="E40" s="5" t="n"/>
-      <c r="F40" s="6" t="n"/>
+      <c r="F40" s="22" t="n"/>
       <c r="G40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="6" t="n"/>
+      <c r="B41" s="22" t="n"/>
       <c r="C41" s="7" t="n"/>
       <c r="E41" s="5" t="n"/>
-      <c r="F41" s="6" t="n"/>
+      <c r="F41" s="22" t="n"/>
       <c r="G41" s="7" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="6" t="n"/>
+      <c r="B42" s="22" t="n"/>
       <c r="C42" s="7" t="n"/>
       <c r="E42" s="5" t="n"/>
-      <c r="F42" s="6" t="n"/>
+      <c r="F42" s="22" t="n"/>
       <c r="G42" s="7" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n"/>
-      <c r="B43" s="6" t="n"/>
+      <c r="B43" s="22" t="n"/>
       <c r="C43" s="7" t="n"/>
       <c r="E43" s="5" t="n"/>
-      <c r="F43" s="6" t="n"/>
+      <c r="F43" s="22" t="n"/>
       <c r="G43" s="7" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n"/>
-      <c r="B44" s="6" t="n"/>
+      <c r="B44" s="22" t="n"/>
       <c r="C44" s="7" t="n"/>
       <c r="E44" s="5" t="n"/>
-      <c r="F44" s="6" t="n"/>
+      <c r="F44" s="22" t="n"/>
       <c r="G44" s="7" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n"/>
-      <c r="B45" s="6" t="n"/>
+      <c r="B45" s="22" t="n"/>
       <c r="C45" s="7" t="n"/>
       <c r="E45" s="5" t="n"/>
-      <c r="F45" s="6" t="n"/>
+      <c r="F45" s="22" t="n"/>
       <c r="G45" s="7" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n"/>
-      <c r="B46" s="6" t="n"/>
+      <c r="B46" s="22" t="n"/>
       <c r="C46" s="7" t="n"/>
       <c r="E46" s="5" t="n"/>
-      <c r="F46" s="6" t="n"/>
+      <c r="F46" s="22" t="n"/>
       <c r="G46" s="7" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="6" t="n"/>
+      <c r="B47" s="22" t="n"/>
       <c r="C47" s="7" t="n"/>
       <c r="E47" s="5" t="n"/>
-      <c r="F47" s="6" t="n"/>
+      <c r="F47" s="22" t="n"/>
       <c r="G47" s="7" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="6" t="n"/>
+      <c r="B48" s="22" t="n"/>
       <c r="C48" s="7" t="n"/>
       <c r="E48" s="5" t="n"/>
-      <c r="F48" s="6" t="n"/>
+      <c r="F48" s="22" t="n"/>
       <c r="G48" s="7" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n"/>
-      <c r="B49" s="6" t="n"/>
+      <c r="B49" s="22" t="n"/>
       <c r="C49" s="7" t="n"/>
       <c r="E49" s="5" t="n"/>
-      <c r="F49" s="6" t="n"/>
+      <c r="F49" s="22" t="n"/>
       <c r="G49" s="7" t="n"/>
     </row>
     <row r="50">
@@ -3397,4 +3707,45 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor theme="6"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" ht="24.5" customHeight="1">
+      <c r="A1" s="21" t="inlineStr">
+        <is>
+          <t>Angabepflicht IRO-1 – Beschreibung des Verfahrens zur Ermittlung und Bewertung der wesentlichen Auswirkungen, Risiken und Chancen</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19" customHeight="1">
+      <c r="A2" s="22" t="inlineStr">
+        <is>
+          <t>1. Das Unternehmen hat sein Verfahren zur Ermittlung seiner Auswirkungen, Risiken und Chancen und zur Bewertung ihrer Wesentlichkeit anzugeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="14" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ergebnisse_WA.xlsx
+++ b/Ergebnisse_WA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="-16200" windowWidth="14400" windowHeight="15600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Übersicht" sheetId="1" state="visible" r:id="rId1"/>
@@ -231,52 +231,50 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -286,9 +284,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -327,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -371,6 +367,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,27 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,7 +651,7 @@
     </from>
     <to>
       <col>0</col>
-      <colOff>5742940</colOff>
+      <colOff>5746115</colOff>
       <row>18</row>
       <rowOff>94615</rowOff>
     </to>
@@ -680,6 +685,31 @@
     </pic>
     <clientData/>
   </twoCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -1143,108 +1173,321 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col width="138.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="30.6328125" customWidth="1" min="2" max="2"/>
+    <col width="21.26953125" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="27.90625" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="inlineStr">
-        <is>
-          <t>Übersicht</t>
-        </is>
-      </c>
-      <c r="B1" s="30" t="n"/>
-      <c r="C1" s="30" t="n"/>
-      <c r="D1" s="30" t="n"/>
-      <c r="E1" s="30" t="n"/>
-      <c r="F1" s="30" t="n"/>
-      <c r="G1" s="30" t="n"/>
-      <c r="H1" s="30" t="n"/>
-      <c r="I1" s="30" t="n"/>
-      <c r="J1" s="30" t="n"/>
-      <c r="K1" s="31" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="27" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                     Übersicht</t>
+        </is>
+      </c>
+      <c r="B1" s="34" t="n"/>
+      <c r="C1" s="34" t="n"/>
+      <c r="D1" s="34" t="n"/>
+      <c r="E1" s="34" t="n"/>
+      <c r="F1" s="34" t="n"/>
+      <c r="G1" s="34" t="n"/>
+      <c r="H1" s="21" t="n"/>
+      <c r="I1" s="21" t="n"/>
+      <c r="J1" s="21" t="n"/>
+      <c r="K1" s="21" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" thickTop="1">
+      <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Informationen zur Excel</t>
         </is>
       </c>
+      <c r="B2" s="22" t="inlineStr">
+        <is>
+          <t>Aktueller Bearbeitungsstand der Wesentlichkeitsanalyse</t>
+        </is>
+      </c>
+      <c r="C2" s="34" t="n"/>
+      <c r="D2" s="34" t="n"/>
+      <c r="E2" s="34" t="n"/>
+      <c r="F2" s="34" t="n"/>
+      <c r="G2" s="34" t="n"/>
+      <c r="H2" s="20" t="n"/>
+      <c r="I2" s="20" t="n"/>
+      <c r="J2" s="20" t="n"/>
+      <c r="K2" s="20" t="n"/>
     </row>
     <row r="3" ht="43.5" customHeight="1">
-      <c r="A3" s="23" t="inlineStr">
+      <c r="A3" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">In dieser Excel werden die Ergebnisse der durchgeführten Wesentlichkeitsanalyse dargestellt. So werden Registerkarten, die für die ESRS Nachhaltigekeitsberichterstattung erarbeitete Informationen enthalten in grün dargstellt. 
 Informationen, die zur Berichterstattung genutzt werden können allerings primär für unternehmensinterne  Zwecke dient werden in gelb dargestellt. </t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1. Stakeholder Management</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>✘</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="n"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2. Stakeholder Auswahl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>✘</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="inlineStr">
+      <c r="A5" s="19" t="inlineStr">
         <is>
           <t>Ablauf der Wesentlichkeitsanalyse:</t>
         </is>
       </c>
-    </row>
-    <row r="21" ht="32" customHeight="1">
-      <c r="A21" s="28" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3. Themenspezifische ESRS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Es fehlen noch 80.6%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="n"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4. Interne Nachhaltigkeitspunkte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>✘</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="n"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5. Externe Nachhaltigkeitspunkte</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="n"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6. Bewertung der Longlist</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Es fehlen noch 88%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="n"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7. Shortlist</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>✘</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="n"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS:</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">von </t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="n"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Es fehlen:</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="n"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Anzahl Punkte in der Longlist:</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="n"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>davon bewertet:</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>von</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Anzahl Punkte in der Shortlist</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="n"/>
+    </row>
+    <row r="21" ht="38" customHeight="1">
+      <c r="A21" s="15" t="inlineStr">
         <is>
           <t>1. Stakeholder Managament: Hinzufügen und Verwalten von Stakeholder. Hinzufügen von Eigenschaften, um das Stakeholder Ranking zu erstellen. 
 Dies kann als Orientierung zur Festlegung der Stakeholder Relvenaz genutzt werden.</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="29" customHeight="1">
-      <c r="A22" s="28" t="inlineStr">
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="15" t="inlineStr">
         <is>
           <t>2. Stakeholder Auswahl: Hier werden die Stakeholder ausgewählt, welche in die Bewertung mit aufgenommen werden sollen.
 Zudem werden "Stille Stakeholder" aussortiert.</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="29" customHeight="1">
-      <c r="A23" s="28" t="inlineStr">
+    <row r="23" ht="33.5" customHeight="1">
+      <c r="A23" s="15" t="inlineStr">
         <is>
           <t>3. Themenspezifische ESRS: Kein offiziell vorgegebener Schritt in der ESRS. Dient zur vorabauswahl von potenziell wesentlichen IROs anahnd der Themenfelder der themenspezifischen ESRS. Punkte, die hier als relevant markiert werden, werden später bewertet.</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="28" t="inlineStr">
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="15" t="inlineStr">
         <is>
           <t>4. Interne Nachhatigkeitspunkte: Hier fügt das Unternehemen, welches die WA durchführt eigene potenzielle IROs hinzu.</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="72.5" customHeight="1">
-      <c r="A25" s="28" t="inlineStr">
+    <row r="25" ht="76" customHeight="1">
+      <c r="A25" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">5. Exerne Nachhaltigkeitspunkte: Hier werden die potenziellen IROs, der in Schritt 2 ausgewählten Stakeholder hinzugefügt. Dabei wird den Stakeholder eine Excel-Datei zugeschickt, welche sowohl die IROs aus Schritt 4 der internen Untersuchung beinhalten als auch die Punkte der themenspzifischen ESRS. Zudem können Stakholder eigene IROs, die noch nihct abgedeckt sind hinzufügen. Es ist anzumerken das die Stakeholder die vollständige Liste der themenspezifische ESRS erhalten und nicht die vorsortierte aus Schritt 1. All diese Punkte werden zusätzlich anahnd von 4 Stufen von den Stakeholder bewerten. Werden die Excel Listen hochgeladen, werden diese in einer Liste vereint. </t>
         </is>
       </c>
     </row>
-    <row r="26" ht="29" customHeight="1">
-      <c r="A26" s="28" t="inlineStr">
+    <row r="26" ht="34.5" customHeight="1">
+      <c r="A26" s="15" t="inlineStr">
         <is>
           <t>6. Bewertung der Longlist: Hier befinden sich alle potnziellen IROs aus Schritt 3, 4 und 5. Die Bewertung erfolgt anahnd der auswirkungsbezogenen und der finaziellen Wesentlichkeit, wobei das Minimum für jede Wesentlichkeitsdimension der Wert 0 ist und das Maximum 1000.</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="43.5" customHeight="1">
-      <c r="A27" s="28" t="inlineStr">
+    <row r="27" ht="50.5" customHeight="1" thickBot="1">
+      <c r="A27" s="17" t="inlineStr">
         <is>
           <t>7. Erstellung der Shortlist: Hier werden alle bewerteten IROs in einer Wesentlichkeitsmatrix angezeigt. Das Unternehemn legt sowohl einen Schwellenwert für die Wesentlichkeit fest als auch für die Stakeholder Wichtigkeit. Punkte die eine der beiden Grenzen überschreiten gelten als wensetlich und werden in die SHortlist übernommen. Die Shortlist enthält alle wesentlichen IROs, die das Unternehmen im Rahmen der Wesentlichkeitsanalyse identifiziert hat.</t>
         </is>
       </c>
     </row>
+    <row r="28" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -1266,33 +1509,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="10.54296875" customWidth="1" style="22" min="1" max="1"/>
-    <col width="70.6328125" customWidth="1" style="22" min="2" max="4"/>
-    <col width="15.7265625" customWidth="1" style="22" min="5" max="5"/>
+    <col width="10.54296875" customWidth="1" style="33" min="1" max="1"/>
+    <col width="70.6328125" customWidth="1" style="33" min="2" max="4"/>
+    <col width="15.7265625" customWidth="1" style="33" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="22" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="C1" s="22" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="22" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="E1" s="22" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Bewertet</t>
         </is>
@@ -1914,33 +2157,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="50.6328125" customWidth="1" style="22" min="1" max="3"/>
-    <col width="16.1796875" bestFit="1" customWidth="1" style="22" min="4" max="4"/>
-    <col width="18.54296875" bestFit="1" customWidth="1" style="22" min="5" max="5"/>
+    <col width="50.6328125" customWidth="1" style="33" min="1" max="3"/>
+    <col width="16.1796875" bestFit="1" customWidth="1" style="33" min="4" max="4"/>
+    <col width="18.54296875" bestFit="1" customWidth="1" style="33" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="B1" s="22" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="C1" s="22" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="22" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Score Finanzen</t>
         </is>
       </c>
-      <c r="E1" s="22" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Score Auswirkung</t>
         </is>
@@ -2058,7 +2301,7 @@
   <cols>
     <col width="18.6328125" customWidth="1" style="2" min="1" max="1"/>
     <col width="126.1796875" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="126.453125" customWidth="1" style="22" min="3" max="3"/>
+    <col width="126.453125" customWidth="1" style="33" min="3" max="3"/>
     <col width="115.90625" customWidth="1" style="2" min="4" max="16384"/>
   </cols>
   <sheetData>
@@ -2073,7 +2316,7 @@
           <t>Beschreibung</t>
         </is>
       </c>
-      <c r="C1" s="22" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Antwort</t>
         </is>
@@ -2486,7 +2729,7 @@
   <cols>
     <col width="18.54296875" customWidth="1" min="1" max="1"/>
     <col width="125.54296875" customWidth="1" min="2" max="2"/>
-    <col width="126.08984375" customWidth="1" style="22" min="3" max="3"/>
+    <col width="126.08984375" customWidth="1" style="33" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1">
@@ -3223,21 +3466,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="29.5" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="35" t="inlineStr">
         <is>
           <t>Stakeholder Ranking</t>
         </is>
       </c>
-      <c r="B1" s="33" t="n"/>
-      <c r="C1" s="34" t="n"/>
+      <c r="B1" s="36" t="n"/>
+      <c r="C1" s="37" t="n"/>
       <c r="D1" s="4" t="n"/>
-      <c r="E1" s="35" t="inlineStr">
+      <c r="E1" s="38" t="inlineStr">
         <is>
           <t>In Bewertung aufgenommene Stakeholder</t>
         </is>
       </c>
-      <c r="F1" s="36" t="n"/>
-      <c r="G1" s="37" t="n"/>
+      <c r="F1" s="39" t="n"/>
+      <c r="G1" s="40" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
@@ -3276,7 +3519,7 @@
       <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="inlineStr">
+      <c r="B3" s="33" t="inlineStr">
         <is>
           <t>bbfb</t>
         </is>
@@ -3287,7 +3530,7 @@
       <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="22" t="inlineStr">
+      <c r="F3" s="33" t="inlineStr">
         <is>
           <t>Mitarbeiter</t>
         </is>
@@ -3300,7 +3543,7 @@
       <c r="A4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="inlineStr">
+      <c r="B4" s="33" t="inlineStr">
         <is>
           <t>Mitarbeiter</t>
         </is>
@@ -3311,7 +3554,7 @@
       <c r="E4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="22" t="inlineStr">
+      <c r="F4" s="33" t="inlineStr">
         <is>
           <t>Bewohner</t>
         </is>
@@ -3324,7 +3567,7 @@
       <c r="A5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="inlineStr">
+      <c r="B5" s="33" t="inlineStr">
         <is>
           <t>Bewohner</t>
         </is>
@@ -3333,359 +3576,359 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n"/>
-      <c r="F5" s="22" t="n"/>
+      <c r="F5" s="33" t="n"/>
       <c r="G5" s="7" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
-      <c r="B6" s="22" t="n"/>
+      <c r="B6" s="33" t="n"/>
       <c r="C6" s="7" t="n"/>
       <c r="E6" s="5" t="n"/>
-      <c r="F6" s="22" t="n"/>
+      <c r="F6" s="33" t="n"/>
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="22" t="n"/>
+      <c r="B7" s="33" t="n"/>
       <c r="C7" s="7" t="n"/>
       <c r="E7" s="5" t="n"/>
-      <c r="F7" s="22" t="n"/>
+      <c r="F7" s="33" t="n"/>
       <c r="G7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="22" t="n"/>
+      <c r="B8" s="33" t="n"/>
       <c r="C8" s="7" t="n"/>
       <c r="E8" s="5" t="n"/>
-      <c r="F8" s="22" t="n"/>
+      <c r="F8" s="33" t="n"/>
       <c r="G8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="22" t="n"/>
+      <c r="B9" s="33" t="n"/>
       <c r="C9" s="7" t="n"/>
       <c r="E9" s="5" t="n"/>
-      <c r="F9" s="22" t="n"/>
+      <c r="F9" s="33" t="n"/>
       <c r="G9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="22" t="n"/>
+      <c r="B10" s="33" t="n"/>
       <c r="C10" s="7" t="n"/>
       <c r="E10" s="5" t="n"/>
-      <c r="F10" s="22" t="n"/>
+      <c r="F10" s="33" t="n"/>
       <c r="G10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="22" t="n"/>
+      <c r="B11" s="33" t="n"/>
       <c r="C11" s="7" t="n"/>
       <c r="E11" s="5" t="n"/>
-      <c r="F11" s="22" t="n"/>
+      <c r="F11" s="33" t="n"/>
       <c r="G11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n"/>
-      <c r="B12" s="22" t="n"/>
+      <c r="B12" s="33" t="n"/>
       <c r="C12" s="7" t="n"/>
       <c r="E12" s="5" t="n"/>
-      <c r="F12" s="22" t="n"/>
+      <c r="F12" s="33" t="n"/>
       <c r="G12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="22" t="n"/>
+      <c r="B13" s="33" t="n"/>
       <c r="C13" s="7" t="n"/>
       <c r="E13" s="5" t="n"/>
-      <c r="F13" s="22" t="n"/>
+      <c r="F13" s="33" t="n"/>
       <c r="G13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="22" t="n"/>
+      <c r="B14" s="33" t="n"/>
       <c r="C14" s="7" t="n"/>
       <c r="E14" s="5" t="n"/>
-      <c r="F14" s="22" t="n"/>
+      <c r="F14" s="33" t="n"/>
       <c r="G14" s="7" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="22" t="n"/>
+      <c r="B15" s="33" t="n"/>
       <c r="C15" s="7" t="n"/>
       <c r="E15" s="5" t="n"/>
-      <c r="F15" s="22" t="n"/>
+      <c r="F15" s="33" t="n"/>
       <c r="G15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="22" t="n"/>
+      <c r="B16" s="33" t="n"/>
       <c r="C16" s="7" t="n"/>
       <c r="E16" s="5" t="n"/>
-      <c r="F16" s="22" t="n"/>
+      <c r="F16" s="33" t="n"/>
       <c r="G16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="22" t="n"/>
+      <c r="B17" s="33" t="n"/>
       <c r="C17" s="7" t="n"/>
       <c r="E17" s="5" t="n"/>
-      <c r="F17" s="22" t="n"/>
+      <c r="F17" s="33" t="n"/>
       <c r="G17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n"/>
-      <c r="B18" s="22" t="n"/>
+      <c r="B18" s="33" t="n"/>
       <c r="C18" s="7" t="n"/>
       <c r="E18" s="5" t="n"/>
-      <c r="F18" s="22" t="n"/>
+      <c r="F18" s="33" t="n"/>
       <c r="G18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="22" t="n"/>
+      <c r="B19" s="33" t="n"/>
       <c r="C19" s="7" t="n"/>
       <c r="E19" s="5" t="n"/>
-      <c r="F19" s="22" t="n"/>
+      <c r="F19" s="33" t="n"/>
       <c r="G19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="22" t="n"/>
+      <c r="B20" s="33" t="n"/>
       <c r="C20" s="7" t="n"/>
       <c r="E20" s="5" t="n"/>
-      <c r="F20" s="22" t="n"/>
+      <c r="F20" s="33" t="n"/>
       <c r="G20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="22" t="n"/>
+      <c r="B21" s="33" t="n"/>
       <c r="C21" s="7" t="n"/>
       <c r="E21" s="5" t="n"/>
-      <c r="F21" s="22" t="n"/>
+      <c r="F21" s="33" t="n"/>
       <c r="G21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="22" t="n"/>
+      <c r="B22" s="33" t="n"/>
       <c r="C22" s="7" t="n"/>
       <c r="E22" s="5" t="n"/>
-      <c r="F22" s="22" t="n"/>
+      <c r="F22" s="33" t="n"/>
       <c r="G22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="22" t="n"/>
+      <c r="B23" s="33" t="n"/>
       <c r="C23" s="7" t="n"/>
       <c r="E23" s="5" t="n"/>
-      <c r="F23" s="22" t="n"/>
+      <c r="F23" s="33" t="n"/>
       <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="22" t="n"/>
+      <c r="B24" s="33" t="n"/>
       <c r="C24" s="7" t="n"/>
       <c r="E24" s="5" t="n"/>
-      <c r="F24" s="22" t="n"/>
+      <c r="F24" s="33" t="n"/>
       <c r="G24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="22" t="n"/>
+      <c r="B25" s="33" t="n"/>
       <c r="C25" s="7" t="n"/>
       <c r="E25" s="5" t="n"/>
-      <c r="F25" s="22" t="n"/>
+      <c r="F25" s="33" t="n"/>
       <c r="G25" s="7" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n"/>
-      <c r="B26" s="22" t="n"/>
+      <c r="B26" s="33" t="n"/>
       <c r="C26" s="7" t="n"/>
       <c r="E26" s="5" t="n"/>
-      <c r="F26" s="22" t="n"/>
+      <c r="F26" s="33" t="n"/>
       <c r="G26" s="7" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="22" t="n"/>
+      <c r="B27" s="33" t="n"/>
       <c r="C27" s="7" t="n"/>
       <c r="E27" s="5" t="n"/>
-      <c r="F27" s="22" t="n"/>
+      <c r="F27" s="33" t="n"/>
       <c r="G27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="22" t="n"/>
+      <c r="B28" s="33" t="n"/>
       <c r="C28" s="7" t="n"/>
       <c r="E28" s="5" t="n"/>
-      <c r="F28" s="22" t="n"/>
+      <c r="F28" s="33" t="n"/>
       <c r="G28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="22" t="n"/>
+      <c r="B29" s="33" t="n"/>
       <c r="C29" s="7" t="n"/>
       <c r="E29" s="5" t="n"/>
-      <c r="F29" s="22" t="n"/>
+      <c r="F29" s="33" t="n"/>
       <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="22" t="n"/>
+      <c r="B30" s="33" t="n"/>
       <c r="C30" s="7" t="n"/>
       <c r="E30" s="5" t="n"/>
-      <c r="F30" s="22" t="n"/>
+      <c r="F30" s="33" t="n"/>
       <c r="G30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="22" t="n"/>
+      <c r="B31" s="33" t="n"/>
       <c r="C31" s="7" t="n"/>
       <c r="E31" s="5" t="n"/>
-      <c r="F31" s="22" t="n"/>
+      <c r="F31" s="33" t="n"/>
       <c r="G31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="22" t="n"/>
+      <c r="B32" s="33" t="n"/>
       <c r="C32" s="7" t="n"/>
       <c r="E32" s="5" t="n"/>
-      <c r="F32" s="22" t="n"/>
+      <c r="F32" s="33" t="n"/>
       <c r="G32" s="7" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="22" t="n"/>
+      <c r="B33" s="33" t="n"/>
       <c r="C33" s="7" t="n"/>
       <c r="E33" s="5" t="n"/>
-      <c r="F33" s="22" t="n"/>
+      <c r="F33" s="33" t="n"/>
       <c r="G33" s="7" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="22" t="n"/>
+      <c r="B34" s="33" t="n"/>
       <c r="C34" s="7" t="n"/>
       <c r="E34" s="5" t="n"/>
-      <c r="F34" s="22" t="n"/>
+      <c r="F34" s="33" t="n"/>
       <c r="G34" s="7" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n"/>
-      <c r="B35" s="22" t="n"/>
+      <c r="B35" s="33" t="n"/>
       <c r="C35" s="7" t="n"/>
       <c r="E35" s="5" t="n"/>
-      <c r="F35" s="22" t="n"/>
+      <c r="F35" s="33" t="n"/>
       <c r="G35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="22" t="n"/>
+      <c r="B36" s="33" t="n"/>
       <c r="C36" s="7" t="n"/>
       <c r="E36" s="5" t="n"/>
-      <c r="F36" s="22" t="n"/>
+      <c r="F36" s="33" t="n"/>
       <c r="G36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="22" t="n"/>
+      <c r="B37" s="33" t="n"/>
       <c r="C37" s="7" t="n"/>
       <c r="E37" s="5" t="n"/>
-      <c r="F37" s="22" t="n"/>
+      <c r="F37" s="33" t="n"/>
       <c r="G37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="22" t="n"/>
+      <c r="B38" s="33" t="n"/>
       <c r="C38" s="7" t="n"/>
       <c r="E38" s="5" t="n"/>
-      <c r="F38" s="22" t="n"/>
+      <c r="F38" s="33" t="n"/>
       <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="22" t="n"/>
+      <c r="B39" s="33" t="n"/>
       <c r="C39" s="7" t="n"/>
       <c r="E39" s="5" t="n"/>
-      <c r="F39" s="22" t="n"/>
+      <c r="F39" s="33" t="n"/>
       <c r="G39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="22" t="n"/>
+      <c r="B40" s="33" t="n"/>
       <c r="C40" s="7" t="n"/>
       <c r="E40" s="5" t="n"/>
-      <c r="F40" s="22" t="n"/>
+      <c r="F40" s="33" t="n"/>
       <c r="G40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="22" t="n"/>
+      <c r="B41" s="33" t="n"/>
       <c r="C41" s="7" t="n"/>
       <c r="E41" s="5" t="n"/>
-      <c r="F41" s="22" t="n"/>
+      <c r="F41" s="33" t="n"/>
       <c r="G41" s="7" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="22" t="n"/>
+      <c r="B42" s="33" t="n"/>
       <c r="C42" s="7" t="n"/>
       <c r="E42" s="5" t="n"/>
-      <c r="F42" s="22" t="n"/>
+      <c r="F42" s="33" t="n"/>
       <c r="G42" s="7" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n"/>
-      <c r="B43" s="22" t="n"/>
+      <c r="B43" s="33" t="n"/>
       <c r="C43" s="7" t="n"/>
       <c r="E43" s="5" t="n"/>
-      <c r="F43" s="22" t="n"/>
+      <c r="F43" s="33" t="n"/>
       <c r="G43" s="7" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n"/>
-      <c r="B44" s="22" t="n"/>
+      <c r="B44" s="33" t="n"/>
       <c r="C44" s="7" t="n"/>
       <c r="E44" s="5" t="n"/>
-      <c r="F44" s="22" t="n"/>
+      <c r="F44" s="33" t="n"/>
       <c r="G44" s="7" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n"/>
-      <c r="B45" s="22" t="n"/>
+      <c r="B45" s="33" t="n"/>
       <c r="C45" s="7" t="n"/>
       <c r="E45" s="5" t="n"/>
-      <c r="F45" s="22" t="n"/>
+      <c r="F45" s="33" t="n"/>
       <c r="G45" s="7" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n"/>
-      <c r="B46" s="22" t="n"/>
+      <c r="B46" s="33" t="n"/>
       <c r="C46" s="7" t="n"/>
       <c r="E46" s="5" t="n"/>
-      <c r="F46" s="22" t="n"/>
+      <c r="F46" s="33" t="n"/>
       <c r="G46" s="7" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="22" t="n"/>
+      <c r="B47" s="33" t="n"/>
       <c r="C47" s="7" t="n"/>
       <c r="E47" s="5" t="n"/>
-      <c r="F47" s="22" t="n"/>
+      <c r="F47" s="33" t="n"/>
       <c r="G47" s="7" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="22" t="n"/>
+      <c r="B48" s="33" t="n"/>
       <c r="C48" s="7" t="n"/>
       <c r="E48" s="5" t="n"/>
-      <c r="F48" s="22" t="n"/>
+      <c r="F48" s="33" t="n"/>
       <c r="G48" s="7" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n"/>
-      <c r="B49" s="22" t="n"/>
+      <c r="B49" s="33" t="n"/>
       <c r="C49" s="7" t="n"/>
       <c r="E49" s="5" t="n"/>
-      <c r="F49" s="22" t="n"/>
+      <c r="F49" s="33" t="n"/>
       <c r="G49" s="7" t="n"/>
     </row>
     <row r="50">
@@ -3725,14 +3968,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" ht="24.5" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
+      <c r="A1" s="32" t="inlineStr">
         <is>
           <t>Angabepflicht IRO-1 – Beschreibung des Verfahrens zur Ermittlung und Bewertung der wesentlichen Auswirkungen, Risiken und Chancen</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1">
-      <c r="A2" s="22" t="inlineStr">
+      <c r="A2" s="33" t="inlineStr">
         <is>
           <t>1. Das Unternehmen hat sein Verfahren zur Ermittlung seiner Auswirkungen, Risiken und Chancen und zur Bewertung ihrer Wesentlichkeit anzugeben</t>
         </is>

--- a/Ergebnisse_WA.xlsx
+++ b/Ergebnisse_WA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Übersicht" sheetId="1" state="visible" r:id="rId1"/>
@@ -24,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -54,6 +54,14 @@
       <b val="1"/>
       <color theme="0"/>
       <sz val="20"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -224,11 +232,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -238,6 +246,112 @@
       <left style="thick">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right style="thick">
         <color indexed="64"/>
       </right>
@@ -254,41 +368,12 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -323,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -367,34 +452,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -420,13 +480,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -651,9 +759,9 @@
     </from>
     <to>
       <col>0</col>
-      <colOff>5746115</colOff>
+      <colOff>5742940</colOff>
       <row>18</row>
-      <rowOff>94615</rowOff>
+      <rowOff>94614</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -687,7 +795,7 @@
   </twoCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>2</col>
       <colOff>0</colOff>
       <row>20</row>
       <rowOff>0</rowOff>
@@ -1173,317 +1281,359 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="138.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="30.6328125" customWidth="1" min="2" max="2"/>
-    <col width="21.26953125" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="27.90625" customWidth="1" min="6" max="6"/>
+    <col width="138.54296875" bestFit="1" customWidth="1" style="28" min="1" max="1"/>
+    <col width="30.6328125" customWidth="1" style="28" min="2" max="2"/>
+    <col width="21.26953125" customWidth="1" style="28" min="3" max="3"/>
+    <col width="12" customWidth="1" style="28" min="5" max="5"/>
+    <col width="27.90625" customWidth="1" style="28" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" thickBot="1">
-      <c r="A1" s="24" t="inlineStr">
+    <row r="1" ht="29" customHeight="1" s="28" thickBot="1" thickTop="1">
+      <c r="A1" s="42" t="inlineStr">
         <is>
           <t xml:space="preserve">                                     Übersicht</t>
         </is>
       </c>
-      <c r="B1" s="34" t="n"/>
-      <c r="C1" s="34" t="n"/>
-      <c r="D1" s="34" t="n"/>
-      <c r="E1" s="34" t="n"/>
-      <c r="F1" s="34" t="n"/>
-      <c r="G1" s="34" t="n"/>
-      <c r="H1" s="21" t="n"/>
-      <c r="I1" s="21" t="n"/>
-      <c r="J1" s="21" t="n"/>
-      <c r="K1" s="21" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" thickTop="1">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="B1" s="43" t="n"/>
+      <c r="C1" s="43" t="n"/>
+      <c r="D1" s="43" t="n"/>
+      <c r="E1" s="43" t="n"/>
+      <c r="F1" s="43" t="n"/>
+      <c r="G1" s="44" t="n"/>
+      <c r="H1" s="16" t="n"/>
+      <c r="I1" s="16" t="n"/>
+      <c r="J1" s="16" t="n"/>
+      <c r="K1" s="16" t="n"/>
+    </row>
+    <row r="2" ht="16.5" customHeight="1" s="28" thickTop="1">
+      <c r="A2" s="39" t="inlineStr">
         <is>
           <t>Informationen zur Excel</t>
         </is>
       </c>
-      <c r="B2" s="22" t="inlineStr">
+      <c r="B2" s="45" t="inlineStr">
         <is>
           <t>Aktueller Bearbeitungsstand der Wesentlichkeitsanalyse</t>
         </is>
       </c>
-      <c r="C2" s="34" t="n"/>
-      <c r="D2" s="34" t="n"/>
-      <c r="E2" s="34" t="n"/>
-      <c r="F2" s="34" t="n"/>
-      <c r="G2" s="34" t="n"/>
-      <c r="H2" s="20" t="n"/>
-      <c r="I2" s="20" t="n"/>
-      <c r="J2" s="20" t="n"/>
-      <c r="K2" s="20" t="n"/>
-    </row>
-    <row r="3" ht="43.5" customHeight="1">
-      <c r="A3" s="15" t="inlineStr">
+      <c r="C2" s="46" t="n"/>
+      <c r="D2" s="46" t="n"/>
+      <c r="E2" s="46" t="n"/>
+      <c r="F2" s="46" t="n"/>
+      <c r="G2" s="47" t="n"/>
+      <c r="H2" s="15" t="n"/>
+      <c r="I2" s="15" t="n"/>
+      <c r="J2" s="15" t="n"/>
+      <c r="K2" s="15" t="n"/>
+    </row>
+    <row r="3" ht="43.5" customHeight="1" s="28">
+      <c r="A3" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">In dieser Excel werden die Ergebnisse der durchgeführten Wesentlichkeitsanalyse dargestellt. So werden Registerkarten, die für die ESRS Nachhaltigekeitsberichterstattung erarbeitete Informationen enthalten in grün dargstellt. 
 Informationen, die zur Berichterstattung genutzt werden können allerings primär für unternehmensinterne  Zwecke dient werden in gelb dargestellt. </t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>1. Stakeholder Management</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G3" s="30" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="26" t="n"/>
+      <c r="B4" s="26" t="inlineStr">
+        <is>
+          <t>2. Stakeholder Auswahl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
+      <c r="G4" s="30" t="n"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" s="28">
+      <c r="A5" s="38" t="inlineStr">
+        <is>
+          <t>Ablauf der Wesentlichkeitsanalyse:</t>
+        </is>
+      </c>
+      <c r="B5" s="26" t="inlineStr">
+        <is>
+          <t>3. Themenspezifische ESRS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Es fehlen noch 80.6%.</t>
+        </is>
+      </c>
+      <c r="G5" s="30" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="26" t="n"/>
+      <c r="B6" s="26" t="inlineStr">
+        <is>
+          <t>4. Interne Nachhaltigkeitspunkte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>✘</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="16" t="n"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2. Stakeholder Auswahl</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="G6" s="30" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="n"/>
+      <c r="B7" s="26" t="inlineStr">
+        <is>
+          <t>5. Externe Nachhaltigkeitspunkte</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Es fehlt noch 1 Stakeholder.</t>
+        </is>
+      </c>
+      <c r="G7" s="30" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="n"/>
+      <c r="B8" s="26" t="inlineStr">
+        <is>
+          <t>6. Bewertung der Longlist</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Es fehlen noch 88%.</t>
+        </is>
+      </c>
+      <c r="G8" s="30" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="26" t="n"/>
+      <c r="B9" s="26" t="inlineStr">
+        <is>
+          <t>7. Shortlist</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>✘</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="19" t="inlineStr">
-        <is>
-          <t>Ablauf der Wesentlichkeitsanalyse:</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3. Themenspezifische ESRS</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Es fehlen noch 80.6%.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="16" t="n"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4. Interne Nachhaltigkeitspunkte</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>✘</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="n"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5. Externe Nachhaltigkeitspunkte</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="16" t="n"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6. Bewertung der Longlist</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Es fehlen noch 88%.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="16" t="n"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>7. Shortlist</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>✘</t>
-        </is>
-      </c>
+      <c r="G9" s="30" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="n"/>
+      <c r="A10" s="26" t="n"/>
+      <c r="B10" s="26" t="n"/>
+      <c r="G10" s="30" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="n"/>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="26" t="n"/>
+      <c r="B11" s="26" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS:</t>
         </is>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve">von </t>
         </is>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="29" t="n">
         <v>93</v>
       </c>
-      <c r="F11" s="4" t="n"/>
+      <c r="F11" s="29" t="n"/>
+      <c r="G11" s="30" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="n"/>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="26" t="n"/>
+      <c r="B12" s="26" t="inlineStr">
         <is>
           <t>Es fehlen:</t>
         </is>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="29" t="n">
         <v>75</v>
       </c>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="4" t="n"/>
+      <c r="D12" s="29" t="n"/>
+      <c r="E12" s="29" t="n"/>
+      <c r="F12" s="29" t="n"/>
+      <c r="G12" s="30" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="n"/>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
+      <c r="A13" s="26" t="n"/>
+      <c r="B13" s="26" t="n"/>
+      <c r="C13" s="29" t="n"/>
+      <c r="D13" s="29" t="n"/>
+      <c r="E13" s="29" t="n"/>
+      <c r="F13" s="29" t="n"/>
+      <c r="G13" s="30" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="n"/>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="26" t="n"/>
+      <c r="B14" s="26" t="inlineStr">
         <is>
           <t>Anzahl Punkte in der Longlist:</t>
         </is>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="29" t="n">
         <v>25</v>
       </c>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="4" t="n"/>
+      <c r="D14" s="29" t="n"/>
+      <c r="E14" s="29" t="n"/>
+      <c r="F14" s="29" t="n"/>
+      <c r="G14" s="30" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="n"/>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="26" t="n"/>
+      <c r="B15" s="26" t="inlineStr">
         <is>
           <t>davon bewertet:</t>
         </is>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="29" t="inlineStr">
         <is>
           <t>von</t>
         </is>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="29" t="n">
         <v>22</v>
       </c>
-      <c r="F15" s="4" t="n"/>
+      <c r="F15" s="29" t="n"/>
+      <c r="G15" s="30" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
+      <c r="A16" s="26" t="n"/>
+      <c r="B16" s="26" t="n"/>
+      <c r="C16" s="29" t="n"/>
+      <c r="D16" s="29" t="n"/>
+      <c r="E16" s="29" t="n"/>
+      <c r="F16" s="29" t="n"/>
+      <c r="G16" s="30" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="n"/>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="26" t="n"/>
+      <c r="B17" s="26" t="inlineStr">
         <is>
           <t>Anzahl Punkte in der Shortlist</t>
         </is>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
+      <c r="D17" s="29" t="n"/>
+      <c r="E17" s="29" t="n"/>
+      <c r="F17" s="29" t="n"/>
+      <c r="G17" s="30" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="n"/>
+      <c r="A18" s="26" t="n"/>
+      <c r="B18" s="26" t="n"/>
+      <c r="G18" s="30" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="n"/>
+      <c r="A19" s="26" t="n"/>
+      <c r="B19" s="26" t="n"/>
+      <c r="G19" s="30" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="n"/>
-    </row>
-    <row r="21" ht="38" customHeight="1">
-      <c r="A21" s="15" t="inlineStr">
+      <c r="A20" s="26" t="n"/>
+      <c r="B20" s="26" t="n"/>
+      <c r="G20" s="30" t="n"/>
+    </row>
+    <row r="21" ht="38" customHeight="1" s="28">
+      <c r="A21" s="25" t="inlineStr">
         <is>
           <t>1. Stakeholder Managament: Hinzufügen und Verwalten von Stakeholder. Hinzufügen von Eigenschaften, um das Stakeholder Ranking zu erstellen. 
 Dies kann als Orientierung zur Festlegung der Stakeholder Relvenaz genutzt werden.</t>
         </is>
       </c>
-    </row>
-    <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="15" t="inlineStr">
+      <c r="B21" s="26" t="n"/>
+      <c r="G21" s="30" t="n"/>
+    </row>
+    <row r="22" ht="30" customHeight="1" s="28">
+      <c r="A22" s="25" t="inlineStr">
         <is>
           <t>2. Stakeholder Auswahl: Hier werden die Stakeholder ausgewählt, welche in die Bewertung mit aufgenommen werden sollen.
 Zudem werden "Stille Stakeholder" aussortiert.</t>
         </is>
       </c>
-    </row>
-    <row r="23" ht="33.5" customHeight="1">
-      <c r="A23" s="15" t="inlineStr">
+      <c r="B22" s="26" t="n"/>
+      <c r="G22" s="30" t="n"/>
+    </row>
+    <row r="23" ht="33.5" customHeight="1" s="28">
+      <c r="A23" s="25" t="inlineStr">
         <is>
           <t>3. Themenspezifische ESRS: Kein offiziell vorgegebener Schritt in der ESRS. Dient zur vorabauswahl von potenziell wesentlichen IROs anahnd der Themenfelder der themenspezifischen ESRS. Punkte, die hier als relevant markiert werden, werden später bewertet.</t>
         </is>
       </c>
-    </row>
-    <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="15" t="inlineStr">
+      <c r="B23" s="26" t="n"/>
+      <c r="G23" s="30" t="n"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="28">
+      <c r="A24" s="25" t="inlineStr">
         <is>
           <t>4. Interne Nachhatigkeitspunkte: Hier fügt das Unternehemen, welches die WA durchführt eigene potenzielle IROs hinzu.</t>
         </is>
       </c>
-    </row>
-    <row r="25" ht="76" customHeight="1">
-      <c r="A25" s="15" t="inlineStr">
+      <c r="B24" s="26" t="n"/>
+      <c r="G24" s="30" t="n"/>
+    </row>
+    <row r="25" ht="76" customHeight="1" s="28">
+      <c r="A25" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">5. Exerne Nachhaltigkeitspunkte: Hier werden die potenziellen IROs, der in Schritt 2 ausgewählten Stakeholder hinzugefügt. Dabei wird den Stakeholder eine Excel-Datei zugeschickt, welche sowohl die IROs aus Schritt 4 der internen Untersuchung beinhalten als auch die Punkte der themenspzifischen ESRS. Zudem können Stakholder eigene IROs, die noch nihct abgedeckt sind hinzufügen. Es ist anzumerken das die Stakeholder die vollständige Liste der themenspezifische ESRS erhalten und nicht die vorsortierte aus Schritt 1. All diese Punkte werden zusätzlich anahnd von 4 Stufen von den Stakeholder bewerten. Werden die Excel Listen hochgeladen, werden diese in einer Liste vereint. </t>
         </is>
       </c>
-    </row>
-    <row r="26" ht="34.5" customHeight="1">
-      <c r="A26" s="15" t="inlineStr">
+      <c r="B25" s="26" t="n"/>
+      <c r="G25" s="30" t="n"/>
+    </row>
+    <row r="26" ht="34.5" customHeight="1" s="28">
+      <c r="A26" s="25" t="inlineStr">
         <is>
           <t>6. Bewertung der Longlist: Hier befinden sich alle potnziellen IROs aus Schritt 3, 4 und 5. Die Bewertung erfolgt anahnd der auswirkungsbezogenen und der finaziellen Wesentlichkeit, wobei das Minimum für jede Wesentlichkeitsdimension der Wert 0 ist und das Maximum 1000.</t>
         </is>
       </c>
-    </row>
-    <row r="27" ht="50.5" customHeight="1" thickBot="1">
-      <c r="A27" s="17" t="inlineStr">
+      <c r="B26" s="26" t="n"/>
+      <c r="G26" s="30" t="n"/>
+    </row>
+    <row r="27" ht="50.5" customHeight="1" s="28" thickBot="1">
+      <c r="A27" s="27" t="inlineStr">
         <is>
           <t>7. Erstellung der Shortlist: Hier werden alle bewerteten IROs in einer Wesentlichkeitsmatrix angezeigt. Das Unternehemn legt sowohl einen Schwellenwert für die Wesentlichkeit fest als auch für die Stakeholder Wichtigkeit. Punkte die eine der beiden Grenzen überschreiten gelten als wensetlich und werden in die SHortlist übernommen. Die Shortlist enthält alle wesentlichen IROs, die das Unternehmen im Rahmen der Wesentlichkeitsanalyse identifiziert hat.</t>
         </is>
       </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" thickTop="1"/>
+      <c r="B27" s="31" t="n"/>
+      <c r="C27" s="32" t="n"/>
+      <c r="D27" s="32" t="n"/>
+      <c r="E27" s="32" t="n"/>
+      <c r="F27" s="32" t="n"/>
+      <c r="G27" s="33" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="28" thickTop="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
@@ -1509,33 +1659,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="10.54296875" customWidth="1" style="33" min="1" max="1"/>
-    <col width="70.6328125" customWidth="1" style="33" min="2" max="4"/>
-    <col width="15.7265625" customWidth="1" style="33" min="5" max="5"/>
+    <col width="10.54296875" customWidth="1" style="24" min="1" max="1"/>
+    <col width="70.6328125" customWidth="1" style="24" min="2" max="4"/>
+    <col width="15.7265625" customWidth="1" style="24" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="33" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="C1" s="33" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="33" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="E1" s="33" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Bewertet</t>
         </is>
@@ -2157,33 +2307,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="50.6328125" customWidth="1" style="33" min="1" max="3"/>
-    <col width="16.1796875" bestFit="1" customWidth="1" style="33" min="4" max="4"/>
-    <col width="18.54296875" bestFit="1" customWidth="1" style="33" min="5" max="5"/>
+    <col width="50.6328125" customWidth="1" style="24" min="1" max="3"/>
+    <col width="16.1796875" bestFit="1" customWidth="1" style="24" min="4" max="4"/>
+    <col width="18.54296875" bestFit="1" customWidth="1" style="24" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="B1" s="33" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="C1" s="33" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="33" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Score Finanzen</t>
         </is>
       </c>
-      <c r="E1" s="33" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Score Auswirkung</t>
         </is>
@@ -2301,11 +2451,11 @@
   <cols>
     <col width="18.6328125" customWidth="1" style="2" min="1" max="1"/>
     <col width="126.1796875" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="126.453125" customWidth="1" style="33" min="3" max="3"/>
+    <col width="126.453125" customWidth="1" style="24" min="3" max="3"/>
     <col width="115.90625" customWidth="1" style="2" min="4" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
+    <row r="1" ht="19" customHeight="1" s="28">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Referenz</t>
@@ -2316,13 +2466,13 @@
           <t>Beschreibung</t>
         </is>
       </c>
-      <c r="C1" s="33" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>Antwort</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="70" customHeight="1">
+    <row r="2" ht="70" customHeight="1" s="28">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 BP-1 §5a</t>
@@ -2335,12 +2485,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">fsgdgdf
+          <t xml:space="preserve">Die Nachhaltigkeitserklärung wurde auf individueller Basis erstellt.
 </t>
         </is>
       </c>
     </row>
-    <row r="3" ht="70" customHeight="1">
+    <row r="3" ht="70" customHeight="1" s="28">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 BP-1 §5b i</t>
@@ -2353,7 +2503,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
-    <row r="4" ht="70" customHeight="1">
+    <row r="4" ht="70" customHeight="1" s="28">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 BP-1 §5b ii</t>
@@ -2366,7 +2516,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
-    <row r="5" ht="70" customHeight="1">
+    <row r="5" ht="70" customHeight="1" s="28">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 BP-1 §5c</t>
@@ -2379,7 +2529,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
-    <row r="6" ht="70" customHeight="1">
+    <row r="6" ht="70" customHeight="1" s="28">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 GOV-4 §30; §32</t>
@@ -2392,7 +2542,7 @@
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
-    <row r="7" ht="70" customHeight="1">
+    <row r="7" ht="70" customHeight="1" s="28">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 GOV-5 §36a</t>
@@ -2405,7 +2555,7 @@
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
-    <row r="8" ht="70" customHeight="1">
+    <row r="8" ht="70" customHeight="1" s="28">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 GOV-5 §36b</t>
@@ -2418,7 +2568,7 @@
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
-    <row r="9" ht="70" customHeight="1">
+    <row r="9" ht="70" customHeight="1" s="28">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 GOV-5 §36c</t>
@@ -2431,7 +2581,7 @@
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
-    <row r="10" ht="70" customHeight="1">
+    <row r="10" ht="70" customHeight="1" s="28">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 GOV-5 §36d</t>
@@ -2444,7 +2594,7 @@
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
-    <row r="11" ht="70" customHeight="1">
+    <row r="11" ht="70" customHeight="1" s="28">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §40a i</t>
@@ -2457,7 +2607,7 @@
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
-    <row r="12" ht="70" customHeight="1">
+    <row r="12" ht="70" customHeight="1" s="28">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §40a iii</t>
@@ -2470,7 +2620,7 @@
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
-    <row r="13" ht="70" customHeight="1">
+    <row r="13" ht="70" customHeight="1" s="28">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §40b</t>
@@ -2483,7 +2633,7 @@
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
-    <row r="14" ht="70" customHeight="1">
+    <row r="14" ht="70" customHeight="1" s="28">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §40d i</t>
@@ -2496,7 +2646,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
-    <row r="15" ht="70" customHeight="1">
+    <row r="15" ht="70" customHeight="1" s="28">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §40e</t>
@@ -2509,7 +2659,7 @@
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
-    <row r="16" ht="70" customHeight="1">
+    <row r="16" ht="70" customHeight="1" s="28">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §42</t>
@@ -2522,7 +2672,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
-    <row r="17" ht="70" customHeight="1">
+    <row r="17" ht="70" customHeight="1" s="28">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §42a</t>
@@ -2535,7 +2685,7 @@
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
-    <row r="18" ht="70" customHeight="1">
+    <row r="18" ht="70" customHeight="1" s="28">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §42b</t>
@@ -2548,7 +2698,7 @@
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
-    <row r="19" ht="70" customHeight="1">
+    <row r="19" ht="70" customHeight="1" s="28">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §42c</t>
@@ -2561,7 +2711,7 @@
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
-    <row r="20" ht="70" customHeight="1">
+    <row r="20" ht="70" customHeight="1" s="28">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48a</t>
@@ -2574,7 +2724,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
-    <row r="21" ht="70" customHeight="1">
+    <row r="21" ht="70" customHeight="1" s="28">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48b</t>
@@ -2587,7 +2737,7 @@
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
-    <row r="22" ht="70" customHeight="1">
+    <row r="22" ht="70" customHeight="1" s="28">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48c i</t>
@@ -2600,7 +2750,7 @@
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
-    <row r="23" ht="70" customHeight="1">
+    <row r="23" ht="70" customHeight="1" s="28">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48c ii</t>
@@ -2613,7 +2763,7 @@
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
-    <row r="24" ht="70" customHeight="1">
+    <row r="24" ht="70" customHeight="1" s="28">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48c iii</t>
@@ -2626,7 +2776,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
-    <row r="25" ht="70" customHeight="1">
+    <row r="25" ht="70" customHeight="1" s="28">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48c iv</t>
@@ -2639,7 +2789,7 @@
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
-    <row r="26" ht="70" customHeight="1">
+    <row r="26" ht="70" customHeight="1" s="28">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48d</t>
@@ -2652,7 +2802,7 @@
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
-    <row r="27" ht="70" customHeight="1">
+    <row r="27" ht="70" customHeight="1" s="28">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48e</t>
@@ -2665,7 +2815,7 @@
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
-    <row r="28" ht="70" customHeight="1">
+    <row r="28" ht="70" customHeight="1" s="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48f</t>
@@ -2678,7 +2828,7 @@
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
-    <row r="29" ht="70" customHeight="1">
+    <row r="29" ht="70" customHeight="1" s="28">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48g</t>
@@ -2691,7 +2841,7 @@
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
-    <row r="30" ht="70" customHeight="1">
+    <row r="30" ht="70" customHeight="1" s="28">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48h</t>
@@ -2727,12 +2877,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="18.54296875" customWidth="1" min="1" max="1"/>
-    <col width="125.54296875" customWidth="1" min="2" max="2"/>
-    <col width="126.08984375" customWidth="1" style="33" min="3" max="3"/>
+    <col width="18.54296875" customWidth="1" style="28" min="1" max="1"/>
+    <col width="125.54296875" customWidth="1" style="28" min="2" max="2"/>
+    <col width="126.08984375" customWidth="1" style="24" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" thickBot="1">
+    <row r="1" ht="15" customHeight="1" s="28" thickBot="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Referenz</t>
@@ -2749,7 +2899,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="70" customHeight="1">
+    <row r="2" ht="70" customHeight="1" s="28">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-P §65a</t>
@@ -2767,7 +2917,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="70" customHeight="1">
+    <row r="3" ht="70" customHeight="1" s="28">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-P §65b</t>
@@ -2781,7 +2931,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
-    <row r="4" ht="70" customHeight="1">
+    <row r="4" ht="70" customHeight="1" s="28">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-A §68b</t>
@@ -2795,7 +2945,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
-    <row r="5" ht="70" customHeight="1">
+    <row r="5" ht="70" customHeight="1" s="28">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-A §68d</t>
@@ -2809,7 +2959,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
-    <row r="6" ht="70" customHeight="1">
+    <row r="6" ht="70" customHeight="1" s="28">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-A §69b</t>
@@ -2822,7 +2972,7 @@
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
-    <row r="7" ht="70" customHeight="1">
+    <row r="7" ht="70" customHeight="1" s="28">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-A §69b</t>
@@ -2835,7 +2985,7 @@
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
-    <row r="8" ht="70" customHeight="1">
+    <row r="8" ht="70" customHeight="1" s="28">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-A §69c</t>
@@ -2848,7 +2998,7 @@
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
-    <row r="9" ht="70" customHeight="1">
+    <row r="9" ht="70" customHeight="1" s="28">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-A §69c</t>
@@ -2861,7 +3011,7 @@
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
-    <row r="10" ht="70" customHeight="1">
+    <row r="10" ht="70" customHeight="1" s="28">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-M §75</t>
@@ -2875,7 +3025,7 @@
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
-    <row r="11" ht="70" customHeight="1">
+    <row r="11" ht="70" customHeight="1" s="28">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-T §80</t>
@@ -2912,7 +3062,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="50.6328125" customWidth="1" min="1" max="3"/>
+    <col width="50.6328125" customWidth="1" style="28" min="1" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2972,15 +3122,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="12.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="25.26953125" customWidth="1" min="2" max="2"/>
-    <col width="28.1796875" customWidth="1" min="3" max="3"/>
-    <col width="46" customWidth="1" min="4" max="4"/>
-    <col width="28.1796875" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="25.90625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="24.54296875" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="39.81640625" customWidth="1" min="8" max="8"/>
-    <col width="24.54296875" customWidth="1" min="9" max="9"/>
+    <col width="12.81640625" bestFit="1" customWidth="1" style="28" min="1" max="1"/>
+    <col width="25.26953125" customWidth="1" style="28" min="2" max="2"/>
+    <col width="28.1796875" customWidth="1" style="28" min="3" max="3"/>
+    <col width="46" customWidth="1" style="28" min="4" max="4"/>
+    <col width="28.1796875" bestFit="1" customWidth="1" style="28" min="5" max="5"/>
+    <col width="25.90625" bestFit="1" customWidth="1" style="28" min="6" max="6"/>
+    <col width="24.54296875" bestFit="1" customWidth="1" style="28" min="7" max="7"/>
+    <col width="39.81640625" customWidth="1" style="28" min="8" max="8"/>
+    <col width="24.54296875" customWidth="1" style="28" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3458,29 +3608,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="15.81640625" customWidth="1" min="1" max="1"/>
-    <col width="20.453125" customWidth="1" min="2" max="2"/>
-    <col width="16.08984375" customWidth="1" min="5" max="5"/>
-    <col width="20.453125" customWidth="1" min="6" max="6"/>
-    <col width="11.90625" customWidth="1" min="7" max="7"/>
+    <col width="15.81640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="20.453125" customWidth="1" style="28" min="2" max="2"/>
+    <col width="16.08984375" customWidth="1" style="28" min="5" max="5"/>
+    <col width="20.453125" customWidth="1" style="28" min="6" max="6"/>
+    <col width="11.90625" customWidth="1" style="28" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.5" customHeight="1">
-      <c r="A1" s="35" t="inlineStr">
+    <row r="1" ht="29.5" customHeight="1" s="28">
+      <c r="A1" s="48" t="inlineStr">
         <is>
           <t>Stakeholder Ranking</t>
         </is>
       </c>
-      <c r="B1" s="36" t="n"/>
-      <c r="C1" s="37" t="n"/>
-      <c r="D1" s="4" t="n"/>
-      <c r="E1" s="38" t="inlineStr">
+      <c r="B1" s="49" t="n"/>
+      <c r="C1" s="50" t="n"/>
+      <c r="D1" s="29" t="n"/>
+      <c r="E1" s="51" t="inlineStr">
         <is>
           <t>In Bewertung aufgenommene Stakeholder</t>
         </is>
       </c>
-      <c r="F1" s="39" t="n"/>
-      <c r="G1" s="40" t="n"/>
+      <c r="F1" s="52" t="n"/>
+      <c r="G1" s="53" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
@@ -3519,44 +3669,44 @@
       <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="inlineStr">
-        <is>
-          <t>bbfb</t>
+      <c r="B3" s="24" t="inlineStr">
+        <is>
+          <t>Lieferant 1</t>
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="33" t="inlineStr">
-        <is>
-          <t>Mitarbeiter</t>
+      <c r="F3" s="24" t="inlineStr">
+        <is>
+          <t>Lieferant 1</t>
         </is>
       </c>
       <c r="G3" s="7" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="33" t="inlineStr">
-        <is>
-          <t>Mitarbeiter</t>
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="inlineStr">
+        <is>
+          <t>bbfb</t>
         </is>
       </c>
       <c r="C4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="33" t="inlineStr">
-        <is>
-          <t>Bewohner</t>
+        <v>2</v>
+      </c>
+      <c r="F4" s="24" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="G4" s="7" t="n">
@@ -3565,370 +3715,386 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="33" t="inlineStr">
-        <is>
-          <t>Bewohner</t>
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="C5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="33" t="n"/>
-      <c r="G5" s="7" t="n"/>
+      <c r="E5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="24" t="inlineStr">
+        <is>
+          <t>Bewohner</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="33" t="n"/>
-      <c r="C6" s="7" t="n"/>
+      <c r="A6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="24" t="inlineStr">
+        <is>
+          <t>Bewohner</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" s="5" t="n"/>
-      <c r="F6" s="33" t="n"/>
+      <c r="F6" s="24" t="n"/>
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="33" t="n"/>
+      <c r="B7" s="24" t="n"/>
       <c r="C7" s="7" t="n"/>
       <c r="E7" s="5" t="n"/>
-      <c r="F7" s="33" t="n"/>
+      <c r="F7" s="24" t="n"/>
       <c r="G7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="33" t="n"/>
+      <c r="B8" s="24" t="n"/>
       <c r="C8" s="7" t="n"/>
       <c r="E8" s="5" t="n"/>
-      <c r="F8" s="33" t="n"/>
+      <c r="F8" s="24" t="n"/>
       <c r="G8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="33" t="n"/>
+      <c r="B9" s="24" t="n"/>
       <c r="C9" s="7" t="n"/>
       <c r="E9" s="5" t="n"/>
-      <c r="F9" s="33" t="n"/>
+      <c r="F9" s="24" t="n"/>
       <c r="G9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="33" t="n"/>
+      <c r="B10" s="24" t="n"/>
       <c r="C10" s="7" t="n"/>
       <c r="E10" s="5" t="n"/>
-      <c r="F10" s="33" t="n"/>
+      <c r="F10" s="24" t="n"/>
       <c r="G10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="33" t="n"/>
+      <c r="B11" s="24" t="n"/>
       <c r="C11" s="7" t="n"/>
       <c r="E11" s="5" t="n"/>
-      <c r="F11" s="33" t="n"/>
+      <c r="F11" s="24" t="n"/>
       <c r="G11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n"/>
-      <c r="B12" s="33" t="n"/>
+      <c r="B12" s="24" t="n"/>
       <c r="C12" s="7" t="n"/>
       <c r="E12" s="5" t="n"/>
-      <c r="F12" s="33" t="n"/>
+      <c r="F12" s="24" t="n"/>
       <c r="G12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="33" t="n"/>
+      <c r="B13" s="24" t="n"/>
       <c r="C13" s="7" t="n"/>
       <c r="E13" s="5" t="n"/>
-      <c r="F13" s="33" t="n"/>
+      <c r="F13" s="24" t="n"/>
       <c r="G13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="33" t="n"/>
+      <c r="B14" s="24" t="n"/>
       <c r="C14" s="7" t="n"/>
       <c r="E14" s="5" t="n"/>
-      <c r="F14" s="33" t="n"/>
+      <c r="F14" s="24" t="n"/>
       <c r="G14" s="7" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="33" t="n"/>
+      <c r="B15" s="24" t="n"/>
       <c r="C15" s="7" t="n"/>
       <c r="E15" s="5" t="n"/>
-      <c r="F15" s="33" t="n"/>
+      <c r="F15" s="24" t="n"/>
       <c r="G15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="33" t="n"/>
+      <c r="B16" s="24" t="n"/>
       <c r="C16" s="7" t="n"/>
       <c r="E16" s="5" t="n"/>
-      <c r="F16" s="33" t="n"/>
+      <c r="F16" s="24" t="n"/>
       <c r="G16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="33" t="n"/>
+      <c r="B17" s="24" t="n"/>
       <c r="C17" s="7" t="n"/>
       <c r="E17" s="5" t="n"/>
-      <c r="F17" s="33" t="n"/>
+      <c r="F17" s="24" t="n"/>
       <c r="G17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n"/>
-      <c r="B18" s="33" t="n"/>
+      <c r="B18" s="24" t="n"/>
       <c r="C18" s="7" t="n"/>
       <c r="E18" s="5" t="n"/>
-      <c r="F18" s="33" t="n"/>
+      <c r="F18" s="24" t="n"/>
       <c r="G18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="33" t="n"/>
+      <c r="B19" s="24" t="n"/>
       <c r="C19" s="7" t="n"/>
       <c r="E19" s="5" t="n"/>
-      <c r="F19" s="33" t="n"/>
+      <c r="F19" s="24" t="n"/>
       <c r="G19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="33" t="n"/>
+      <c r="B20" s="24" t="n"/>
       <c r="C20" s="7" t="n"/>
       <c r="E20" s="5" t="n"/>
-      <c r="F20" s="33" t="n"/>
+      <c r="F20" s="24" t="n"/>
       <c r="G20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="33" t="n"/>
+      <c r="B21" s="24" t="n"/>
       <c r="C21" s="7" t="n"/>
       <c r="E21" s="5" t="n"/>
-      <c r="F21" s="33" t="n"/>
+      <c r="F21" s="24" t="n"/>
       <c r="G21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="33" t="n"/>
+      <c r="B22" s="24" t="n"/>
       <c r="C22" s="7" t="n"/>
       <c r="E22" s="5" t="n"/>
-      <c r="F22" s="33" t="n"/>
+      <c r="F22" s="24" t="n"/>
       <c r="G22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="33" t="n"/>
+      <c r="B23" s="24" t="n"/>
       <c r="C23" s="7" t="n"/>
       <c r="E23" s="5" t="n"/>
-      <c r="F23" s="33" t="n"/>
+      <c r="F23" s="24" t="n"/>
       <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="33" t="n"/>
+      <c r="B24" s="24" t="n"/>
       <c r="C24" s="7" t="n"/>
       <c r="E24" s="5" t="n"/>
-      <c r="F24" s="33" t="n"/>
+      <c r="F24" s="24" t="n"/>
       <c r="G24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="33" t="n"/>
+      <c r="B25" s="24" t="n"/>
       <c r="C25" s="7" t="n"/>
       <c r="E25" s="5" t="n"/>
-      <c r="F25" s="33" t="n"/>
+      <c r="F25" s="24" t="n"/>
       <c r="G25" s="7" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n"/>
-      <c r="B26" s="33" t="n"/>
+      <c r="B26" s="24" t="n"/>
       <c r="C26" s="7" t="n"/>
       <c r="E26" s="5" t="n"/>
-      <c r="F26" s="33" t="n"/>
+      <c r="F26" s="24" t="n"/>
       <c r="G26" s="7" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="33" t="n"/>
+      <c r="B27" s="24" t="n"/>
       <c r="C27" s="7" t="n"/>
       <c r="E27" s="5" t="n"/>
-      <c r="F27" s="33" t="n"/>
+      <c r="F27" s="24" t="n"/>
       <c r="G27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="33" t="n"/>
+      <c r="B28" s="24" t="n"/>
       <c r="C28" s="7" t="n"/>
       <c r="E28" s="5" t="n"/>
-      <c r="F28" s="33" t="n"/>
+      <c r="F28" s="24" t="n"/>
       <c r="G28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="33" t="n"/>
+      <c r="B29" s="24" t="n"/>
       <c r="C29" s="7" t="n"/>
       <c r="E29" s="5" t="n"/>
-      <c r="F29" s="33" t="n"/>
+      <c r="F29" s="24" t="n"/>
       <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="33" t="n"/>
+      <c r="B30" s="24" t="n"/>
       <c r="C30" s="7" t="n"/>
       <c r="E30" s="5" t="n"/>
-      <c r="F30" s="33" t="n"/>
+      <c r="F30" s="24" t="n"/>
       <c r="G30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="33" t="n"/>
+      <c r="B31" s="24" t="n"/>
       <c r="C31" s="7" t="n"/>
       <c r="E31" s="5" t="n"/>
-      <c r="F31" s="33" t="n"/>
+      <c r="F31" s="24" t="n"/>
       <c r="G31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="33" t="n"/>
+      <c r="B32" s="24" t="n"/>
       <c r="C32" s="7" t="n"/>
       <c r="E32" s="5" t="n"/>
-      <c r="F32" s="33" t="n"/>
+      <c r="F32" s="24" t="n"/>
       <c r="G32" s="7" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="33" t="n"/>
+      <c r="B33" s="24" t="n"/>
       <c r="C33" s="7" t="n"/>
       <c r="E33" s="5" t="n"/>
-      <c r="F33" s="33" t="n"/>
+      <c r="F33" s="24" t="n"/>
       <c r="G33" s="7" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="33" t="n"/>
+      <c r="B34" s="24" t="n"/>
       <c r="C34" s="7" t="n"/>
       <c r="E34" s="5" t="n"/>
-      <c r="F34" s="33" t="n"/>
+      <c r="F34" s="24" t="n"/>
       <c r="G34" s="7" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n"/>
-      <c r="B35" s="33" t="n"/>
+      <c r="B35" s="24" t="n"/>
       <c r="C35" s="7" t="n"/>
       <c r="E35" s="5" t="n"/>
-      <c r="F35" s="33" t="n"/>
+      <c r="F35" s="24" t="n"/>
       <c r="G35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="33" t="n"/>
+      <c r="B36" s="24" t="n"/>
       <c r="C36" s="7" t="n"/>
       <c r="E36" s="5" t="n"/>
-      <c r="F36" s="33" t="n"/>
+      <c r="F36" s="24" t="n"/>
       <c r="G36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="33" t="n"/>
+      <c r="B37" s="24" t="n"/>
       <c r="C37" s="7" t="n"/>
       <c r="E37" s="5" t="n"/>
-      <c r="F37" s="33" t="n"/>
+      <c r="F37" s="24" t="n"/>
       <c r="G37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="33" t="n"/>
+      <c r="B38" s="24" t="n"/>
       <c r="C38" s="7" t="n"/>
       <c r="E38" s="5" t="n"/>
-      <c r="F38" s="33" t="n"/>
+      <c r="F38" s="24" t="n"/>
       <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="33" t="n"/>
+      <c r="B39" s="24" t="n"/>
       <c r="C39" s="7" t="n"/>
       <c r="E39" s="5" t="n"/>
-      <c r="F39" s="33" t="n"/>
+      <c r="F39" s="24" t="n"/>
       <c r="G39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="33" t="n"/>
+      <c r="B40" s="24" t="n"/>
       <c r="C40" s="7" t="n"/>
       <c r="E40" s="5" t="n"/>
-      <c r="F40" s="33" t="n"/>
+      <c r="F40" s="24" t="n"/>
       <c r="G40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="33" t="n"/>
+      <c r="B41" s="24" t="n"/>
       <c r="C41" s="7" t="n"/>
       <c r="E41" s="5" t="n"/>
-      <c r="F41" s="33" t="n"/>
+      <c r="F41" s="24" t="n"/>
       <c r="G41" s="7" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="33" t="n"/>
+      <c r="B42" s="24" t="n"/>
       <c r="C42" s="7" t="n"/>
       <c r="E42" s="5" t="n"/>
-      <c r="F42" s="33" t="n"/>
+      <c r="F42" s="24" t="n"/>
       <c r="G42" s="7" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n"/>
-      <c r="B43" s="33" t="n"/>
+      <c r="B43" s="24" t="n"/>
       <c r="C43" s="7" t="n"/>
       <c r="E43" s="5" t="n"/>
-      <c r="F43" s="33" t="n"/>
+      <c r="F43" s="24" t="n"/>
       <c r="G43" s="7" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n"/>
-      <c r="B44" s="33" t="n"/>
+      <c r="B44" s="24" t="n"/>
       <c r="C44" s="7" t="n"/>
       <c r="E44" s="5" t="n"/>
-      <c r="F44" s="33" t="n"/>
+      <c r="F44" s="24" t="n"/>
       <c r="G44" s="7" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n"/>
-      <c r="B45" s="33" t="n"/>
+      <c r="B45" s="24" t="n"/>
       <c r="C45" s="7" t="n"/>
       <c r="E45" s="5" t="n"/>
-      <c r="F45" s="33" t="n"/>
+      <c r="F45" s="24" t="n"/>
       <c r="G45" s="7" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n"/>
-      <c r="B46" s="33" t="n"/>
+      <c r="B46" s="24" t="n"/>
       <c r="C46" s="7" t="n"/>
       <c r="E46" s="5" t="n"/>
-      <c r="F46" s="33" t="n"/>
+      <c r="F46" s="24" t="n"/>
       <c r="G46" s="7" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="33" t="n"/>
+      <c r="B47" s="24" t="n"/>
       <c r="C47" s="7" t="n"/>
       <c r="E47" s="5" t="n"/>
-      <c r="F47" s="33" t="n"/>
+      <c r="F47" s="24" t="n"/>
       <c r="G47" s="7" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="33" t="n"/>
+      <c r="B48" s="24" t="n"/>
       <c r="C48" s="7" t="n"/>
       <c r="E48" s="5" t="n"/>
-      <c r="F48" s="33" t="n"/>
+      <c r="F48" s="24" t="n"/>
       <c r="G48" s="7" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n"/>
-      <c r="B49" s="33" t="n"/>
+      <c r="B49" s="24" t="n"/>
       <c r="C49" s="7" t="n"/>
       <c r="E49" s="5" t="n"/>
-      <c r="F49" s="33" t="n"/>
+      <c r="F49" s="24" t="n"/>
       <c r="G49" s="7" t="n"/>
     </row>
     <row r="50">
@@ -3967,15 +4133,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" ht="24.5" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
+    <row r="1" ht="24.5" customHeight="1" s="28">
+      <c r="A1" s="23" t="inlineStr">
         <is>
           <t>Angabepflicht IRO-1 – Beschreibung des Verfahrens zur Ermittlung und Bewertung der wesentlichen Auswirkungen, Risiken und Chancen</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="19" customHeight="1">
-      <c r="A2" s="33" t="inlineStr">
+    <row r="2" ht="19" customHeight="1" s="28">
+      <c r="A2" s="24" t="inlineStr">
         <is>
           <t>1. Das Unternehmen hat sein Verfahren zur Ermittlung seiner Auswirkungen, Risiken und Chancen und zur Bewertung ihrer Wesentlichkeit anzugeben</t>
         </is>

--- a/Ergebnisse_WA.xlsx
+++ b/Ergebnisse_WA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="1" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Übersicht" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Interne Nachhaltigkeitspunkte" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Externe Nachhaltigkeitspunkte" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stakeholder" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vorgehensweise WA (IRO-1)" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -24,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -64,8 +63,15 @@
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -76,12 +82,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -405,10 +405,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -449,12 +450,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -474,57 +507,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -540,10 +528,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center"/>
     </dxf>
@@ -644,6 +638,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center"/>
@@ -797,7 +794,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>20</row>
+      <row>18</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5715000" cy="3810000"/>
@@ -825,7 +822,7 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>4</row>
       <rowOff>0</rowOff>
@@ -855,49 +852,50 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle8" displayName="Tabelle8" ref="A1:E400" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="A1:E400"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="32"/>
-    <tableColumn id="2" name="Thema" dataDxfId="31"/>
-    <tableColumn id="3" name="Unterthema" dataDxfId="30"/>
-    <tableColumn id="4" name="Unter-Unterthema" dataDxfId="29"/>
-    <tableColumn id="5" name="Bewertet" dataDxfId="28"/>
+    <tableColumn id="1" name="ID" dataDxfId="34"/>
+    <tableColumn id="2" name="Thema" dataDxfId="33"/>
+    <tableColumn id="3" name="Unterthema" dataDxfId="32"/>
+    <tableColumn id="4" name="Unter-Unterthema" dataDxfId="31"/>
+    <tableColumn id="5" name="Bewertet" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle3" displayName="Tabelle3" ref="A1:E323" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:E323"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Thema" dataDxfId="27"/>
-    <tableColumn id="2" name="Unterthema" dataDxfId="26"/>
-    <tableColumn id="3" name="Unter-Unterthema" dataDxfId="25"/>
-    <tableColumn id="4" name="Score Finanzen" dataDxfId="24"/>
-    <tableColumn id="5" name="Score Auswirkung" dataDxfId="23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle3" displayName="Tabelle3" ref="A1:F323" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:F323"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Thema" dataDxfId="29"/>
+    <tableColumn id="2" name="Unterthema" dataDxfId="28"/>
+    <tableColumn id="3" name="Unter-Unterthema" dataDxfId="27"/>
+    <tableColumn id="4" name="Score Finanzen" dataDxfId="26"/>
+    <tableColumn id="5" name="Score Auswirkung" dataDxfId="25"/>
+    <tableColumn id="6" name="Stakeholder Wichtigkeit" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" headerRowCount="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle2" displayName="Tabelle2" ref="A1:C30" headerRowCount="1" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:C30"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Referenz" dataDxfId="20"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="19"/>
-    <tableColumn id="3" name="Antwort" dataDxfId="18"/>
+    <tableColumn id="1" name="Referenz" dataDxfId="21"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="20"/>
+    <tableColumn id="3" name="Antwort" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle5" displayName="Tabelle5" ref="A1:C11" headerRowCount="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle5" displayName="Tabelle5" ref="A1:C11" headerRowCount="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
   <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Referenz" dataDxfId="13"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="12"/>
-    <tableColumn id="3" name="Antwort" dataDxfId="11"/>
+    <tableColumn id="1" name="Referenz" dataDxfId="14"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="13"/>
+    <tableColumn id="3" name="Antwort" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -934,24 +932,24 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle1" displayName="Tabelle1" ref="A2:C50" headerRowCount="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle1" displayName="Tabelle1" ref="A2:C50" headerRowCount="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A2:C50"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Platzierung" dataDxfId="8"/>
-    <tableColumn id="2" name="Gruppe" dataDxfId="7"/>
-    <tableColumn id="3" name="Score" dataDxfId="6"/>
+    <tableColumn id="1" name="Platzierung" dataDxfId="9"/>
+    <tableColumn id="2" name="Gruppe" dataDxfId="8"/>
+    <tableColumn id="3" name="Score" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle6" displayName="Tabelle6" ref="E2:G50" headerRowCount="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabelle6" displayName="Tabelle6" ref="E2:G50" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="E2:G50"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Platzierung" dataDxfId="2"/>
-    <tableColumn id="2" name="Gruppe" dataDxfId="1"/>
-    <tableColumn id="3" name="Score" dataDxfId="0"/>
+    <tableColumn id="1" name="Platzierung" dataDxfId="3"/>
+    <tableColumn id="2" name="Gruppe" dataDxfId="2"/>
+    <tableColumn id="3" name="Score" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1281,359 +1279,353 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="138.54296875" bestFit="1" customWidth="1" style="28" min="1" max="1"/>
-    <col width="30.6328125" customWidth="1" style="28" min="2" max="2"/>
-    <col width="21.26953125" customWidth="1" style="28" min="3" max="3"/>
-    <col width="12" customWidth="1" style="28" min="5" max="5"/>
-    <col width="27.90625" customWidth="1" style="28" min="6" max="6"/>
+    <col width="138.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="30.6328125" customWidth="1" min="2" max="2"/>
+    <col width="21.26953125" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="27.90625" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" s="28" thickBot="1" thickTop="1">
-      <c r="A1" s="42" t="inlineStr">
+    <row r="1" ht="29" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A1" s="37" t="inlineStr">
         <is>
           <t xml:space="preserve">                                     Übersicht</t>
         </is>
       </c>
-      <c r="B1" s="43" t="n"/>
-      <c r="C1" s="43" t="n"/>
-      <c r="D1" s="43" t="n"/>
-      <c r="E1" s="43" t="n"/>
-      <c r="F1" s="43" t="n"/>
-      <c r="G1" s="44" t="n"/>
-      <c r="H1" s="16" t="n"/>
-      <c r="I1" s="16" t="n"/>
-      <c r="J1" s="16" t="n"/>
-      <c r="K1" s="16" t="n"/>
-    </row>
-    <row r="2" ht="16.5" customHeight="1" s="28" thickTop="1">
-      <c r="A2" s="39" t="inlineStr">
+      <c r="B1" s="38" t="n"/>
+      <c r="C1" s="38" t="n"/>
+      <c r="D1" s="38" t="n"/>
+      <c r="E1" s="38" t="n"/>
+      <c r="F1" s="38" t="n"/>
+      <c r="G1" s="39" t="n"/>
+      <c r="H1" s="15" t="n"/>
+      <c r="I1" s="15" t="n"/>
+      <c r="J1" s="15" t="n"/>
+      <c r="K1" s="15" t="n"/>
+    </row>
+    <row r="2" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Informationen zur Excel</t>
         </is>
       </c>
-      <c r="B2" s="45" t="inlineStr">
+      <c r="B2" s="40" t="inlineStr">
         <is>
           <t>Aktueller Bearbeitungsstand der Wesentlichkeitsanalyse</t>
         </is>
       </c>
-      <c r="C2" s="46" t="n"/>
-      <c r="D2" s="46" t="n"/>
-      <c r="E2" s="46" t="n"/>
-      <c r="F2" s="46" t="n"/>
-      <c r="G2" s="47" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-    </row>
-    <row r="3" ht="43.5" customHeight="1" s="28">
-      <c r="A3" s="25" t="inlineStr">
+      <c r="C2" s="41" t="n"/>
+      <c r="D2" s="41" t="n"/>
+      <c r="E2" s="41" t="n"/>
+      <c r="F2" s="41" t="n"/>
+      <c r="G2" s="42" t="n"/>
+      <c r="H2" s="14" t="n"/>
+      <c r="I2" s="14" t="n"/>
+      <c r="J2" s="14" t="n"/>
+      <c r="K2" s="14" t="n"/>
+    </row>
+    <row r="3" ht="43.5" customHeight="1">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">In dieser Excel werden die Ergebnisse der durchgeführten Wesentlichkeitsanalyse dargestellt. So werden Registerkarten, die für die ESRS Nachhaltigekeitsberichterstattung erarbeitete Informationen enthalten in grün dargstellt. 
 Informationen, die zur Berichterstattung genutzt werden können allerings primär für unternehmensinterne  Zwecke dient werden in gelb dargestellt. </t>
         </is>
       </c>
-      <c r="B3" s="26" t="inlineStr">
+      <c r="B3" s="17" t="inlineStr">
         <is>
           <t>1. Stakeholder Management</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>✘</t>
+        </is>
+      </c>
+      <c r="G3" s="19" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="n"/>
+      <c r="B4" s="17" t="inlineStr">
+        <is>
+          <t>2. Stakeholder Auswahl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>✘</t>
+        </is>
+      </c>
+      <c r="G4" s="19" t="n"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="24" t="inlineStr">
+        <is>
+          <t>Ablauf der Wesentlichkeitsanalyse:</t>
+        </is>
+      </c>
+      <c r="B5" s="17" t="inlineStr">
+        <is>
+          <t>3. Themenspezifische ESRS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G3" s="30" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="26" t="n"/>
-      <c r="B4" s="26" t="inlineStr">
-        <is>
-          <t>2. Stakeholder Auswahl</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="G5" s="19" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="n"/>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>4. Interne Nachhaltigkeitspunkte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>✘</t>
+        </is>
+      </c>
+      <c r="G6" s="19" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="n"/>
+      <c r="B7" s="17" t="inlineStr">
+        <is>
+          <t>5. Externe Nachhaltigkeitspunkte</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>✔</t>
         </is>
       </c>
-      <c r="G4" s="30" t="n"/>
-    </row>
-    <row r="5" ht="16" customHeight="1" s="28">
-      <c r="A5" s="38" t="inlineStr">
-        <is>
-          <t>Ablauf der Wesentlichkeitsanalyse:</t>
-        </is>
-      </c>
-      <c r="B5" s="26" t="inlineStr">
-        <is>
-          <t>3. Themenspezifische ESRS</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Es fehlen noch 80.6%.</t>
-        </is>
-      </c>
-      <c r="G5" s="30" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="26" t="n"/>
-      <c r="B6" s="26" t="inlineStr">
-        <is>
-          <t>4. Interne Nachhaltigkeitspunkte</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="G7" s="19" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="n"/>
+      <c r="B8" s="17" t="inlineStr">
+        <is>
+          <t>6. Bewertung der Longlist</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Es fehlen noch 98%.</t>
+        </is>
+      </c>
+      <c r="G8" s="19" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="n"/>
+      <c r="B9" s="17" t="inlineStr">
+        <is>
+          <t>7. Shortlist</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>✘</t>
         </is>
       </c>
-      <c r="G6" s="30" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="26" t="n"/>
-      <c r="B7" s="26" t="inlineStr">
-        <is>
-          <t>5. Externe Nachhaltigkeitspunkte</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Es fehlt noch 1 Stakeholder.</t>
-        </is>
-      </c>
-      <c r="G7" s="30" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="26" t="n"/>
-      <c r="B8" s="26" t="inlineStr">
-        <is>
-          <t>6. Bewertung der Longlist</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Es fehlen noch 88%.</t>
-        </is>
-      </c>
-      <c r="G8" s="30" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="26" t="n"/>
-      <c r="B9" s="26" t="inlineStr">
-        <is>
-          <t>7. Shortlist</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>✘</t>
-        </is>
-      </c>
-      <c r="G9" s="30" t="n"/>
+      <c r="G9" s="19" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="26" t="n"/>
-      <c r="B10" s="26" t="n"/>
-      <c r="G10" s="30" t="n"/>
+      <c r="A10" s="17" t="n"/>
+      <c r="B10" s="17" t="n"/>
+      <c r="G10" s="19" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="26" t="n"/>
-      <c r="B11" s="26" t="inlineStr">
+      <c r="A11" s="17" t="n"/>
+      <c r="B11" s="17" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS:</t>
         </is>
       </c>
-      <c r="C11" s="29" t="n">
-        <v>18</v>
-      </c>
-      <c r="D11" s="29" t="inlineStr">
+      <c r="C11" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">von </t>
         </is>
       </c>
-      <c r="E11" s="29" t="n">
+      <c r="E11" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="F11" s="29" t="n"/>
-      <c r="G11" s="30" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="19" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="26" t="n"/>
-      <c r="B12" s="26" t="inlineStr">
+      <c r="A12" s="17" t="n"/>
+      <c r="B12" s="17" t="inlineStr">
         <is>
           <t>Es fehlen:</t>
         </is>
       </c>
-      <c r="C12" s="29" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" s="29" t="n"/>
-      <c r="E12" s="29" t="n"/>
-      <c r="F12" s="29" t="n"/>
-      <c r="G12" s="30" t="n"/>
+      <c r="C12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="19" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="26" t="n"/>
-      <c r="B13" s="26" t="n"/>
-      <c r="C13" s="29" t="n"/>
-      <c r="D13" s="29" t="n"/>
-      <c r="E13" s="29" t="n"/>
-      <c r="F13" s="29" t="n"/>
-      <c r="G13" s="30" t="n"/>
+      <c r="A13" s="17" t="n"/>
+      <c r="B13" s="17" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="19" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="n"/>
-      <c r="B14" s="26" t="inlineStr">
+      <c r="A14" s="17" t="n"/>
+      <c r="B14" s="17" t="inlineStr">
         <is>
           <t>Anzahl Punkte in der Longlist:</t>
         </is>
       </c>
-      <c r="C14" s="29" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" s="29" t="n"/>
-      <c r="E14" s="29" t="n"/>
-      <c r="F14" s="29" t="n"/>
-      <c r="G14" s="30" t="n"/>
+      <c r="C14" s="4" t="n">
+        <v>94</v>
+      </c>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="19" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="26" t="n"/>
-      <c r="B15" s="26" t="inlineStr">
+      <c r="A15" s="17" t="n"/>
+      <c r="B15" s="17" t="inlineStr">
         <is>
           <t>davon bewertet:</t>
         </is>
       </c>
-      <c r="C15" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="29" t="inlineStr">
-        <is>
-          <t>von</t>
-        </is>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22</v>
-      </c>
-      <c r="F15" s="29" t="n"/>
-      <c r="G15" s="30" t="n"/>
+      <c r="C15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="26" t="n"/>
-      <c r="B16" s="26" t="n"/>
-      <c r="C16" s="29" t="n"/>
-      <c r="D16" s="29" t="n"/>
-      <c r="E16" s="29" t="n"/>
-      <c r="F16" s="29" t="n"/>
-      <c r="G16" s="30" t="n"/>
+      <c r="A16" s="17" t="n"/>
+      <c r="B16" s="17" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="19" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="26" t="n"/>
-      <c r="B17" s="26" t="inlineStr">
+      <c r="A17" s="17" t="n"/>
+      <c r="B17" s="17" t="inlineStr">
         <is>
           <t>Anzahl Punkte in der Shortlist</t>
         </is>
       </c>
-      <c r="C17" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="29" t="n"/>
-      <c r="E17" s="29" t="n"/>
-      <c r="F17" s="29" t="n"/>
-      <c r="G17" s="30" t="n"/>
+      <c r="C17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="19" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="26" t="n"/>
-      <c r="B18" s="26" t="n"/>
-      <c r="G18" s="30" t="n"/>
+      <c r="A18" s="17" t="n"/>
+      <c r="B18" s="17" t="n"/>
+      <c r="G18" s="19" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="26" t="n"/>
-      <c r="B19" s="26" t="n"/>
-      <c r="G19" s="30" t="n"/>
+      <c r="A19" s="17" t="n"/>
+      <c r="B19" s="17" t="n"/>
+      <c r="G19" s="19" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="26" t="n"/>
-      <c r="B20" s="26" t="n"/>
-      <c r="G20" s="30" t="n"/>
-    </row>
-    <row r="21" ht="38" customHeight="1" s="28">
-      <c r="A21" s="25" t="inlineStr">
+      <c r="A20" s="17" t="n"/>
+      <c r="B20" s="17" t="n"/>
+      <c r="G20" s="19" t="n"/>
+    </row>
+    <row r="21" ht="38" customHeight="1">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>1. Stakeholder Managament: Hinzufügen und Verwalten von Stakeholder. Hinzufügen von Eigenschaften, um das Stakeholder Ranking zu erstellen. 
 Dies kann als Orientierung zur Festlegung der Stakeholder Relvenaz genutzt werden.</t>
         </is>
       </c>
-      <c r="B21" s="26" t="n"/>
-      <c r="G21" s="30" t="n"/>
-    </row>
-    <row r="22" ht="30" customHeight="1" s="28">
-      <c r="A22" s="25" t="inlineStr">
+      <c r="B21" s="17" t="n"/>
+      <c r="G21" s="19" t="n"/>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="16" t="inlineStr">
         <is>
           <t>2. Stakeholder Auswahl: Hier werden die Stakeholder ausgewählt, welche in die Bewertung mit aufgenommen werden sollen.
 Zudem werden "Stille Stakeholder" aussortiert.</t>
         </is>
       </c>
-      <c r="B22" s="26" t="n"/>
-      <c r="G22" s="30" t="n"/>
-    </row>
-    <row r="23" ht="33.5" customHeight="1" s="28">
-      <c r="A23" s="25" t="inlineStr">
+      <c r="B22" s="17" t="n"/>
+      <c r="G22" s="19" t="n"/>
+    </row>
+    <row r="23" ht="33.5" customHeight="1">
+      <c r="A23" s="16" t="inlineStr">
         <is>
           <t>3. Themenspezifische ESRS: Kein offiziell vorgegebener Schritt in der ESRS. Dient zur vorabauswahl von potenziell wesentlichen IROs anahnd der Themenfelder der themenspezifischen ESRS. Punkte, die hier als relevant markiert werden, werden später bewertet.</t>
         </is>
       </c>
-      <c r="B23" s="26" t="n"/>
-      <c r="G23" s="30" t="n"/>
-    </row>
-    <row r="24" ht="20" customHeight="1" s="28">
-      <c r="A24" s="25" t="inlineStr">
+      <c r="B23" s="17" t="n"/>
+      <c r="G23" s="19" t="n"/>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="16" t="inlineStr">
         <is>
           <t>4. Interne Nachhatigkeitspunkte: Hier fügt das Unternehemen, welches die WA durchführt eigene potenzielle IROs hinzu.</t>
         </is>
       </c>
-      <c r="B24" s="26" t="n"/>
-      <c r="G24" s="30" t="n"/>
-    </row>
-    <row r="25" ht="76" customHeight="1" s="28">
-      <c r="A25" s="25" t="inlineStr">
+      <c r="B24" s="17" t="n"/>
+      <c r="G24" s="19" t="n"/>
+    </row>
+    <row r="25" ht="76" customHeight="1">
+      <c r="A25" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">5. Exerne Nachhaltigkeitspunkte: Hier werden die potenziellen IROs, der in Schritt 2 ausgewählten Stakeholder hinzugefügt. Dabei wird den Stakeholder eine Excel-Datei zugeschickt, welche sowohl die IROs aus Schritt 4 der internen Untersuchung beinhalten als auch die Punkte der themenspzifischen ESRS. Zudem können Stakholder eigene IROs, die noch nihct abgedeckt sind hinzufügen. Es ist anzumerken das die Stakeholder die vollständige Liste der themenspezifische ESRS erhalten und nicht die vorsortierte aus Schritt 1. All diese Punkte werden zusätzlich anahnd von 4 Stufen von den Stakeholder bewerten. Werden die Excel Listen hochgeladen, werden diese in einer Liste vereint. </t>
         </is>
       </c>
-      <c r="B25" s="26" t="n"/>
-      <c r="G25" s="30" t="n"/>
-    </row>
-    <row r="26" ht="34.5" customHeight="1" s="28">
-      <c r="A26" s="25" t="inlineStr">
+      <c r="B25" s="17" t="n"/>
+      <c r="G25" s="19" t="n"/>
+    </row>
+    <row r="26" ht="34.5" customHeight="1">
+      <c r="A26" s="16" t="inlineStr">
         <is>
           <t>6. Bewertung der Longlist: Hier befinden sich alle potnziellen IROs aus Schritt 3, 4 und 5. Die Bewertung erfolgt anahnd der auswirkungsbezogenen und der finaziellen Wesentlichkeit, wobei das Minimum für jede Wesentlichkeitsdimension der Wert 0 ist und das Maximum 1000.</t>
         </is>
       </c>
-      <c r="B26" s="26" t="n"/>
-      <c r="G26" s="30" t="n"/>
-    </row>
-    <row r="27" ht="50.5" customHeight="1" s="28" thickBot="1">
-      <c r="A27" s="27" t="inlineStr">
+      <c r="B26" s="17" t="n"/>
+      <c r="G26" s="19" t="n"/>
+    </row>
+    <row r="27" ht="50.5" customHeight="1" thickBot="1">
+      <c r="A27" s="18" t="inlineStr">
         <is>
           <t>7. Erstellung der Shortlist: Hier werden alle bewerteten IROs in einer Wesentlichkeitsmatrix angezeigt. Das Unternehemn legt sowohl einen Schwellenwert für die Wesentlichkeit fest als auch für die Stakeholder Wichtigkeit. Punkte die eine der beiden Grenzen überschreiten gelten als wensetlich und werden in die SHortlist übernommen. Die Shortlist enthält alle wesentlichen IROs, die das Unternehmen im Rahmen der Wesentlichkeitsanalyse identifiziert hat.</t>
         </is>
       </c>
-      <c r="B27" s="31" t="n"/>
-      <c r="C27" s="32" t="n"/>
-      <c r="D27" s="32" t="n"/>
-      <c r="E27" s="32" t="n"/>
-      <c r="F27" s="32" t="n"/>
-      <c r="G27" s="33" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="28" thickTop="1"/>
+      <c r="B27" s="20" t="n"/>
+      <c r="C27" s="21" t="n"/>
+      <c r="D27" s="21" t="n"/>
+      <c r="E27" s="21" t="n"/>
+      <c r="F27" s="21" t="n"/>
+      <c r="G27" s="22" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
@@ -1651,7 +1643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -1659,33 +1651,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="10.54296875" customWidth="1" style="24" min="1" max="1"/>
-    <col width="70.6328125" customWidth="1" style="24" min="2" max="4"/>
-    <col width="15.7265625" customWidth="1" style="24" min="5" max="5"/>
+    <col width="10.54296875" customWidth="1" style="6" min="1" max="1"/>
+    <col width="70.6328125" customWidth="1" style="6" min="2" max="4"/>
+    <col width="15.7265625" customWidth="1" style="6" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="24" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="C1" s="24" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="24" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="E1" s="24" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Bewertet</t>
         </is>
@@ -1697,22 +1689,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biodiversität</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+          <t>Arbeitsbedingungen</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Direkte Ausbeutung</t>
+          <t>Angemessene Entlohnung</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nein</t>
         </is>
       </c>
     </row>
@@ -1722,22 +1714,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biodiversität</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+          <t>Arbeitsbedingungen</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Klimawandel</t>
+          <t>Arbeitszeit</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nein</t>
         </is>
       </c>
     </row>
@@ -1747,17 +1739,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biodiversität</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+          <t>Arbeitsbedingungen</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Land- Süßwasser- und Meeresnutzungsänderungen</t>
+          <t>Gesundheitsschutz und Sicherheit</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1772,7 +1764,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eigene Belegschaft</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1782,7 +1774,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tarifverhandlungen, einschließlich der Quote der durch Tarifverträge abgedeckten Arbeitskräften</t>
+          <t>Sichere Beschäftigung</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1797,7 +1789,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eigene Belegschaft</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1807,7 +1799,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vereinbarkeit von Berufs- und Privatleben</t>
+          <t>Sozialer Dialog</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1822,17 +1814,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Eigene Belegschaft</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+          <t>Arbeitsbedingungen</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Beschäftigung und Inklusion von Menschen mit Behinderungen</t>
+          <t>Tarifverhandlungen, einschließlich der Quote der durch Tarifverträge abgedeckten Arbeitskräften</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1847,15 +1839,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Klimawandel</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Anpassung an den Klimawandel</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Vereinbarkeit von Berufs- und Privatleben</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Nein</t>
@@ -1868,17 +1864,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Klimawandel</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Anpassung an den Klimawandel</t>
+          <t>Arbeitsbedingungen</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mitarbeiter</t>
+          <t>Vereinigungsfreiheit, Existenz von Betriebsräten und Rechte der Arbeitnehmer auf Information, Anhörung und Mitbestimmung</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1893,15 +1889,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Klimawandel</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Energie</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Beschäftigung und Inklusion von Menschen mit Behinderungen</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Nein</t>
@@ -1914,18 +1914,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Klimawandel</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Klimaschutz</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Gleichstellung der Geschlechter und gleicher Lohn für gleiche Arbeit</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Nein</t>
         </is>
       </c>
     </row>
@@ -1935,15 +1939,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Umweltverschmutzung</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Besorgniserregende Stoffe</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Maßnahmen gegen Gewalt und Belästigung am Arbeitsplatz</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Nein</t>
@@ -1956,15 +1964,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Umweltverschmutzung</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bodenverschmutzung</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Schulungen und Kompetenzentwicklung</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Nein</t>
@@ -1977,15 +1989,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Umweltverschmutzung</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Luftverschmutzung</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Vielfalt</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Nein</t>
@@ -1998,15 +2014,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Umweltverschmutzung</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Verschmutzung von lebenden Organismen und Nahrungsressourcen</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Angemessene Unterbringung</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Nein</t>
@@ -2019,15 +2039,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Umweltverschmutzung</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wasserverschmutzung</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Datenschutz</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Nein</t>
@@ -2040,17 +2064,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Verbraucher und Endnutzer</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Informationsbezogene Auswirkungen für Verbraucher und Endnutzer</t>
+          <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Datenschutz</t>
+          <t>Kinderarbeit</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2065,17 +2089,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Verbraucher und Endnutzer</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Informationsbezogene Auswirkungen für Verbraucher und Endnutzer</t>
+          <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Meinungsfreiheit</t>
+          <t>Wasser- und Sanitäreinrichtungen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2090,17 +2114,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Verbraucher und Endnutzer</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Informationsbezogene Auswirkungen für Verbraucher und Endnutzer</t>
+          <t>Sonstige arbeitsbezogene Rechte</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Zugang zu (hochwertigen) Informationen</t>
+          <t>Zwangsarbeit</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2115,17 +2139,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Verbraucher und Endnutzer</t>
+          <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Persönliche Sicherheit von Verbrauchern und Endnutzern</t>
+          <t>Bürgerrechte und politische Rechte von Gemeinschaften</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gesundheitsschutz und Sicherheit</t>
+          <t>Auswirkungen auf Menschenrechtsverteidiger</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2140,17 +2164,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Verbraucher und Endnutzer</t>
+          <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Persönliche Sicherheit von Verbrauchern und Endnutzern</t>
+          <t>Bürgerrechte und politische Rechte von Gemeinschaften</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kinderschutz</t>
+          <t>Meinungsfreiheit</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2165,17 +2189,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Verbraucher und Endnutzer</t>
+          <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Persönliche Sicherheit von Verbrauchern und Endnutzern</t>
+          <t>Bürgerrechte und politische Rechte von Gemeinschaften</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Persönliche Sicherheit</t>
+          <t>Versammlungsfreiheit</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2190,17 +2214,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Verbraucher und Endnutzer</t>
+          <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Soziale Inklusion von Verbrauchern und Endnutzern</t>
+          <t>Rechte indigener Völker</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nichtdiskriminierung</t>
+          <t>Freiwillige und in Kenntnis der Sachlage erteilte vorherige Zustimmung</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2215,17 +2239,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Verbraucher und Endnutzer</t>
+          <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Soziale Inklusion von Verbrauchern und Endnutzern</t>
+          <t>Rechte indigener Völker</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Verantwortliche Vermarktungspraktiken</t>
+          <t>Kulturelle Rechte</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2240,17 +2264,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Verbraucher und Endnutzer</t>
+          <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Soziale Inklusion von Verbrauchern und Endnutzern</t>
+          <t>Rechte indigener Völker</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Zugang zu Produkten und Dienstleistungen</t>
+          <t>Selbstbestimmung</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2265,20 +2289,1645 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>noch</t>
+          <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>neue</t>
+          <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Punkte</t>
+          <t>Angemessene Ernährung</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Angemessene Unterbringung</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Bodenbezogene Auswirkungen</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sicherheitsbezogene Auswirkungen</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wasser- und Sanitäreinrichtungen</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Auswirkungen auf den Umfang und den Zustand von Ökosystemen</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Bodenversiegelung</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Auswirkungen auf den Umfang und den Zustand von Ökosystemen</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Landdegradation</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Auswirkungen auf den Umfang und den Zustand von Ökosystemen</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wüstenbildung</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Auswirkungen auf den Zustand der Arten</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Globales Ausrottungsrisiko von Arten</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Auswirkungen auf den Zustand der Arten</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Populationsgröße von Arten</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Auswirkungen und Abhängigkeiten von Ökosystemdienstleistungen</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Auswirkungen und Abhängigkeiten von Ökosystemdienstleistungen</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Direkte Ausbeutung</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Invasive gebietsfremde Arten</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Land-, Süßwasser- und Meeresnutzungsänderungen</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sonstige</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Angemessene Entlohnung</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Arbeitszeit</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Gesundheitsschutz und Sicherheit</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sichere Beschäftigung</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sozialer Dialog</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tarifverhandlungen, einschließlich der Quote der durch Tarifverträge abgedeckten Arbeitskräften</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Vereinbarkeit von Berufs- und Privatleben</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Vereinigungsfreiheit, Existenz von Betriebsräten und Rechte der Arbeitnehmer auf Information, Anhörung und Mitbestimmung</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Beschäftigung und Inklusion von Menschen mit Behinderungen</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Gleichstellung der Geschlechter und gleicher Lohn für gleiche Arbeit</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Maßnahmen gegen Gewalt und Belästigung am Arbeitsplatz</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Schulungen und Kompetenzentwicklung</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Vielfalt</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Angemessene Unterbringung</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Datenschutz</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Kinderarbeit</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wasser- und Sanitäreinrichtungen</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Zwangsarbeit</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>94</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Energie</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Klimaschutz</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Kreislaufwirtschaft</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Abfälle</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Kreislaufwirtschaft</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ressourcenabflüsse im Zusammenhang mit Produkten und Dienstleistungen</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Kreislaufwirtschaft</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ressourcenzuflüsse, einschließlich Ressourcennutzung</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Besonders besorgniserregende Stoffe</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Besorgniserregende Stoffe</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Bodenverschmutzung</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Luftverschmutzung</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Mikroplastik</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Verschmutzung von lebenden Organismen und Nahrungsressourcen</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Wasserverschmutzung</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Management der Beziehungen zu Lieferanten, einschließlich Zahlungspraktiken</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Politisches Engagement und Lobbytätigkeiten</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Schutz von Hinweisgebern (Whistleblowers)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Tierschutz</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Unternehmenskultur</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Vermeidung und Aufdeckung einschließlich Schulung</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Vorkomnisse</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Informationsbezogene Auswirkungen für Verbraucher und/oder Endnutzer</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Datenschutz</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Informationsbezogene Auswirkungen für Verbraucher und/oder Endnutzer</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Meinungsfreiheit</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Informationsbezogene Auswirkungen für Verbraucher und/oder Endnutzer</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Zugang zu (hochwertigen) Informationen</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Persönliche Sicherheit von Verbrauchern und/oder Endnutzern</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Gesundheitsschutz und Sicherheit</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Persönliche Sicherheit von Verbrauchern und/oder Endnutzern</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Kinderschutz</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Persönliche Sicherheit von Verbrauchern und/oder Endnutzern</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Persönliche Sicherheit</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Soziale Inklusion von Verbrauchern und/oder Endnutzern</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Nichtdiskriminierung</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Soziale Inklusion von Verbrauchern und/oder Endnutzern</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Verantwortliche Vermarktungspraktiken</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Soziale Inklusion von Verbrauchern und/oder Endnutzern</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Zugang zu Produkten und Dienstleistungen</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Wasser- und Meeresressourcen</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ableitung von Wasser</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Wasser- und Meeresressourcen</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ableitung von Wasser in die Ozeane</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Wasser- und Meeresressourcen</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Gewinnung und Nutzung von Meeresressourcen</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Wasser- und Meeresressourcen</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Wasserentnahme</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Wasser- und Meeresressourcen</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Wasserverbrauch</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>Nein</t>
         </is>
@@ -2299,52 +3948,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L323"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="50.6328125" customWidth="1" style="24" min="1" max="3"/>
-    <col width="16.1796875" bestFit="1" customWidth="1" style="24" min="4" max="4"/>
-    <col width="18.54296875" bestFit="1" customWidth="1" style="24" min="5" max="5"/>
+    <col width="50.6328125" customWidth="1" style="6" min="1" max="3"/>
+    <col width="16.1796875" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="18.54296875" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
+    <col width="24.90625" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Thema</t>
         </is>
       </c>
-      <c r="B1" s="24" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Unterthema</t>
         </is>
       </c>
-      <c r="C1" s="24" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Unter-Unterthema</t>
         </is>
       </c>
-      <c r="D1" s="24" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Score Finanzen</t>
         </is>
       </c>
-      <c r="E1" s="24" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Score Auswirkung</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Stakeholder Wichtigkeit</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
         <is>
           <t>Schwellenwert für wesentliche Themen:</t>
         </is>
       </c>
-      <c r="K1" t="n">
-        <v>250</v>
+      <c r="L1" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="2">
@@ -2360,72 +4015,1001 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Direkte Ausbeutung</t>
+          <t>Invasive gebietsfremde Arten</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E2" t="n">
-        <v>555.6</v>
-      </c>
-      <c r="G2" t="inlineStr">
+        <v>388.9</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Schwellenwert für Stakeholder Wichtigkeit:</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>500</v>
+      <c r="L2" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Biodiversität</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Klimawandel</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>500</v>
-      </c>
-      <c r="E3" t="n">
-        <v>458.3</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="F3" s="6" t="n"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Wesentlichkeitsmatrix der Shortlist:</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Klimawandel</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Klimaschutz</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>333.3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>333.3</v>
-      </c>
+      <c r="F4" s="6" t="n"/>
+    </row>
+    <row r="5">
+      <c r="F5" s="6" t="n"/>
+    </row>
+    <row r="6">
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="F7" s="6" t="n"/>
+    </row>
+    <row r="8">
+      <c r="F8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="F9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="F10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="F11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="F12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="F13" s="6" t="n"/>
+    </row>
+    <row r="14">
+      <c r="F14" s="6" t="n"/>
+    </row>
+    <row r="15">
+      <c r="F15" s="6" t="n"/>
+    </row>
+    <row r="16">
+      <c r="F16" s="6" t="n"/>
+    </row>
+    <row r="17">
+      <c r="F17" s="6" t="n"/>
+    </row>
+    <row r="18">
+      <c r="F18" s="6" t="n"/>
+    </row>
+    <row r="19">
+      <c r="F19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="F20" s="6" t="n"/>
+    </row>
+    <row r="21">
+      <c r="F21" s="6" t="n"/>
+    </row>
+    <row r="22">
+      <c r="F22" s="6" t="n"/>
+    </row>
+    <row r="23">
+      <c r="F23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="F24" s="6" t="n"/>
+    </row>
+    <row r="25">
+      <c r="F25" s="6" t="n"/>
+    </row>
+    <row r="26">
+      <c r="F26" s="6" t="n"/>
+    </row>
+    <row r="27">
+      <c r="F27" s="6" t="n"/>
+    </row>
+    <row r="28">
+      <c r="F28" s="6" t="n"/>
+    </row>
+    <row r="29">
+      <c r="F29" s="6" t="n"/>
+    </row>
+    <row r="30">
+      <c r="F30" s="6" t="n"/>
+    </row>
+    <row r="31">
+      <c r="F31" s="6" t="n"/>
+    </row>
+    <row r="32">
+      <c r="F32" s="6" t="n"/>
+    </row>
+    <row r="33">
+      <c r="F33" s="6" t="n"/>
+    </row>
+    <row r="34">
+      <c r="F34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="F35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="F36" s="6" t="n"/>
+    </row>
+    <row r="37">
+      <c r="F37" s="6" t="n"/>
+    </row>
+    <row r="38">
+      <c r="F38" s="6" t="n"/>
+    </row>
+    <row r="39">
+      <c r="F39" s="6" t="n"/>
+    </row>
+    <row r="40">
+      <c r="F40" s="6" t="n"/>
+    </row>
+    <row r="41">
+      <c r="F41" s="6" t="n"/>
+    </row>
+    <row r="42">
+      <c r="F42" s="6" t="n"/>
+    </row>
+    <row r="43">
+      <c r="F43" s="6" t="n"/>
+    </row>
+    <row r="44">
+      <c r="F44" s="6" t="n"/>
+    </row>
+    <row r="45">
+      <c r="F45" s="6" t="n"/>
+    </row>
+    <row r="46">
+      <c r="F46" s="6" t="n"/>
+    </row>
+    <row r="47">
+      <c r="F47" s="6" t="n"/>
+    </row>
+    <row r="48">
+      <c r="F48" s="6" t="n"/>
+    </row>
+    <row r="49">
+      <c r="F49" s="6" t="n"/>
+    </row>
+    <row r="50">
+      <c r="F50" s="6" t="n"/>
+    </row>
+    <row r="51">
+      <c r="F51" s="6" t="n"/>
+    </row>
+    <row r="52">
+      <c r="F52" s="6" t="n"/>
+    </row>
+    <row r="53">
+      <c r="F53" s="6" t="n"/>
+    </row>
+    <row r="54">
+      <c r="F54" s="6" t="n"/>
+    </row>
+    <row r="55">
+      <c r="F55" s="6" t="n"/>
+    </row>
+    <row r="56">
+      <c r="F56" s="6" t="n"/>
+    </row>
+    <row r="57">
+      <c r="F57" s="6" t="n"/>
+    </row>
+    <row r="58">
+      <c r="F58" s="6" t="n"/>
+    </row>
+    <row r="59">
+      <c r="F59" s="6" t="n"/>
+    </row>
+    <row r="60">
+      <c r="F60" s="6" t="n"/>
+    </row>
+    <row r="61">
+      <c r="F61" s="6" t="n"/>
+    </row>
+    <row r="62">
+      <c r="F62" s="6" t="n"/>
+    </row>
+    <row r="63">
+      <c r="F63" s="6" t="n"/>
+    </row>
+    <row r="64">
+      <c r="F64" s="6" t="n"/>
+    </row>
+    <row r="65">
+      <c r="F65" s="6" t="n"/>
+    </row>
+    <row r="66">
+      <c r="F66" s="6" t="n"/>
+    </row>
+    <row r="67">
+      <c r="F67" s="6" t="n"/>
+    </row>
+    <row r="68">
+      <c r="F68" s="6" t="n"/>
+    </row>
+    <row r="69">
+      <c r="F69" s="6" t="n"/>
+    </row>
+    <row r="70">
+      <c r="F70" s="6" t="n"/>
+    </row>
+    <row r="71">
+      <c r="F71" s="6" t="n"/>
+    </row>
+    <row r="72">
+      <c r="F72" s="6" t="n"/>
+    </row>
+    <row r="73">
+      <c r="F73" s="6" t="n"/>
+    </row>
+    <row r="74">
+      <c r="F74" s="6" t="n"/>
+    </row>
+    <row r="75">
+      <c r="F75" s="6" t="n"/>
+    </row>
+    <row r="76">
+      <c r="F76" s="6" t="n"/>
+    </row>
+    <row r="77">
+      <c r="F77" s="6" t="n"/>
+    </row>
+    <row r="78">
+      <c r="F78" s="6" t="n"/>
+    </row>
+    <row r="79">
+      <c r="F79" s="6" t="n"/>
+    </row>
+    <row r="80">
+      <c r="F80" s="6" t="n"/>
+    </row>
+    <row r="81">
+      <c r="F81" s="6" t="n"/>
+    </row>
+    <row r="82">
+      <c r="F82" s="6" t="n"/>
+    </row>
+    <row r="83">
+      <c r="F83" s="6" t="n"/>
+    </row>
+    <row r="84">
+      <c r="F84" s="6" t="n"/>
+    </row>
+    <row r="85">
+      <c r="F85" s="6" t="n"/>
+    </row>
+    <row r="86">
+      <c r="F86" s="6" t="n"/>
+    </row>
+    <row r="87">
+      <c r="F87" s="6" t="n"/>
+    </row>
+    <row r="88">
+      <c r="F88" s="6" t="n"/>
+    </row>
+    <row r="89">
+      <c r="F89" s="6" t="n"/>
+    </row>
+    <row r="90">
+      <c r="F90" s="6" t="n"/>
+    </row>
+    <row r="91">
+      <c r="F91" s="6" t="n"/>
+    </row>
+    <row r="92">
+      <c r="F92" s="6" t="n"/>
+    </row>
+    <row r="93">
+      <c r="F93" s="6" t="n"/>
+    </row>
+    <row r="94">
+      <c r="F94" s="6" t="n"/>
+    </row>
+    <row r="95">
+      <c r="F95" s="6" t="n"/>
+    </row>
+    <row r="96">
+      <c r="F96" s="6" t="n"/>
+    </row>
+    <row r="97">
+      <c r="F97" s="6" t="n"/>
+    </row>
+    <row r="98">
+      <c r="F98" s="6" t="n"/>
+    </row>
+    <row r="99">
+      <c r="F99" s="6" t="n"/>
+    </row>
+    <row r="100">
+      <c r="F100" s="6" t="n"/>
+    </row>
+    <row r="101">
+      <c r="F101" s="6" t="n"/>
+    </row>
+    <row r="102">
+      <c r="F102" s="6" t="n"/>
+    </row>
+    <row r="103">
+      <c r="F103" s="6" t="n"/>
+    </row>
+    <row r="104">
+      <c r="F104" s="6" t="n"/>
+    </row>
+    <row r="105">
+      <c r="F105" s="6" t="n"/>
+    </row>
+    <row r="106">
+      <c r="F106" s="6" t="n"/>
+    </row>
+    <row r="107">
+      <c r="F107" s="6" t="n"/>
+    </row>
+    <row r="108">
+      <c r="F108" s="6" t="n"/>
+    </row>
+    <row r="109">
+      <c r="F109" s="6" t="n"/>
+    </row>
+    <row r="110">
+      <c r="F110" s="6" t="n"/>
+    </row>
+    <row r="111">
+      <c r="F111" s="6" t="n"/>
+    </row>
+    <row r="112">
+      <c r="F112" s="6" t="n"/>
+    </row>
+    <row r="113">
+      <c r="F113" s="6" t="n"/>
+    </row>
+    <row r="114">
+      <c r="F114" s="6" t="n"/>
+    </row>
+    <row r="115">
+      <c r="F115" s="6" t="n"/>
+    </row>
+    <row r="116">
+      <c r="F116" s="6" t="n"/>
+    </row>
+    <row r="117">
+      <c r="F117" s="6" t="n"/>
+    </row>
+    <row r="118">
+      <c r="F118" s="6" t="n"/>
+    </row>
+    <row r="119">
+      <c r="F119" s="6" t="n"/>
+    </row>
+    <row r="120">
+      <c r="F120" s="6" t="n"/>
+    </row>
+    <row r="121">
+      <c r="F121" s="6" t="n"/>
+    </row>
+    <row r="122">
+      <c r="F122" s="6" t="n"/>
+    </row>
+    <row r="123">
+      <c r="F123" s="6" t="n"/>
+    </row>
+    <row r="124">
+      <c r="F124" s="6" t="n"/>
+    </row>
+    <row r="125">
+      <c r="F125" s="6" t="n"/>
+    </row>
+    <row r="126">
+      <c r="F126" s="6" t="n"/>
+    </row>
+    <row r="127">
+      <c r="F127" s="6" t="n"/>
+    </row>
+    <row r="128">
+      <c r="F128" s="6" t="n"/>
+    </row>
+    <row r="129">
+      <c r="F129" s="6" t="n"/>
+    </row>
+    <row r="130">
+      <c r="F130" s="6" t="n"/>
+    </row>
+    <row r="131">
+      <c r="F131" s="6" t="n"/>
+    </row>
+    <row r="132">
+      <c r="F132" s="6" t="n"/>
+    </row>
+    <row r="133">
+      <c r="F133" s="6" t="n"/>
+    </row>
+    <row r="134">
+      <c r="F134" s="6" t="n"/>
+    </row>
+    <row r="135">
+      <c r="F135" s="6" t="n"/>
+    </row>
+    <row r="136">
+      <c r="F136" s="6" t="n"/>
+    </row>
+    <row r="137">
+      <c r="F137" s="6" t="n"/>
+    </row>
+    <row r="138">
+      <c r="F138" s="6" t="n"/>
+    </row>
+    <row r="139">
+      <c r="F139" s="6" t="n"/>
+    </row>
+    <row r="140">
+      <c r="F140" s="6" t="n"/>
+    </row>
+    <row r="141">
+      <c r="F141" s="6" t="n"/>
+    </row>
+    <row r="142">
+      <c r="F142" s="6" t="n"/>
+    </row>
+    <row r="143">
+      <c r="F143" s="6" t="n"/>
+    </row>
+    <row r="144">
+      <c r="F144" s="6" t="n"/>
+    </row>
+    <row r="145">
+      <c r="F145" s="6" t="n"/>
+    </row>
+    <row r="146">
+      <c r="F146" s="6" t="n"/>
+    </row>
+    <row r="147">
+      <c r="F147" s="6" t="n"/>
+    </row>
+    <row r="148">
+      <c r="F148" s="6" t="n"/>
+    </row>
+    <row r="149">
+      <c r="F149" s="6" t="n"/>
+    </row>
+    <row r="150">
+      <c r="F150" s="6" t="n"/>
+    </row>
+    <row r="151">
+      <c r="F151" s="6" t="n"/>
+    </row>
+    <row r="152">
+      <c r="F152" s="6" t="n"/>
+    </row>
+    <row r="153">
+      <c r="F153" s="6" t="n"/>
+    </row>
+    <row r="154">
+      <c r="F154" s="6" t="n"/>
+    </row>
+    <row r="155">
+      <c r="F155" s="6" t="n"/>
+    </row>
+    <row r="156">
+      <c r="F156" s="6" t="n"/>
+    </row>
+    <row r="157">
+      <c r="F157" s="6" t="n"/>
+    </row>
+    <row r="158">
+      <c r="F158" s="6" t="n"/>
+    </row>
+    <row r="159">
+      <c r="F159" s="6" t="n"/>
+    </row>
+    <row r="160">
+      <c r="F160" s="6" t="n"/>
+    </row>
+    <row r="161">
+      <c r="F161" s="6" t="n"/>
+    </row>
+    <row r="162">
+      <c r="F162" s="6" t="n"/>
+    </row>
+    <row r="163">
+      <c r="F163" s="6" t="n"/>
+    </row>
+    <row r="164">
+      <c r="F164" s="6" t="n"/>
+    </row>
+    <row r="165">
+      <c r="F165" s="6" t="n"/>
+    </row>
+    <row r="166">
+      <c r="F166" s="6" t="n"/>
+    </row>
+    <row r="167">
+      <c r="F167" s="6" t="n"/>
+    </row>
+    <row r="168">
+      <c r="F168" s="6" t="n"/>
+    </row>
+    <row r="169">
+      <c r="F169" s="6" t="n"/>
+    </row>
+    <row r="170">
+      <c r="F170" s="6" t="n"/>
+    </row>
+    <row r="171">
+      <c r="F171" s="6" t="n"/>
+    </row>
+    <row r="172">
+      <c r="F172" s="6" t="n"/>
+    </row>
+    <row r="173">
+      <c r="F173" s="6" t="n"/>
+    </row>
+    <row r="174">
+      <c r="F174" s="6" t="n"/>
+    </row>
+    <row r="175">
+      <c r="F175" s="6" t="n"/>
+    </row>
+    <row r="176">
+      <c r="F176" s="6" t="n"/>
+    </row>
+    <row r="177">
+      <c r="F177" s="6" t="n"/>
+    </row>
+    <row r="178">
+      <c r="F178" s="6" t="n"/>
+    </row>
+    <row r="179">
+      <c r="F179" s="6" t="n"/>
+    </row>
+    <row r="180">
+      <c r="F180" s="6" t="n"/>
+    </row>
+    <row r="181">
+      <c r="F181" s="6" t="n"/>
+    </row>
+    <row r="182">
+      <c r="F182" s="6" t="n"/>
+    </row>
+    <row r="183">
+      <c r="F183" s="6" t="n"/>
+    </row>
+    <row r="184">
+      <c r="F184" s="6" t="n"/>
+    </row>
+    <row r="185">
+      <c r="F185" s="6" t="n"/>
+    </row>
+    <row r="186">
+      <c r="F186" s="6" t="n"/>
+    </row>
+    <row r="187">
+      <c r="F187" s="6" t="n"/>
+    </row>
+    <row r="188">
+      <c r="F188" s="6" t="n"/>
+    </row>
+    <row r="189">
+      <c r="F189" s="6" t="n"/>
+    </row>
+    <row r="190">
+      <c r="F190" s="6" t="n"/>
+    </row>
+    <row r="191">
+      <c r="F191" s="6" t="n"/>
+    </row>
+    <row r="192">
+      <c r="F192" s="6" t="n"/>
+    </row>
+    <row r="193">
+      <c r="F193" s="6" t="n"/>
+    </row>
+    <row r="194">
+      <c r="F194" s="6" t="n"/>
+    </row>
+    <row r="195">
+      <c r="F195" s="6" t="n"/>
+    </row>
+    <row r="196">
+      <c r="F196" s="6" t="n"/>
+    </row>
+    <row r="197">
+      <c r="F197" s="6" t="n"/>
+    </row>
+    <row r="198">
+      <c r="F198" s="6" t="n"/>
+    </row>
+    <row r="199">
+      <c r="F199" s="6" t="n"/>
+    </row>
+    <row r="200">
+      <c r="F200" s="6" t="n"/>
+    </row>
+    <row r="201">
+      <c r="F201" s="6" t="n"/>
+    </row>
+    <row r="202">
+      <c r="F202" s="6" t="n"/>
+    </row>
+    <row r="203">
+      <c r="F203" s="6" t="n"/>
+    </row>
+    <row r="204">
+      <c r="F204" s="6" t="n"/>
+    </row>
+    <row r="205">
+      <c r="F205" s="6" t="n"/>
+    </row>
+    <row r="206">
+      <c r="F206" s="6" t="n"/>
+    </row>
+    <row r="207">
+      <c r="F207" s="6" t="n"/>
+    </row>
+    <row r="208">
+      <c r="F208" s="6" t="n"/>
+    </row>
+    <row r="209">
+      <c r="F209" s="6" t="n"/>
+    </row>
+    <row r="210">
+      <c r="F210" s="6" t="n"/>
+    </row>
+    <row r="211">
+      <c r="F211" s="6" t="n"/>
+    </row>
+    <row r="212">
+      <c r="F212" s="6" t="n"/>
+    </row>
+    <row r="213">
+      <c r="F213" s="6" t="n"/>
+    </row>
+    <row r="214">
+      <c r="F214" s="6" t="n"/>
+    </row>
+    <row r="215">
+      <c r="F215" s="6" t="n"/>
+    </row>
+    <row r="216">
+      <c r="F216" s="6" t="n"/>
+    </row>
+    <row r="217">
+      <c r="F217" s="6" t="n"/>
+    </row>
+    <row r="218">
+      <c r="F218" s="6" t="n"/>
+    </row>
+    <row r="219">
+      <c r="F219" s="6" t="n"/>
+    </row>
+    <row r="220">
+      <c r="F220" s="6" t="n"/>
+    </row>
+    <row r="221">
+      <c r="F221" s="6" t="n"/>
+    </row>
+    <row r="222">
+      <c r="F222" s="6" t="n"/>
+    </row>
+    <row r="223">
+      <c r="F223" s="6" t="n"/>
+    </row>
+    <row r="224">
+      <c r="F224" s="6" t="n"/>
+    </row>
+    <row r="225">
+      <c r="F225" s="6" t="n"/>
+    </row>
+    <row r="226">
+      <c r="F226" s="6" t="n"/>
+    </row>
+    <row r="227">
+      <c r="F227" s="6" t="n"/>
+    </row>
+    <row r="228">
+      <c r="F228" s="6" t="n"/>
+    </row>
+    <row r="229">
+      <c r="F229" s="6" t="n"/>
+    </row>
+    <row r="230">
+      <c r="F230" s="6" t="n"/>
+    </row>
+    <row r="231">
+      <c r="F231" s="6" t="n"/>
+    </row>
+    <row r="232">
+      <c r="F232" s="6" t="n"/>
+    </row>
+    <row r="233">
+      <c r="F233" s="6" t="n"/>
+    </row>
+    <row r="234">
+      <c r="F234" s="6" t="n"/>
+    </row>
+    <row r="235">
+      <c r="F235" s="6" t="n"/>
+    </row>
+    <row r="236">
+      <c r="F236" s="6" t="n"/>
+    </row>
+    <row r="237">
+      <c r="F237" s="6" t="n"/>
+    </row>
+    <row r="238">
+      <c r="F238" s="6" t="n"/>
+    </row>
+    <row r="239">
+      <c r="F239" s="6" t="n"/>
+    </row>
+    <row r="240">
+      <c r="F240" s="6" t="n"/>
+    </row>
+    <row r="241">
+      <c r="F241" s="6" t="n"/>
+    </row>
+    <row r="242">
+      <c r="F242" s="6" t="n"/>
+    </row>
+    <row r="243">
+      <c r="F243" s="6" t="n"/>
+    </row>
+    <row r="244">
+      <c r="F244" s="6" t="n"/>
+    </row>
+    <row r="245">
+      <c r="F245" s="6" t="n"/>
+    </row>
+    <row r="246">
+      <c r="F246" s="6" t="n"/>
+    </row>
+    <row r="247">
+      <c r="F247" s="6" t="n"/>
+    </row>
+    <row r="248">
+      <c r="F248" s="6" t="n"/>
+    </row>
+    <row r="249">
+      <c r="F249" s="6" t="n"/>
+    </row>
+    <row r="250">
+      <c r="F250" s="6" t="n"/>
+    </row>
+    <row r="251">
+      <c r="F251" s="6" t="n"/>
+    </row>
+    <row r="252">
+      <c r="F252" s="6" t="n"/>
+    </row>
+    <row r="253">
+      <c r="F253" s="6" t="n"/>
+    </row>
+    <row r="254">
+      <c r="F254" s="6" t="n"/>
+    </row>
+    <row r="255">
+      <c r="F255" s="6" t="n"/>
+    </row>
+    <row r="256">
+      <c r="F256" s="6" t="n"/>
+    </row>
+    <row r="257">
+      <c r="F257" s="6" t="n"/>
+    </row>
+    <row r="258">
+      <c r="F258" s="6" t="n"/>
+    </row>
+    <row r="259">
+      <c r="F259" s="6" t="n"/>
+    </row>
+    <row r="260">
+      <c r="F260" s="6" t="n"/>
+    </row>
+    <row r="261">
+      <c r="F261" s="6" t="n"/>
+    </row>
+    <row r="262">
+      <c r="F262" s="6" t="n"/>
+    </row>
+    <row r="263">
+      <c r="F263" s="6" t="n"/>
+    </row>
+    <row r="264">
+      <c r="F264" s="6" t="n"/>
+    </row>
+    <row r="265">
+      <c r="F265" s="6" t="n"/>
+    </row>
+    <row r="266">
+      <c r="F266" s="6" t="n"/>
+    </row>
+    <row r="267">
+      <c r="F267" s="6" t="n"/>
+    </row>
+    <row r="268">
+      <c r="F268" s="6" t="n"/>
+    </row>
+    <row r="269">
+      <c r="F269" s="6" t="n"/>
+    </row>
+    <row r="270">
+      <c r="F270" s="6" t="n"/>
+    </row>
+    <row r="271">
+      <c r="F271" s="6" t="n"/>
+    </row>
+    <row r="272">
+      <c r="F272" s="6" t="n"/>
+    </row>
+    <row r="273">
+      <c r="F273" s="6" t="n"/>
+    </row>
+    <row r="274">
+      <c r="F274" s="6" t="n"/>
+    </row>
+    <row r="275">
+      <c r="F275" s="6" t="n"/>
+    </row>
+    <row r="276">
+      <c r="F276" s="6" t="n"/>
+    </row>
+    <row r="277">
+      <c r="F277" s="6" t="n"/>
+    </row>
+    <row r="278">
+      <c r="F278" s="6" t="n"/>
+    </row>
+    <row r="279">
+      <c r="F279" s="6" t="n"/>
+    </row>
+    <row r="280">
+      <c r="F280" s="6" t="n"/>
+    </row>
+    <row r="281">
+      <c r="F281" s="6" t="n"/>
+    </row>
+    <row r="282">
+      <c r="F282" s="6" t="n"/>
+    </row>
+    <row r="283">
+      <c r="F283" s="6" t="n"/>
+    </row>
+    <row r="284">
+      <c r="F284" s="6" t="n"/>
+    </row>
+    <row r="285">
+      <c r="F285" s="6" t="n"/>
+    </row>
+    <row r="286">
+      <c r="F286" s="6" t="n"/>
+    </row>
+    <row r="287">
+      <c r="F287" s="6" t="n"/>
+    </row>
+    <row r="288">
+      <c r="F288" s="6" t="n"/>
+    </row>
+    <row r="289">
+      <c r="F289" s="6" t="n"/>
+    </row>
+    <row r="290">
+      <c r="F290" s="6" t="n"/>
+    </row>
+    <row r="291">
+      <c r="F291" s="6" t="n"/>
+    </row>
+    <row r="292">
+      <c r="F292" s="6" t="n"/>
+    </row>
+    <row r="293">
+      <c r="F293" s="6" t="n"/>
+    </row>
+    <row r="294">
+      <c r="F294" s="6" t="n"/>
+    </row>
+    <row r="295">
+      <c r="F295" s="6" t="n"/>
+    </row>
+    <row r="296">
+      <c r="F296" s="6" t="n"/>
+    </row>
+    <row r="297">
+      <c r="F297" s="6" t="n"/>
+    </row>
+    <row r="298">
+      <c r="F298" s="6" t="n"/>
+    </row>
+    <row r="299">
+      <c r="F299" s="6" t="n"/>
+    </row>
+    <row r="300">
+      <c r="F300" s="6" t="n"/>
+    </row>
+    <row r="301">
+      <c r="F301" s="6" t="n"/>
+    </row>
+    <row r="302">
+      <c r="F302" s="6" t="n"/>
+    </row>
+    <row r="303">
+      <c r="F303" s="6" t="n"/>
+    </row>
+    <row r="304">
+      <c r="F304" s="6" t="n"/>
+    </row>
+    <row r="305">
+      <c r="F305" s="6" t="n"/>
+    </row>
+    <row r="306">
+      <c r="F306" s="6" t="n"/>
+    </row>
+    <row r="307">
+      <c r="F307" s="6" t="n"/>
+    </row>
+    <row r="308">
+      <c r="F308" s="6" t="n"/>
+    </row>
+    <row r="309">
+      <c r="F309" s="6" t="n"/>
+    </row>
+    <row r="310">
+      <c r="F310" s="6" t="n"/>
+    </row>
+    <row r="311">
+      <c r="F311" s="6" t="n"/>
+    </row>
+    <row r="312">
+      <c r="F312" s="6" t="n"/>
+    </row>
+    <row r="313">
+      <c r="F313" s="6" t="n"/>
+    </row>
+    <row r="314">
+      <c r="F314" s="6" t="n"/>
+    </row>
+    <row r="315">
+      <c r="F315" s="6" t="n"/>
+    </row>
+    <row r="316">
+      <c r="F316" s="6" t="n"/>
+    </row>
+    <row r="317">
+      <c r="F317" s="6" t="n"/>
+    </row>
+    <row r="318">
+      <c r="F318" s="6" t="n"/>
+    </row>
+    <row r="319">
+      <c r="F319" s="6" t="n"/>
+    </row>
+    <row r="320">
+      <c r="F320" s="6" t="n"/>
+    </row>
+    <row r="321">
+      <c r="F321" s="6" t="n"/>
+    </row>
+    <row r="322">
+      <c r="F322" s="6" t="n"/>
+    </row>
+    <row r="323">
+      <c r="F323" s="6" t="n"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:F323">
+    <cfRule type="expression" priority="2" dxfId="0">
+      <formula>$D2 &lt; (-1 * $E2 + $L$1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <tableParts count="1">
@@ -2451,11 +5035,11 @@
   <cols>
     <col width="18.6328125" customWidth="1" style="2" min="1" max="1"/>
     <col width="126.1796875" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="126.453125" customWidth="1" style="24" min="3" max="3"/>
+    <col width="126.453125" customWidth="1" style="6" min="3" max="3"/>
     <col width="115.90625" customWidth="1" style="2" min="4" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1" s="28">
+    <row r="1" ht="19" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Referenz</t>
@@ -2466,13 +5050,13 @@
           <t>Beschreibung</t>
         </is>
       </c>
-      <c r="C1" s="24" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Antwort</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="70" customHeight="1" s="28">
+    <row r="2" ht="70" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 BP-1 §5a</t>
@@ -2483,14 +5067,8 @@
           <t>Das Unternehmen gibt an, ob die Nachhaltigkeitserklärung auf konsolidierter oder auf individueller Basis erstellt wurde</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Die Nachhaltigkeitserklärung wurde auf individueller Basis erstellt.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="3" ht="70" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 BP-1 §5b i</t>
@@ -2501,9 +5079,8 @@
           <t>Das Unternehmen gibt für die konsolidierte Nachhaltigkeitsberichterstattung an, ob eine Bestätigung, dass der Konsolidierungskreis der gleiche wie für die Jahresabschlüsse ist, oder gegebenenfalls eine Erklärung, dass das Bericht erstattende Unternehmen keinen Jahresabschluss erstellen muss oder dass das Bericht erstattende Unternehmen eine konsolidierte Nachhaltigkeitsberichterstattung gemäß Artikel 48i der Richtlinie 2013/34/EU erstellt</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="4" ht="70" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 BP-1 §5b ii</t>
@@ -2514,9 +5091,8 @@
           <t>Das Unternehmen gibt für die konsolidierte Nachhaltigkeitsberichterstattung an, ob gegebenenfalls, welche in die Konsolidierung einbezogenen Tochterunternehmen gemäß Artikel 19a Absatz 9 oder Artikel 29a Absatz 8 der Richtlinie 2013/34/EU von der jährlichen oder konsolidierten Nachhaltigkeitsberichterstattung ausgenommen sind</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="5" ht="70" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 BP-1 §5c</t>
@@ -2527,9 +5103,8 @@
           <t>Das Unternehmen gibt an inwieweit die Nachhaltigkeitserklärung die vor- und nachgelagerte Wertschöpfungskette des Unternehmens abdeckt (siehe ESRS 1 Abschnitt 5.1 Bericht erstattendes Unternehmen und Wertschöpfungskette)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="6" ht="70" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 GOV-4 §30; §32</t>
@@ -2540,9 +5115,8 @@
           <t>Das Unternehmen hat eine Übersicht über die in seiner Nachhaltigkeitserklärung bereitgestellten Informationen über das Verfahren zur Erfüllung der Sorgfaltspflicht anzugeben.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="7" ht="70" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 GOV-5 §36a</t>
@@ -2553,9 +5127,8 @@
           <t>Beschreibung des Umfangs, der Hauptmerkmale und Komponenten der Risikomanagement- und internen Kontrollprozesse und -systeme in Bezug auf die Nachhaltigkeitsberichterstattung</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="8" ht="70" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 GOV-5 §36b</t>
@@ -2566,9 +5139,8 @@
           <t>Beschreibung verwendeten Ansatz zur Risikobewertung, einschließlich der Methode zur Priorisierung von Risiken</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="9" ht="70" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 GOV-5 §36c</t>
@@ -2579,9 +5151,8 @@
           <t>Angabe der wichtigsten ermittelten Risiken und die Minderungsstrategien, einschließlich damit verbundener Kontrollen</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="10" ht="70" customHeight="1">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 GOV-5 §36d</t>
@@ -2592,9 +5163,8 @@
           <t>Beschreibung, wie das Unternehmen die Ergebnisse seiner Risikobewertung und seiner internen Kontrollen in Bezug auf das Verfahren der Nachhaltigkeitsberichterstattung in die einschlägigen internen Funktionen und Prozesse einbindet</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="11" ht="70" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §40a i</t>
@@ -2605,9 +5175,8 @@
           <t>Beschreibung wesentlicher Gruppen von angebotenen Produkten und (oder) Dienstleistungen</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="12" ht="70" customHeight="1">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §40a iii</t>
@@ -2618,9 +5187,8 @@
           <t>Angabe der Zahl der Beschäftigten nach geografischen Gebieten</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="13" ht="70" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §40b</t>
@@ -2631,9 +5199,8 @@
           <t>Aufschlüsselung der Gesamteinnahmen, wie sie im Jahresabschluss angegeben wurden, nach den maßgeblichen ESRS-Sektoren. Enthält der Jahresabschluss des Unternehmens Segmentberichterstattung nach dem IFRS 8 Geschäftssegmente, werden diese Informationen über die Umsatzerlöse des Sektors so weit wie möglich mit den Angaben gemäß IFRS 8 abgeglichen</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="14" ht="70" customHeight="1">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §40d i</t>
@@ -2644,9 +5211,8 @@
           <t>Einnahmen aus Taxonomie-konformen Wirtschaftsaktivitäten im Zusammenhang mit fossilem Gas</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="15" ht="70" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §40e</t>
@@ -2657,9 +5223,8 @@
           <t>Beschreibung nachhaltigkeitsbezogener Ziele im Hinblick auf wesentliche Produkt- und Dienstleistungsgruppen, Kundenkategorien, geografische Gebiete und Beziehungen zu Stakeholdern</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="16" ht="70" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §42</t>
@@ -2670,9 +5235,8 @@
           <t>Beschreibung des Geschäftsmodells und der Wertschöpfungskette</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="17" ht="70" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §42a</t>
@@ -2683,9 +5247,8 @@
           <t>Beschreibung der Inputs und Vorgehensweise beim Sammeln, Erarbeiten und Sichern von Inputs</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="18" ht="70" customHeight="1">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §42b</t>
@@ -2696,9 +5259,8 @@
           <t>Beschreibung der Leistungen und Ergebnisse im Hinblick auf aktuelle und erwartete Vorteile für Kunden, Investoren und andere Stakeholder</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="19" ht="70" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-1 §42c</t>
@@ -2709,9 +5271,8 @@
           <t>Beschreibung der wichtigsten Merkmale seiner vor- und nachgelagerten Wertschöpfungskette und der Position des Unternehmens in seiner Wertschöpfungskette, einschließlich einer Beschreibung der wichtigsten Wirtschaftsakteure (wie wichtige Lieferanten, Vertriebskanäle und Endnutzer) und ihrer Beziehung zum Unternehmen. Verfügt das Unternehmen über mehrere Wertschöpfungsketten, erstreckt sich die Angabepflicht auf die wichtigsten Wertschöpfungsketten.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="20" ht="70" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48a</t>
@@ -2722,9 +5283,8 @@
           <t>Angabe einer kurzen Erläuterung seiner wesentlichen Auswirkungen, Risiken und Chancen, die sich aus seiner Bewertung der Wesentlichkeit ergeben (siehe Angabepflicht IRO-1 dieses Standards), einschließlich einer Beschreibung, wo in seinem Geschäftsmodell, seinen eigenen Tätigkeiten und seiner vor- und nachgelagerten Wertschöpfungskette diese wesentlichen Auswirkungen, Risiken und Chancen konzentriert sind</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="21" ht="70" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48b</t>
@@ -2735,9 +5295,8 @@
           <t>Angabe über den derzeitigen und erwarteten Einfluss seiner wesentlichen Auswirkungen, Risiken und Chancen auf sein Geschäftsmodell, seine Wertschöpfungskette, seine Strategie und seine Entscheidungsfindung sowie die Art und Weise, wie es auf diesen Einfluss reagiert hat oder zu reagieren beabsichtigt, einschließlich aller Änderungen, die es im Rahmen seiner Maßnahmen zum Umgang mit bestimmten wesentlichen Auswirkungen oder Risiken oder zur Nutzung bestimmter wesentlicher Chancen an seiner Strategie oder seinem Geschäftsmodell vorgenommen hat oder vorzunehmen beabsichtigt</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="22" ht="70" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48c i</t>
@@ -2748,9 +5307,8 @@
           <t>Angabe wie die wesentlichen negativen und positiven Auswirkungen des Unternehmens sich auf Menschen oder die Umwelt auswirken (oder im Falle potenzieller Auswirkungen, wie sie sich wahrscheinlich auswirken)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="23" ht="70" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48c ii</t>
@@ -2761,9 +5319,8 @@
           <t>Angabe ob und wie die Auswirkungen von der Strategie und dem Geschäftsmodell des Unternehmens ausgehen oder damit in Verbindung stehen</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-    </row>
-    <row r="24" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="24" ht="70" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48c iii</t>
@@ -2774,9 +5331,8 @@
           <t>Angabe welche Zeithorizonte für die Auswirkungen vernünftigerweise zu erwarten sind</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="25" ht="70" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48c iv</t>
@@ -2787,9 +5343,8 @@
           <t>Angabe ob das Unternehmen durch seine Tätigkeiten oder aufgrund seiner Geschäftsbeziehungen einen Anteil an den wesentlichen Auswirkungen hat, mit einer Beschreibung der Art der betreffenden Tätigkeiten oder Geschäftsbeziehungen</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-    </row>
-    <row r="26" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="26" ht="70" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48d</t>
@@ -2800,9 +5355,8 @@
           <t>Offenlegung der aktuellen finanziellen Auswirkungen wesentlicher Risiken und Chancen auf die Finanzlage, die Finanzleistung und die Cashflows sowie wesentliche Risiken und Chancen, bei denen ein erhebliches Risiko einer wesentlichen Anpassung der Buchwerte der in den entsprechenden Abschlüssen ausgewiesenen Vermögenswerte und Verbindlichkeiten innerhalb der nächsten jährlichen Berichtsperiode besteht</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-    </row>
-    <row r="27" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="27" ht="70" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48e</t>
@@ -2813,9 +5367,8 @@
           <t>Offenlegung der erwarteten finanziellen Auswirkungen wesentlicher Risiken und Chancen auf die Finanzlage, die Finanzleistung und die Cashflows kurz-, mittel- und langfristig</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-    </row>
-    <row r="28" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="28" ht="70" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48f</t>
@@ -2826,9 +5379,8 @@
           <t>Informationen zur Widerstandsfähigkeit der Strategie und des Geschäftsmodells hinsichtlich der Fähigkeit, wesentliche Auswirkungen und Risiken zu bewältigen und wesentliche Chancen zu nutzen</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-    </row>
-    <row r="29" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="29" ht="70" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48g</t>
@@ -2839,9 +5391,8 @@
           <t>Angabe der Änderungen der wesentlichen Auswirkungen, Risiken und Chancen im Vergleich zum vorangegangenen Berichtszeitraum</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-    </row>
-    <row r="30" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="30" ht="70" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>ESRS 2 SBM-3 §48h</t>
@@ -2852,7 +5403,6 @@
           <t>Eine genaue Beschreibung der Auswirkungen, Risiken und Chancen, die unter die Angabepflichten des ESRS fallen, im Gegensatz zu den Auswirkungen, die von dem Unternehmen durch zusätzliche unternehmensspezifische Angaben abgedeckt werden</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
@@ -2871,18 +5421,18 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="18.54296875" customWidth="1" style="28" min="1" max="1"/>
-    <col width="125.54296875" customWidth="1" style="28" min="2" max="2"/>
-    <col width="126.08984375" customWidth="1" style="24" min="3" max="3"/>
+    <col width="18.54296875" customWidth="1" min="1" max="1"/>
+    <col width="125.54296875" customWidth="1" min="2" max="2"/>
+    <col width="126.08984375" customWidth="1" style="6" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="28" thickBot="1">
+    <row r="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Referenz</t>
@@ -2899,7 +5449,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="70" customHeight="1" s="28">
+    <row r="2" ht="70" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-P §65a</t>
@@ -2911,13 +5461,8 @@
 auf die sich die Strategie bezieht, sowie des Überwachungsprozesses</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ndekekm</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="3" ht="70" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-P §65b</t>
@@ -2929,9 +5474,8 @@
 geografische Gebiete und gegebenenfalls betroffene Interessengruppen</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="4" ht="70" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-A §68b</t>
@@ -2943,9 +5487,8 @@
  gegebenenfalls betroffene Interessengruppen</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="5" ht="70" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-A §68d</t>
@@ -2957,9 +5500,8 @@
 wesentliche Auswirkungen geschädigt wurden</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="6" ht="70" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-A §69b</t>
@@ -2970,9 +5512,8 @@
           <t>Aktuelle, dem Aktionsplan zugewiesene Finanzmittel (CapEx)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="7" ht="70" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-A §69b</t>
@@ -2983,9 +5524,8 @@
           <t>Aktuelle, dem Aktionsplan zugewiesene Finanzmittel (OpEx)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="8" ht="70" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-A §69c</t>
@@ -2996,9 +5536,8 @@
           <t>Betrag der künftig, dem Aktionsplan zugewiesenen finanziellen Mittel (CapEx)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="9" ht="70" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-A §69c</t>
@@ -3009,9 +5548,8 @@
           <t>Betrag der künftig, dem Aktionsplan zugewiesenen finanziellen Mittel (OpEx)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="10" ht="70" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-M §75</t>
@@ -3023,9 +5561,8 @@
 Auswirkungen, Risiken oder Chancen zu beurteilen</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11" ht="70" customHeight="1" s="28">
+    </row>
+    <row r="11" ht="70" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>ESRS MDR-T §80</t>
@@ -3037,7 +5574,6 @@
 die es zur Bewertung der Fortschritte festgelegt hat. Für jedes Ziel enthält die Angabe folgende Informationen</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
@@ -3062,7 +5598,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="50.6328125" customWidth="1" style="28" min="1" max="3"/>
+    <col width="50.6328125" customWidth="1" min="1" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3095,7 +5631,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mitarbeiter</t>
+          <t>Test</t>
         </is>
       </c>
     </row>
@@ -3114,7 +5650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
@@ -3122,15 +5658,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="12.81640625" bestFit="1" customWidth="1" style="28" min="1" max="1"/>
-    <col width="25.26953125" customWidth="1" style="28" min="2" max="2"/>
-    <col width="28.1796875" customWidth="1" style="28" min="3" max="3"/>
-    <col width="46" customWidth="1" style="28" min="4" max="4"/>
-    <col width="28.1796875" bestFit="1" customWidth="1" style="28" min="5" max="5"/>
-    <col width="25.90625" bestFit="1" customWidth="1" style="28" min="6" max="6"/>
-    <col width="24.54296875" bestFit="1" customWidth="1" style="28" min="7" max="7"/>
-    <col width="39.81640625" customWidth="1" style="28" min="8" max="8"/>
-    <col width="24.54296875" customWidth="1" style="28" min="9" max="9"/>
+    <col width="12.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="25.26953125" customWidth="1" min="2" max="2"/>
+    <col width="28.1796875" customWidth="1" min="3" max="3"/>
+    <col width="46" customWidth="1" min="4" max="4"/>
+    <col width="28.1796875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="25.90625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="24.54296875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="39.81640625" customWidth="1" min="8" max="8"/>
+    <col width="24.54296875" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3186,27 +5722,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Klimawandel</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Klimaschutz</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Angemessene Entlohnung</t>
+        </is>
+      </c>
       <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
         <v>6</v>
       </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Bewohner, Mitarbeiter</t>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3221,27 +5761,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Umweltverschmutzung</t>
+          <t>Betroffene Gemeinschaften</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bodenverschmutzung</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Rechte indigener Völker</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Selbstbestimmung</t>
+        </is>
+      </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bewohner, Mitarbeiter</t>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3252,35 +5796,35 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eigene Belegschaft</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+          <t>Arbeitsbedingungen</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Beschäftigung und Inklusion von Menschen mit Behinderungen</t>
+          <t>Gesundheitsschutz und Sicherheit</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Bewohner, Mitarbeiter</t>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3291,31 +5835,35 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Umweltverschmutzung</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Verschmutzung von lebenden Organismen und Nahrungsressourcen</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sichere Beschäftigung</t>
+        </is>
+      </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bewohner, Mitarbeiter</t>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3326,74 +5874,74 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>noch</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>neue</t>
+          <t>Arbeitsbedingungen</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Punkte</t>
+          <t>Sozialer Dialog</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="n">
-        <v>8</v>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bewohner, Mitarbeiter</t>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Externe Nachhaltigkeitspunkte</t>
+          <t>Themenspezifische ESRS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tarifverhandlungen, einschließlich der Quote der durch Tarifverträge abgedeckten Arbeitskräften</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Eigene Belegschaft</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Arbeitsbedingungen</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tarifverhandlungen, einschließlich der Quote der durch Tarifverträge abgedeckten Arbeitskräften</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4</v>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Bewohner, Mitarbeiter</t>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3404,35 +5952,35 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Vereinbarkeit von Berufs- und Privatleben</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Eigene Belegschaft</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Arbeitsbedingungen</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Vereinbarkeit von Berufs- und Privatleben</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bewohner, Mitarbeiter</t>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3443,31 +5991,35 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Vereinigungsfreiheit, Existenz von Betriebsräten und Rechte der Arbeitnehmer auf Information, Anhörung und Mitbestimmung</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
         <v>6</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Klimawandel</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Anpassung an den Klimawandel</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Bewohner, Mitarbeiter</t>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3478,70 +6030,74 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Beschäftigung und Inklusion von Menschen mit Behinderungen</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
         <v>6</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Klimawandel</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Anpassung an den Klimawandel</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Mitarbeiter</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Interne Nachhaltigkeitspunkte</t>
+          <t>Themenspezifische ESRS</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Gleichstellung der Geschlechter und gleicher Lohn für gleiche Arbeit</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
         <v>6</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Umweltverschmutzung</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Besorgniserregende Stoffe</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4</v>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Bewohner, Mitarbeiter</t>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -3552,34 +6108,3136 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Maßnahmen gegen Gewalt und Belästigung am Arbeitsplatz</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Schulungen und Kompetenzentwicklung</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tarifverhandlungen, einschließlich der Quote der durch Tarifverträge abgedeckten Arbeitskräften</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Angemessene Unterbringung</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Datenschutz</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Kinderarbeit</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wasser- und Sanitäreinrichtungen</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Zwangsarbeit</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bürgerrechte und politische Rechte von Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Auswirkungen auf Menschenrechtsverteidiger</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bürgerrechte und politische Rechte von Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Meinungsfreiheit</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Bürgerrechte und politische Rechte von Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Versammlungsfreiheit</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Rechte indigener Völker</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Freiwillige und in Kenntnis der Sachlage erteilte vorherige Zustimmung</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sozialer Dialog</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Rechte indigener Völker</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Kulturelle Rechte</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Angemessene Ernährung</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Direkte Ausbeutung</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Angemessene Unterbringung</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Bodenbezogene Auswirkungen</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sicherheitsbezogene Auswirkungen</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Betroffene Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Wirtschaftliche, soziale und kulturelle Rechte von Gemeinschaften</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wasser- und Sanitäreinrichtungen</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Auswirkungen auf den Umfang und den Zustand von Ökosystemen</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Bodenversiegelung</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Auswirkungen auf den Umfang und den Zustand von Ökosystemen</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Landdegradation</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Auswirkungen auf den Umfang und den Zustand von Ökosystemen</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Wüstenbildung</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Auswirkungen auf den Zustand der Arten</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Globales Ausrottungsrisiko von Arten</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Auswirkungen auf den Zustand der Arten</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Populationsgröße von Arten</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Auswirkungen und Abhängigkeiten von Ökosystemdienstleistungen</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Auswirkungen und Abhängigkeiten von Ökosystemdienstleistungen</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Invasive gebietsfremde Arten</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Land-, Süßwasser- und Meeresnutzungsänderungen</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>6</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sonstige</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>Umweltverschmutzung</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Angemessene Entlohnung</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Arbeitszeit</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Gesundheitsschutz und Sicherheit</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sichere Beschäftigung</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Vielfalt</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Vereinbarkeit von Berufs- und Privatleben</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Anpassung an den Klimawandel</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Belegschaft Lieferkette</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Arbeitszeit</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Beschäftigung und Inklusion von Menschen mit Behinderungen</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Gleichstellung der Geschlechter und gleicher Lohn für gleiche Arbeit</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Maßnahmen gegen Gewalt und Belästigung am Arbeitsplatz</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Schulungen und Kompetenzentwicklung</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Gleichbehandlung und Chancengleichheit für alle</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Vielfalt</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Angemessene Unterbringung</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Datenschutz</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>6</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Kinderarbeit</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wasser- und Sanitäreinrichtungen</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sonstige arbeitsbezogene Rechte</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Zwangsarbeit</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Eigene Belegschaft</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Arbeitsbedingungen</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Vereinigungsfreiheit, Existenz von Betriebsräten und Rechte der Arbeitnehmer auf Information, Anhörung und Mitbestimmung</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Energie</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Klimaschutz</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Kreislaufwirtschaft</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Abfälle</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Kreislaufwirtschaft</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ressourcenabflüsse im Zusammenhang mit Produkten und Dienstleistungen</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Kreislaufwirtschaft</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ressourcenzuflüsse, einschließlich Ressourcennutzung</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Besonders besorgniserregende Stoffe</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Besorgniserregende Stoffe</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Bodenverschmutzung</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" t="n">
+        <v>6</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>Luftverschmutzung</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Bewohner, Mitarbeiter</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Mikroplastik</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Verschmutzung von lebenden Organismen und Nahrungsressourcen</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Umweltverschmutzung</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Wasserverschmutzung</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Management der Beziehungen zu Lieferanten, einschließlich Zahlungspraktiken</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="n">
+        <v>6</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Politisches Engagement und Lobbytätigkeiten</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Schutz von Hinweisgebern (Whistleblowers)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>6</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tierschutz</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G77" t="n">
+        <v>6</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Unternehmenskultur</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="n">
+        <v>6</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Vermeidung und Aufdeckung einschließlich Schulung</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>6</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Unternehmenspolitik</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Vorkomnisse</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" t="n">
+        <v>6</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Informationsbezogene Auswirkungen für Verbraucher und/oder Endnutzer</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Datenschutz</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>6</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Informationsbezogene Auswirkungen für Verbraucher und/oder Endnutzer</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Meinungsfreiheit</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>6</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Informationsbezogene Auswirkungen für Verbraucher und/oder Endnutzer</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Zugang zu (hochwertigen) Informationen</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="n">
+        <v>6</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Persönliche Sicherheit von Verbrauchern und/oder Endnutzern</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Gesundheitsschutz und Sicherheit</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Persönliche Sicherheit von Verbrauchern und/oder Endnutzern</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Kinderschutz</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" t="n">
+        <v>6</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Persönliche Sicherheit von Verbrauchern und/oder Endnutzern</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Persönliche Sicherheit</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Soziale Inklusion von Verbrauchern und/oder Endnutzern</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Nichtdiskriminierung</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3</v>
+      </c>
+      <c r="G87" t="n">
+        <v>6</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Soziale Inklusion von Verbrauchern und/oder Endnutzern</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Verantwortliche Vermarktungspraktiken</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" t="n">
+        <v>6</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Verbraucher und Endnutzer</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Soziale Inklusion von Verbrauchern und/oder Endnutzern</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Zugang zu Produkten und Dienstleistungen</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" t="n">
+        <v>6</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Wasser- und Meeresressourcen</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ableitung von Wasser</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Wasser- und Meeresressourcen</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ableitung von Wasser in die Ozeane</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3</v>
+      </c>
+      <c r="G91" t="n">
+        <v>6</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Wasser- und Meeresressourcen</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Gewinnung und Nutzung von Meeresressourcen</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Wasser- und Meeresressourcen</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Wasserentnahme</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Themenspezifische ESRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Wasser- und Meeresressourcen</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Wasserverbrauch</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>Themenspezifische ESRS</t>
         </is>
@@ -3608,29 +9266,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="15.81640625" customWidth="1" style="28" min="1" max="1"/>
-    <col width="20.453125" customWidth="1" style="28" min="2" max="2"/>
-    <col width="16.08984375" customWidth="1" style="28" min="5" max="5"/>
-    <col width="20.453125" customWidth="1" style="28" min="6" max="6"/>
-    <col width="11.90625" customWidth="1" style="28" min="7" max="7"/>
+    <col width="15.81640625" customWidth="1" min="1" max="1"/>
+    <col width="20.453125" customWidth="1" min="2" max="2"/>
+    <col width="16.08984375" customWidth="1" min="5" max="5"/>
+    <col width="20.453125" customWidth="1" min="6" max="6"/>
+    <col width="11.90625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.5" customHeight="1" s="28">
-      <c r="A1" s="48" t="inlineStr">
+    <row r="1" ht="29.5" customHeight="1">
+      <c r="A1" s="43" t="inlineStr">
         <is>
           <t>Stakeholder Ranking</t>
         </is>
       </c>
-      <c r="B1" s="49" t="n"/>
-      <c r="C1" s="50" t="n"/>
-      <c r="D1" s="29" t="n"/>
-      <c r="E1" s="51" t="inlineStr">
+      <c r="B1" s="44" t="n"/>
+      <c r="C1" s="45" t="n"/>
+      <c r="D1" s="4" t="n"/>
+      <c r="E1" s="46" t="inlineStr">
         <is>
           <t>In Bewertung aufgenommene Stakeholder</t>
         </is>
       </c>
-      <c r="F1" s="52" t="n"/>
-      <c r="G1" s="53" t="n"/>
+      <c r="F1" s="47" t="n"/>
+      <c r="G1" s="48" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
@@ -3669,432 +9327,392 @@
       <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="inlineStr">
-        <is>
-          <t>Lieferant 1</t>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="24" t="inlineStr">
-        <is>
-          <t>Lieferant 1</t>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>Mitarbeiter</t>
         </is>
       </c>
       <c r="G3" s="7" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24" t="inlineStr">
-        <is>
-          <t>bbfb</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="24" t="inlineStr">
-        <is>
-          <t>Mitarbeiter</t>
-        </is>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="7" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="inlineStr">
-        <is>
-          <t>Mitarbeiter</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="24" t="inlineStr">
-        <is>
-          <t>Bewohner</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="24" t="inlineStr">
-        <is>
-          <t>Bewohner</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="7" t="n"/>
       <c r="E6" s="5" t="n"/>
-      <c r="F6" s="24" t="n"/>
+      <c r="F6" s="6" t="n"/>
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="24" t="n"/>
+      <c r="B7" s="6" t="n"/>
       <c r="C7" s="7" t="n"/>
       <c r="E7" s="5" t="n"/>
-      <c r="F7" s="24" t="n"/>
+      <c r="F7" s="6" t="n"/>
       <c r="G7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="24" t="n"/>
+      <c r="B8" s="6" t="n"/>
       <c r="C8" s="7" t="n"/>
       <c r="E8" s="5" t="n"/>
-      <c r="F8" s="24" t="n"/>
+      <c r="F8" s="6" t="n"/>
       <c r="G8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="24" t="n"/>
+      <c r="B9" s="6" t="n"/>
       <c r="C9" s="7" t="n"/>
       <c r="E9" s="5" t="n"/>
-      <c r="F9" s="24" t="n"/>
+      <c r="F9" s="6" t="n"/>
       <c r="G9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="24" t="n"/>
+      <c r="B10" s="6" t="n"/>
       <c r="C10" s="7" t="n"/>
       <c r="E10" s="5" t="n"/>
-      <c r="F10" s="24" t="n"/>
+      <c r="F10" s="6" t="n"/>
       <c r="G10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="24" t="n"/>
+      <c r="B11" s="6" t="n"/>
       <c r="C11" s="7" t="n"/>
       <c r="E11" s="5" t="n"/>
-      <c r="F11" s="24" t="n"/>
+      <c r="F11" s="6" t="n"/>
       <c r="G11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n"/>
-      <c r="B12" s="24" t="n"/>
+      <c r="B12" s="6" t="n"/>
       <c r="C12" s="7" t="n"/>
       <c r="E12" s="5" t="n"/>
-      <c r="F12" s="24" t="n"/>
+      <c r="F12" s="6" t="n"/>
       <c r="G12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="24" t="n"/>
+      <c r="B13" s="6" t="n"/>
       <c r="C13" s="7" t="n"/>
       <c r="E13" s="5" t="n"/>
-      <c r="F13" s="24" t="n"/>
+      <c r="F13" s="6" t="n"/>
       <c r="G13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="24" t="n"/>
+      <c r="B14" s="6" t="n"/>
       <c r="C14" s="7" t="n"/>
       <c r="E14" s="5" t="n"/>
-      <c r="F14" s="24" t="n"/>
+      <c r="F14" s="6" t="n"/>
       <c r="G14" s="7" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="24" t="n"/>
+      <c r="B15" s="6" t="n"/>
       <c r="C15" s="7" t="n"/>
       <c r="E15" s="5" t="n"/>
-      <c r="F15" s="24" t="n"/>
+      <c r="F15" s="6" t="n"/>
       <c r="G15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="24" t="n"/>
+      <c r="B16" s="6" t="n"/>
       <c r="C16" s="7" t="n"/>
       <c r="E16" s="5" t="n"/>
-      <c r="F16" s="24" t="n"/>
+      <c r="F16" s="6" t="n"/>
       <c r="G16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="24" t="n"/>
+      <c r="B17" s="6" t="n"/>
       <c r="C17" s="7" t="n"/>
       <c r="E17" s="5" t="n"/>
-      <c r="F17" s="24" t="n"/>
+      <c r="F17" s="6" t="n"/>
       <c r="G17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n"/>
-      <c r="B18" s="24" t="n"/>
+      <c r="B18" s="6" t="n"/>
       <c r="C18" s="7" t="n"/>
       <c r="E18" s="5" t="n"/>
-      <c r="F18" s="24" t="n"/>
+      <c r="F18" s="6" t="n"/>
       <c r="G18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="24" t="n"/>
+      <c r="B19" s="6" t="n"/>
       <c r="C19" s="7" t="n"/>
       <c r="E19" s="5" t="n"/>
-      <c r="F19" s="24" t="n"/>
+      <c r="F19" s="6" t="n"/>
       <c r="G19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="24" t="n"/>
+      <c r="B20" s="6" t="n"/>
       <c r="C20" s="7" t="n"/>
       <c r="E20" s="5" t="n"/>
-      <c r="F20" s="24" t="n"/>
+      <c r="F20" s="6" t="n"/>
       <c r="G20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="24" t="n"/>
+      <c r="B21" s="6" t="n"/>
       <c r="C21" s="7" t="n"/>
       <c r="E21" s="5" t="n"/>
-      <c r="F21" s="24" t="n"/>
+      <c r="F21" s="6" t="n"/>
       <c r="G21" s="7" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="24" t="n"/>
+      <c r="B22" s="6" t="n"/>
       <c r="C22" s="7" t="n"/>
       <c r="E22" s="5" t="n"/>
-      <c r="F22" s="24" t="n"/>
+      <c r="F22" s="6" t="n"/>
       <c r="G22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="24" t="n"/>
+      <c r="B23" s="6" t="n"/>
       <c r="C23" s="7" t="n"/>
       <c r="E23" s="5" t="n"/>
-      <c r="F23" s="24" t="n"/>
+      <c r="F23" s="6" t="n"/>
       <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="24" t="n"/>
+      <c r="B24" s="6" t="n"/>
       <c r="C24" s="7" t="n"/>
       <c r="E24" s="5" t="n"/>
-      <c r="F24" s="24" t="n"/>
+      <c r="F24" s="6" t="n"/>
       <c r="G24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="24" t="n"/>
+      <c r="B25" s="6" t="n"/>
       <c r="C25" s="7" t="n"/>
       <c r="E25" s="5" t="n"/>
-      <c r="F25" s="24" t="n"/>
+      <c r="F25" s="6" t="n"/>
       <c r="G25" s="7" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n"/>
-      <c r="B26" s="24" t="n"/>
+      <c r="B26" s="6" t="n"/>
       <c r="C26" s="7" t="n"/>
       <c r="E26" s="5" t="n"/>
-      <c r="F26" s="24" t="n"/>
+      <c r="F26" s="6" t="n"/>
       <c r="G26" s="7" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="24" t="n"/>
+      <c r="B27" s="6" t="n"/>
       <c r="C27" s="7" t="n"/>
       <c r="E27" s="5" t="n"/>
-      <c r="F27" s="24" t="n"/>
+      <c r="F27" s="6" t="n"/>
       <c r="G27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="24" t="n"/>
+      <c r="B28" s="6" t="n"/>
       <c r="C28" s="7" t="n"/>
       <c r="E28" s="5" t="n"/>
-      <c r="F28" s="24" t="n"/>
+      <c r="F28" s="6" t="n"/>
       <c r="G28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="24" t="n"/>
+      <c r="B29" s="6" t="n"/>
       <c r="C29" s="7" t="n"/>
       <c r="E29" s="5" t="n"/>
-      <c r="F29" s="24" t="n"/>
+      <c r="F29" s="6" t="n"/>
       <c r="G29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="24" t="n"/>
+      <c r="B30" s="6" t="n"/>
       <c r="C30" s="7" t="n"/>
       <c r="E30" s="5" t="n"/>
-      <c r="F30" s="24" t="n"/>
+      <c r="F30" s="6" t="n"/>
       <c r="G30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="24" t="n"/>
+      <c r="B31" s="6" t="n"/>
       <c r="C31" s="7" t="n"/>
       <c r="E31" s="5" t="n"/>
-      <c r="F31" s="24" t="n"/>
+      <c r="F31" s="6" t="n"/>
       <c r="G31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="24" t="n"/>
+      <c r="B32" s="6" t="n"/>
       <c r="C32" s="7" t="n"/>
       <c r="E32" s="5" t="n"/>
-      <c r="F32" s="24" t="n"/>
+      <c r="F32" s="6" t="n"/>
       <c r="G32" s="7" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="24" t="n"/>
+      <c r="B33" s="6" t="n"/>
       <c r="C33" s="7" t="n"/>
       <c r="E33" s="5" t="n"/>
-      <c r="F33" s="24" t="n"/>
+      <c r="F33" s="6" t="n"/>
       <c r="G33" s="7" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="24" t="n"/>
+      <c r="B34" s="6" t="n"/>
       <c r="C34" s="7" t="n"/>
       <c r="E34" s="5" t="n"/>
-      <c r="F34" s="24" t="n"/>
+      <c r="F34" s="6" t="n"/>
       <c r="G34" s="7" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n"/>
-      <c r="B35" s="24" t="n"/>
+      <c r="B35" s="6" t="n"/>
       <c r="C35" s="7" t="n"/>
       <c r="E35" s="5" t="n"/>
-      <c r="F35" s="24" t="n"/>
+      <c r="F35" s="6" t="n"/>
       <c r="G35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="24" t="n"/>
+      <c r="B36" s="6" t="n"/>
       <c r="C36" s="7" t="n"/>
       <c r="E36" s="5" t="n"/>
-      <c r="F36" s="24" t="n"/>
+      <c r="F36" s="6" t="n"/>
       <c r="G36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="24" t="n"/>
+      <c r="B37" s="6" t="n"/>
       <c r="C37" s="7" t="n"/>
       <c r="E37" s="5" t="n"/>
-      <c r="F37" s="24" t="n"/>
+      <c r="F37" s="6" t="n"/>
       <c r="G37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="24" t="n"/>
+      <c r="B38" s="6" t="n"/>
       <c r="C38" s="7" t="n"/>
       <c r="E38" s="5" t="n"/>
-      <c r="F38" s="24" t="n"/>
+      <c r="F38" s="6" t="n"/>
       <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="24" t="n"/>
+      <c r="B39" s="6" t="n"/>
       <c r="C39" s="7" t="n"/>
       <c r="E39" s="5" t="n"/>
-      <c r="F39" s="24" t="n"/>
+      <c r="F39" s="6" t="n"/>
       <c r="G39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="24" t="n"/>
+      <c r="B40" s="6" t="n"/>
       <c r="C40" s="7" t="n"/>
       <c r="E40" s="5" t="n"/>
-      <c r="F40" s="24" t="n"/>
+      <c r="F40" s="6" t="n"/>
       <c r="G40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="24" t="n"/>
+      <c r="B41" s="6" t="n"/>
       <c r="C41" s="7" t="n"/>
       <c r="E41" s="5" t="n"/>
-      <c r="F41" s="24" t="n"/>
+      <c r="F41" s="6" t="n"/>
       <c r="G41" s="7" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="24" t="n"/>
+      <c r="B42" s="6" t="n"/>
       <c r="C42" s="7" t="n"/>
       <c r="E42" s="5" t="n"/>
-      <c r="F42" s="24" t="n"/>
+      <c r="F42" s="6" t="n"/>
       <c r="G42" s="7" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n"/>
-      <c r="B43" s="24" t="n"/>
+      <c r="B43" s="6" t="n"/>
       <c r="C43" s="7" t="n"/>
       <c r="E43" s="5" t="n"/>
-      <c r="F43" s="24" t="n"/>
+      <c r="F43" s="6" t="n"/>
       <c r="G43" s="7" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n"/>
-      <c r="B44" s="24" t="n"/>
+      <c r="B44" s="6" t="n"/>
       <c r="C44" s="7" t="n"/>
       <c r="E44" s="5" t="n"/>
-      <c r="F44" s="24" t="n"/>
+      <c r="F44" s="6" t="n"/>
       <c r="G44" s="7" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n"/>
-      <c r="B45" s="24" t="n"/>
+      <c r="B45" s="6" t="n"/>
       <c r="C45" s="7" t="n"/>
       <c r="E45" s="5" t="n"/>
-      <c r="F45" s="24" t="n"/>
+      <c r="F45" s="6" t="n"/>
       <c r="G45" s="7" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n"/>
-      <c r="B46" s="24" t="n"/>
+      <c r="B46" s="6" t="n"/>
       <c r="C46" s="7" t="n"/>
       <c r="E46" s="5" t="n"/>
-      <c r="F46" s="24" t="n"/>
+      <c r="F46" s="6" t="n"/>
       <c r="G46" s="7" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="24" t="n"/>
+      <c r="B47" s="6" t="n"/>
       <c r="C47" s="7" t="n"/>
       <c r="E47" s="5" t="n"/>
-      <c r="F47" s="24" t="n"/>
+      <c r="F47" s="6" t="n"/>
       <c r="G47" s="7" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="24" t="n"/>
+      <c r="B48" s="6" t="n"/>
       <c r="C48" s="7" t="n"/>
       <c r="E48" s="5" t="n"/>
-      <c r="F48" s="24" t="n"/>
+      <c r="F48" s="6" t="n"/>
       <c r="G48" s="7" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n"/>
-      <c r="B49" s="24" t="n"/>
+      <c r="B49" s="6" t="n"/>
       <c r="C49" s="7" t="n"/>
       <c r="E49" s="5" t="n"/>
-      <c r="F49" s="24" t="n"/>
+      <c r="F49" s="6" t="n"/>
       <c r="G49" s="7" t="n"/>
     </row>
     <row r="50">
@@ -4116,45 +9734,4 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor theme="6"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" ht="24.5" customHeight="1" s="28">
-      <c r="A1" s="23" t="inlineStr">
-        <is>
-          <t>Angabepflicht IRO-1 – Beschreibung des Verfahrens zur Ermittlung und Bewertung der wesentlichen Auswirkungen, Risiken und Chancen</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="19" customHeight="1" s="28">
-      <c r="A2" s="24" t="inlineStr">
-        <is>
-          <t>1. Das Unternehmen hat sein Verfahren zur Ermittlung seiner Auswirkungen, Risiken und Chancen und zur Bewertung ihrer Wesentlichkeit anzugeben</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" s="14" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Ergebnisse_WA.xlsx
+++ b/Ergebnisse_WA.xlsx
@@ -790,61 +790,6 @@
     </pic>
     <clientData/>
   </twoCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>18</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5715000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5715000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -1376,7 +1321,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Es fehlen noch 98.9%.</t>
+          <t>✘</t>
         </is>
       </c>
       <c r="G5" s="19" t="n"/>
@@ -1404,7 +1349,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Es fehlt noch 1 Stakeholder.</t>
+          <t>✘</t>
         </is>
       </c>
       <c r="G7" s="19" t="n"/>
@@ -1418,7 +1363,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>✔</t>
+          <t>✘</t>
         </is>
       </c>
       <c r="G8" s="19" t="n"/>
@@ -1450,7 +1395,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
@@ -1471,7 +1416,7 @@
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="4" t="n"/>
@@ -1495,7 +1440,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="n"/>
       <c r="E14" s="4" t="n"/>
@@ -1509,9 +1454,7 @@
           <t>davon bewertet:</t>
         </is>
       </c>
-      <c r="C15" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="C15" s="4" t="n"/>
       <c r="D15" s="4" t="n"/>
       <c r="E15" s="4" t="n"/>
       <c r="F15" s="4" t="n"/>
@@ -1643,7 +1586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -1680,31 +1623,6 @@
       <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Bewertet</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eigene Belegschaft</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Arbeitsbedingungen</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sichere Beschäftigung</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L323"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
@@ -1768,33 +1686,12 @@
           <t>Stakeholder Wichtigkeit</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Schwellenwert für wesentliche Themen:</t>
-        </is>
-      </c>
-      <c r="L1" t="n">
-        <v>370</v>
-      </c>
     </row>
     <row r="2">
       <c r="F2" s="6" t="n"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Schwellenwert für Stakeholder Wichtigkeit:</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="3">
       <c r="F3" s="6" t="n"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Wesentlichkeitsmatrix der Shortlist:</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="F4" s="6" t="n"/>
@@ -2763,9 +2660,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2819,7 +2715,12 @@
           <t>Das Unternehmen gibt an, ob die Nachhaltigkeitserklärung auf konsolidierter oder auf individueller Basis erstellt wurde</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="70" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
@@ -3571,28 +3472,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>Mitarbeiter</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>88</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>Mitarbeiter</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>88</v>
-      </c>
+      <c r="A3" s="5" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="7" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="7" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n"/>
